--- a/DATA/actind.xlsx
+++ b/DATA/actind.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Tabulado" sheetId="1" r:id="Rffb90d8258594b1e"/>
-    <sheet name="MetaInfo" sheetId="2" r:id="Re92bb4a2c5ce4f52"/>
+    <sheet name="Tabulado" sheetId="1" r:id="R92687ce5ed144914"/>
+    <sheet name="MetaInfo" sheetId="2" r:id="R322b4027472b4191"/>
   </sheets>
 </workbook>
 </file>
@@ -24,7 +24,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
+          <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
     </comment>
@@ -35,7 +35,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
+          <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
     </comment>
@@ -46,7 +46,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
+          <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
     </comment>
@@ -57,11 +57,22 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
+          <t xml:space="preserve">P. Cifras preliminares</t>
+        </d:r>
+      </text>
+    </comment>
+    <comment ref="ND6" authorId="0">
+      <text>
+        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
-    <comment ref="ND6" authorId="0">
+    <comment ref="NE6" authorId="0">
       <text>
         <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
           <rPr>
@@ -82,7 +93,7 @@
     <t>Instituto Nacional de Estadística y Geografía (INEGI).</t>
   </si>
   <si>
-    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Actividad Industrial. Año Base 2013. Serie de enero de 1993 a marzo de 2021</t>
+    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Actividad Industrial. Año Base 2013. Serie de enero de 1993 a abril de 2021</t>
   </si>
   <si>
     <t>Índice de volumen físico base 2013=100</t>
@@ -185,7 +196,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
+      <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
@@ -205,7 +216,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
+      <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
@@ -267,7 +278,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
+      <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
@@ -287,6 +298,26 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
+      <d:t xml:space="preserve">P</d:t>
+    </d:r>
+  </si>
+  <si>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="10"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t> Marzo</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:vertAlign val="superscript"/>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
       <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
@@ -297,7 +328,7 @@
         <d:sz val="10"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
-      <d:t> Marzo</d:t>
+      <d:t> Abril</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -423,25 +454,6 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t>R</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="10"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">Cifras revisadas</d:t>
-    </d:r>
-  </si>
-  <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
       <d:t>P</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -454,7 +466,23 @@
     </d:r>
   </si>
   <si>
-    <t>Nota: Con base en los ´´Lineamientos de cambios a la información divulgada en las publicaciones estadísticas y geográficas del INEGI´´ y que complementan la ´´Normas Especiales para la Divulgación de Datos´´ del FMI, al disponer de un dato más reciente generado por las Cuentas de Bienes y Servicios 2019 versión revisada y en esta ocasión, por la incorporación de la construcción del Aeropuerto Internacional Felipe Ángeles a la Encuesta Nacional de Empresas Constructoras (ENEC), desde octubre 2019, así como la inclusión de la última información estadística disponible de la Encuesta Mensual de la Industria Manufacturera y de los registros administrativos, se debe realizar la actualización de este indicador. Como resultado de incorporar dicha información, se identifican diferencias en los niveles de los índices y variaciones que fueron oportunamente publicadas.</t>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:vertAlign val="superscript"/>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
+      <d:t>R</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="10"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
+      <d:t xml:space="preserve">Cifras revisadas</d:t>
+    </d:r>
   </si>
   <si>
     <t>Fuente: INEGI. Sistema de Cuentas Nacionales de México. Indicador Mensual de la Actividad Industrial</t>
@@ -523,19 +551,19 @@
     <t>COBERTURA TEMPORAL</t>
   </si>
   <si>
-    <t>1993-01-2021-03</t>
+    <t>1993-01-2021-04</t>
   </si>
   <si>
     <t>DESCRIPCIÓN PERIODO</t>
   </si>
   <si>
-    <t>Serie de enero de 1993 a marzo de 2021</t>
+    <t>Serie de enero de 1993 a abril de 2021</t>
   </si>
   <si>
     <t>FECHA DE ACTUALIZACIÓN</t>
   </si>
   <si>
-    <t>2021-05-12</t>
+    <t>2021-06-11</t>
   </si>
 </sst>
 </file>
@@ -676,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:NN48"/>
+  <dimension ref="A1:NN47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2621,7 +2649,7 @@
         <v>48</v>
       </c>
       <c r="NE6" s="10" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="NF6" s="10" t="s">
         <v>37</v>
@@ -2653,7 +2681,7 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="11">
         <v>69.222752741001</v>
@@ -3754,42 +3782,42 @@
         <v>95.077009216112</v>
       </c>
       <c r="ND7" s="11">
-        <v>101.161517771466</v>
-      </c>
-      <c r="NE7" s="14" t="s">
-        <v>50</v>
+        <v>101.173294574985</v>
+      </c>
+      <c r="NE7" s="11">
+        <v>97.035755126306</v>
       </c>
       <c r="NF7" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG7" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH7" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI7" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ7" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK7" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL7" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM7" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN7" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" s="12">
         <v>85.987958716261</v>
@@ -4890,42 +4918,42 @@
         <v>73.158130206302</v>
       </c>
       <c r="ND8" s="12">
-        <v>75.513000327488</v>
-      </c>
-      <c r="NE8" s="15" t="s">
-        <v>50</v>
+        <v>75.491659482618</v>
+      </c>
+      <c r="NE8" s="12">
+        <v>72.812366103638</v>
       </c>
       <c r="NF8" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG8" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH8" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI8" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ8" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK8" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL8" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM8" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN8" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" s="11">
         <v>99.519341749343</v>
@@ -6028,40 +6056,40 @@
       <c r="ND9" s="11">
         <v>69.239305126376</v>
       </c>
-      <c r="NE9" s="14" t="s">
-        <v>50</v>
+      <c r="NE9" s="11">
+        <v>66.960931086384</v>
       </c>
       <c r="NF9" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG9" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH9" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI9" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ9" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK9" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL9" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM9" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN9" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="12">
         <v>48.814950253715</v>
@@ -7162,42 +7190,42 @@
         <v>104.923635255705</v>
       </c>
       <c r="ND10" s="12">
-        <v>106.044719883642</v>
-      </c>
-      <c r="NE10" s="15" t="s">
-        <v>50</v>
+        <v>105.898530626126</v>
+      </c>
+      <c r="NE10" s="12">
+        <v>103.648086907926</v>
       </c>
       <c r="NF10" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG10" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH10" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI10" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ10" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK10" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL10" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM10" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN10" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" s="11">
         <v>22.744141472693</v>
@@ -8300,40 +8328,40 @@
       <c r="ND11" s="11">
         <v>80.522360035365</v>
       </c>
-      <c r="NE11" s="14" t="s">
-        <v>50</v>
+      <c r="NE11" s="11">
+        <v>73.171197853963</v>
       </c>
       <c r="NF11" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG11" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH11" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI11" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ11" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK11" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL11" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM11" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN11" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" s="12">
         <v>38.665943249786</v>
@@ -8858,7 +8886,7 @@
         <v>82.285700021575</v>
       </c>
       <c r="FT12" s="12">
-        <v>84.872908092727</v>
+        <v>84.872908092728</v>
       </c>
       <c r="FU12" s="12">
         <v>87.006771936463</v>
@@ -9434,42 +9462,42 @@
         <v>96.753802086374</v>
       </c>
       <c r="ND12" s="12">
-        <v>104.27279060218</v>
-      </c>
-      <c r="NE12" s="15" t="s">
-        <v>50</v>
+        <v>104.373253704486</v>
+      </c>
+      <c r="NE12" s="12">
+        <v>105.395835417527</v>
       </c>
       <c r="NF12" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG12" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH12" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI12" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ12" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK12" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL12" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM12" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN12" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13" s="11">
         <v>33.532463105934</v>
@@ -9994,7 +10022,7 @@
         <v>77.96308232892</v>
       </c>
       <c r="FT13" s="11">
-        <v>81.350354205881</v>
+        <v>81.350354205882</v>
       </c>
       <c r="FU13" s="11">
         <v>83.983953249091</v>
@@ -10570,42 +10598,42 @@
         <v>94.871791910574</v>
       </c>
       <c r="ND13" s="11">
-        <v>103.871447565443</v>
-      </c>
-      <c r="NE13" s="14" t="s">
-        <v>50</v>
+        <v>104.001169619886</v>
+      </c>
+      <c r="NE13" s="11">
+        <v>105.019732238922</v>
       </c>
       <c r="NF13" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG13" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH13" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI13" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ13" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK13" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL13" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM13" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN13" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="12">
         <v>56.292184219235</v>
@@ -11708,40 +11736,40 @@
       <c r="ND14" s="12">
         <v>105.650836075953</v>
       </c>
-      <c r="NE14" s="15" t="s">
-        <v>50</v>
+      <c r="NE14" s="12">
+        <v>106.687217690315</v>
       </c>
       <c r="NF14" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG14" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH14" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI14" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ14" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK14" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL14" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM14" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN14" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" s="11">
         <v>71.2627077305</v>
@@ -12842,42 +12870,42 @@
         <v>95.591974437701</v>
       </c>
       <c r="ND15" s="11">
-        <v>89.900801958986</v>
-      </c>
-      <c r="NE15" s="14" t="s">
-        <v>50</v>
+        <v>89.819049902068</v>
+      </c>
+      <c r="NE15" s="11">
+        <v>89.325076023488</v>
       </c>
       <c r="NF15" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG15" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH15" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI15" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ15" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK15" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL15" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM15" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN15" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" s="12">
         <v>84.037802362945</v>
@@ -13771,7 +13799,7 @@
         <v>107.456876229305</v>
       </c>
       <c r="KM16" s="12">
-        <v>109.69972489064</v>
+        <v>109.699724890639</v>
       </c>
       <c r="KN16" s="12">
         <v>106.221231756916</v>
@@ -13978,42 +14006,42 @@
         <v>105.535413256398</v>
       </c>
       <c r="ND16" s="12">
-        <v>93.346027093119</v>
-      </c>
-      <c r="NE16" s="15" t="s">
-        <v>50</v>
+        <v>93.208922854422</v>
+      </c>
+      <c r="NE16" s="12">
+        <v>92.907420756914</v>
       </c>
       <c r="NF16" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG16" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH16" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI16" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ16" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK16" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL16" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM16" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN16" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B17" s="11">
         <v>35.064527007042</v>
@@ -15090,7 +15118,7 @@
         <v>50.631944025606</v>
       </c>
       <c r="MV17" s="11">
-        <v>56.073389775793</v>
+        <v>56.073389775792</v>
       </c>
       <c r="MW17" s="11">
         <v>53.730057240421</v>
@@ -15114,42 +15142,42 @@
         <v>51.957028028674</v>
       </c>
       <c r="ND17" s="11">
-        <v>58.258313926902</v>
-      </c>
-      <c r="NE17" s="14" t="s">
-        <v>50</v>
+        <v>58.177850195742</v>
+      </c>
+      <c r="NE17" s="11">
+        <v>53.952265709705</v>
       </c>
       <c r="NF17" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG17" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH17" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI17" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ17" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK17" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL17" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM17" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN17" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B18" s="12">
         <v>73.87209194618</v>
@@ -16250,42 +16278,42 @@
         <v>131.628084968613</v>
       </c>
       <c r="ND18" s="12">
-        <v>138.730974722543</v>
-      </c>
-      <c r="NE18" s="15" t="s">
-        <v>50</v>
+        <v>138.980055867861</v>
+      </c>
+      <c r="NE18" s="12">
+        <v>145.533594665284</v>
       </c>
       <c r="NF18" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG18" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH18" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI18" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ18" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK18" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL18" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM18" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN18" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B19" s="11">
         <v>63.653052579688</v>
@@ -17122,7 +17150,7 @@
         <v>106.941322006685</v>
       </c>
       <c r="JT19" s="11">
-        <v>105.230620689974</v>
+        <v>105.230620689975</v>
       </c>
       <c r="JU19" s="11">
         <v>105.554969592329</v>
@@ -17170,7 +17198,7 @@
         <v>107.711396263853</v>
       </c>
       <c r="KJ19" s="11">
-        <v>108.022283783149</v>
+        <v>108.022283783148</v>
       </c>
       <c r="KK19" s="11">
         <v>113.751953282089</v>
@@ -17386,42 +17414,42 @@
         <v>104.488403384241</v>
       </c>
       <c r="ND19" s="11">
-        <v>117.639028669979</v>
-      </c>
-      <c r="NE19" s="14" t="s">
-        <v>50</v>
+        <v>117.701173217825</v>
+      </c>
+      <c r="NE19" s="11">
+        <v>110.710380245816</v>
       </c>
       <c r="NF19" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG19" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH19" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI19" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ19" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK19" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL19" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM19" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN19" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B20" s="12">
         <v>63.907698868213</v>
@@ -18522,42 +18550,42 @@
         <v>113.620995092318</v>
       </c>
       <c r="ND20" s="12">
-        <v>119.905062245519</v>
-      </c>
-      <c r="NE20" s="15" t="s">
-        <v>50</v>
+        <v>120.003149176838</v>
+      </c>
+      <c r="NE20" s="12">
+        <v>115.96336718697</v>
       </c>
       <c r="NF20" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG20" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH20" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI20" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ20" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK20" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL20" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM20" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN20" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21" s="11">
         <v>56.569385260854</v>
@@ -19658,42 +19686,42 @@
         <v>107.897779664634</v>
       </c>
       <c r="ND21" s="11">
-        <v>125.926238854996</v>
-      </c>
-      <c r="NE21" s="14" t="s">
-        <v>50</v>
+        <v>125.927442997954</v>
+      </c>
+      <c r="NE21" s="11">
+        <v>126.713582958041</v>
       </c>
       <c r="NF21" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG21" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH21" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI21" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ21" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK21" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL21" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM21" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN21" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B22" s="12">
         <v>114.319677175604</v>
@@ -20119,7 +20147,7 @@
         <v>117.907452401807</v>
       </c>
       <c r="EM22" s="12">
-        <v>102.663934277922</v>
+        <v>102.663934277921</v>
       </c>
       <c r="EN22" s="12">
         <v>121.171668236243</v>
@@ -20257,7 +20285,7 @@
         <v>110.759665886981</v>
       </c>
       <c r="GG22" s="12">
-        <v>117.713454149937</v>
+        <v>117.713454149938</v>
       </c>
       <c r="GH22" s="12">
         <v>117.736921541804</v>
@@ -20794,42 +20822,42 @@
         <v>81.34647735232</v>
       </c>
       <c r="ND22" s="12">
-        <v>88.981329939774</v>
-      </c>
-      <c r="NE22" s="15" t="s">
-        <v>50</v>
+        <v>89.01383173174</v>
+      </c>
+      <c r="NE22" s="12">
+        <v>88.384684308811</v>
       </c>
       <c r="NF22" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG22" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH22" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI22" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ22" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK22" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL22" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM22" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN22" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" s="11">
         <v>120.050850501477</v>
@@ -21549,7 +21577,7 @@
         <v>93.175225480757</v>
       </c>
       <c r="IG23" s="11">
-        <v>96.070279662976</v>
+        <v>96.070279662975</v>
       </c>
       <c r="IH23" s="11">
         <v>101.737313361619</v>
@@ -21930,42 +21958,42 @@
         <v>102.970780477154</v>
       </c>
       <c r="ND23" s="11">
-        <v>116.369200776183</v>
-      </c>
-      <c r="NE23" s="14" t="s">
-        <v>50</v>
+        <v>116.221712292736</v>
+      </c>
+      <c r="NE23" s="11">
+        <v>87.79525425784</v>
       </c>
       <c r="NF23" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG23" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH23" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI23" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ23" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK23" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL23" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM23" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN23" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" s="12">
         <v>90.688383871069</v>
@@ -23066,42 +23094,42 @@
         <v>68.789347704684</v>
       </c>
       <c r="ND24" s="12">
-        <v>83.42370030114</v>
-      </c>
-      <c r="NE24" s="15" t="s">
-        <v>50</v>
+        <v>83.459645534257</v>
+      </c>
+      <c r="NE24" s="12">
+        <v>77.584071509803</v>
       </c>
       <c r="NF24" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG24" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH24" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI24" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ24" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK24" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL24" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM24" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN24" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B25" s="11">
         <v>139.460849924193</v>
@@ -24202,42 +24230,42 @@
         <v>71.093476954908</v>
       </c>
       <c r="ND25" s="11">
-        <v>73.932529219672</v>
-      </c>
-      <c r="NE25" s="14" t="s">
-        <v>50</v>
+        <v>73.936166356142</v>
+      </c>
+      <c r="NE25" s="11">
+        <v>69.734921214659</v>
       </c>
       <c r="NF25" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG25" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH25" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI25" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ25" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK25" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL25" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM25" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN25" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B26" s="12">
         <v>130.395494603712</v>
@@ -24999,7 +25027,7 @@
         <v>111.318450734813</v>
       </c>
       <c r="IU26" s="12">
-        <v>97.416158126745</v>
+        <v>97.416158126744</v>
       </c>
       <c r="IV26" s="12">
         <v>107.114454959646</v>
@@ -25338,42 +25366,42 @@
         <v>94.46006993351</v>
       </c>
       <c r="ND26" s="12">
-        <v>100.811856472554</v>
-      </c>
-      <c r="NE26" s="15" t="s">
-        <v>50</v>
+        <v>101.229662444775</v>
+      </c>
+      <c r="NE26" s="12">
+        <v>91.750667075691</v>
       </c>
       <c r="NF26" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG26" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH26" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI26" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ26" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK26" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL26" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM26" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN26" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B27" s="11">
         <v>51.479382699588</v>
@@ -26474,42 +26502,42 @@
         <v>107.645840337483</v>
       </c>
       <c r="ND27" s="11">
-        <v>122.146207939647</v>
-      </c>
-      <c r="NE27" s="14" t="s">
-        <v>50</v>
+        <v>122.145350408347</v>
+      </c>
+      <c r="NE27" s="11">
+        <v>130.972043021847</v>
       </c>
       <c r="NF27" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG27" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH27" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI27" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ27" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK27" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL27" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM27" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN27" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B28" s="12">
         <v>68.358361009475</v>
@@ -27610,42 +27638,42 @@
         <v>92.050810458411</v>
       </c>
       <c r="ND28" s="12">
-        <v>101.019369152552</v>
-      </c>
-      <c r="NE28" s="15" t="s">
-        <v>50</v>
+        <v>101.013238804924</v>
+      </c>
+      <c r="NE28" s="12">
+        <v>70.802412138902</v>
       </c>
       <c r="NF28" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG28" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH28" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI28" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ28" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK28" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL28" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM28" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN28" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B29" s="11">
         <v>76.901717312341</v>
@@ -28748,40 +28776,40 @@
       <c r="ND29" s="11">
         <v>65.118064062477</v>
       </c>
-      <c r="NE29" s="14" t="s">
-        <v>50</v>
+      <c r="NE29" s="11">
+        <v>48.969382478693</v>
       </c>
       <c r="NF29" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG29" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH29" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI29" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ29" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK29" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL29" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM29" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN29" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B30" s="12">
         <v>73.778714563351</v>
@@ -29882,42 +29910,42 @@
         <v>75.628031858608</v>
       </c>
       <c r="ND30" s="12">
-        <v>82.058849013869</v>
-      </c>
-      <c r="NE30" s="15" t="s">
-        <v>50</v>
+        <v>82.052720546437</v>
+      </c>
+      <c r="NE30" s="12">
+        <v>77.431767017449</v>
       </c>
       <c r="NF30" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG30" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH30" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI30" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ30" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK30" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL30" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM30" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN30" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B31" s="11">
         <v>73.811018646336</v>
@@ -30100,7 +30128,7 @@
         <v>92.530672204995</v>
       </c>
       <c r="BJ31" s="11">
-        <v>84.822315953758</v>
+        <v>84.822315953759</v>
       </c>
       <c r="BK31" s="11">
         <v>91.197770456276</v>
@@ -30721,7 +30749,7 @@
         <v>105.279540530588</v>
       </c>
       <c r="JI31" s="11">
-        <v>103.79997342929</v>
+        <v>103.799973429289</v>
       </c>
       <c r="JJ31" s="11">
         <v>97.719773098197</v>
@@ -31018,42 +31046,42 @@
         <v>116.921893537868</v>
       </c>
       <c r="ND31" s="11">
-        <v>123.808961321331</v>
-      </c>
-      <c r="NE31" s="14" t="s">
-        <v>50</v>
+        <v>123.930523132745</v>
+      </c>
+      <c r="NE31" s="11">
+        <v>126.591375619751</v>
       </c>
       <c r="NF31" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG31" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH31" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI31" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ31" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK31" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL31" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM31" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN31" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B32" s="12">
         <v>86.120032958035</v>
@@ -32154,42 +32182,42 @@
         <v>109.385968935807</v>
       </c>
       <c r="ND32" s="12">
-        <v>120.83492059761</v>
-      </c>
-      <c r="NE32" s="15" t="s">
-        <v>50</v>
+        <v>120.846536399751</v>
+      </c>
+      <c r="NE32" s="12">
+        <v>114.47289932209</v>
       </c>
       <c r="NF32" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG32" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH32" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI32" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ32" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK32" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL32" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM32" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN32" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B33" s="11">
         <v>69.399412813085</v>
@@ -33290,42 +33318,42 @@
         <v>93.401841438228</v>
       </c>
       <c r="ND33" s="11">
-        <v>102.737305035994</v>
-      </c>
-      <c r="NE33" s="14" t="s">
-        <v>50</v>
+        <v>102.843824222956</v>
+      </c>
+      <c r="NE33" s="11">
+        <v>99.360726982542</v>
       </c>
       <c r="NF33" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG33" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH33" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI33" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ33" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK33" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL33" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM33" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN33" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B34" s="12">
         <v>72.622901666126</v>
@@ -33898,7 +33926,7 @@
         <v>116.458896659146</v>
       </c>
       <c r="GJ34" s="12">
-        <v>107.179010492019</v>
+        <v>107.179010492018</v>
       </c>
       <c r="GK34" s="12">
         <v>115.46329954894</v>
@@ -33937,7 +33965,7 @@
         <v>107.220124251125</v>
       </c>
       <c r="GW34" s="12">
-        <v>105.452330853942</v>
+        <v>105.452330853943</v>
       </c>
       <c r="GX34" s="12">
         <v>115.02590334585</v>
@@ -34129,7 +34157,7 @@
         <v>101.595831692184</v>
       </c>
       <c r="JI34" s="12">
-        <v>101.467953672713</v>
+        <v>101.467953672712</v>
       </c>
       <c r="JJ34" s="12">
         <v>97.944257143157</v>
@@ -34225,7 +34253,7 @@
         <v>109.976767217928</v>
       </c>
       <c r="KO34" s="12">
-        <v>107.874867879491</v>
+        <v>107.87486787949</v>
       </c>
       <c r="KP34" s="12">
         <v>112.689978501788</v>
@@ -34426,42 +34454,42 @@
         <v>103.013107508299</v>
       </c>
       <c r="ND34" s="12">
-        <v>123.944196369126</v>
-      </c>
-      <c r="NE34" s="15" t="s">
-        <v>50</v>
+        <v>124.059377651231</v>
+      </c>
+      <c r="NE34" s="12">
+        <v>110.683830820724</v>
       </c>
       <c r="NF34" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG34" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH34" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI34" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ34" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK34" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL34" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM34" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN34" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B35" s="11">
         <v>60.182989506094</v>
@@ -35562,42 +35590,42 @@
         <v>95.197274496333</v>
       </c>
       <c r="ND35" s="11">
-        <v>116.165328027052</v>
-      </c>
-      <c r="NE35" s="14" t="s">
-        <v>50</v>
+        <v>116.593168105942</v>
+      </c>
+      <c r="NE35" s="11">
+        <v>109.847219655183</v>
       </c>
       <c r="NF35" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG35" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH35" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI35" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ35" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK35" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL35" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM35" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN35" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B36" s="12">
         <v>61.132998870046</v>
@@ -36167,7 +36195,7 @@
         <v>107.863814613867</v>
       </c>
       <c r="GI36" s="12">
-        <v>126.09453857615</v>
+        <v>126.094538576149</v>
       </c>
       <c r="GJ36" s="12">
         <v>125.489105446636</v>
@@ -36188,7 +36216,7 @@
         <v>112.53675029352</v>
       </c>
       <c r="GP36" s="12">
-        <v>105.708098106801</v>
+        <v>105.708098106802</v>
       </c>
       <c r="GQ36" s="12">
         <v>110.211745409613</v>
@@ -36698,42 +36726,42 @@
         <v>138.106003815529</v>
       </c>
       <c r="ND36" s="12">
-        <v>151.886459216485</v>
-      </c>
-      <c r="NE36" s="15" t="s">
-        <v>50</v>
+        <v>151.886953168357</v>
+      </c>
+      <c r="NE36" s="12">
+        <v>139.395620149147</v>
       </c>
       <c r="NF36" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG36" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH36" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI36" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ36" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK36" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL36" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM36" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN36" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B37" s="11">
         <v>65.758484330262</v>
@@ -37132,7 +37160,7 @@
         <v>109.375136947249</v>
       </c>
       <c r="ED37" s="11">
-        <v>103.630122854371</v>
+        <v>103.630122854372</v>
       </c>
       <c r="EE37" s="11">
         <v>95.918036976017</v>
@@ -37519,7 +37547,7 @@
         <v>100.808222495904</v>
       </c>
       <c r="JC37" s="11">
-        <v>98.353856914581</v>
+        <v>98.35385691458</v>
       </c>
       <c r="JD37" s="11">
         <v>94.616077569601</v>
@@ -37711,7 +37739,7 @@
         <v>117.339402188725</v>
       </c>
       <c r="LO37" s="11">
-        <v>111.243619478106</v>
+        <v>111.243619478105</v>
       </c>
       <c r="LP37" s="11">
         <v>113.05386535961</v>
@@ -37834,42 +37862,42 @@
         <v>125.544060627645</v>
       </c>
       <c r="ND37" s="11">
-        <v>141.408539119876</v>
-      </c>
-      <c r="NE37" s="14" t="s">
-        <v>50</v>
+        <v>141.407793014073</v>
+      </c>
+      <c r="NE37" s="11">
+        <v>139.180788588841</v>
       </c>
       <c r="NF37" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG37" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH37" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI37" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ37" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK37" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL37" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM37" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN37" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B38" s="12">
         <v>33.546378018984</v>
@@ -38970,42 +38998,42 @@
         <v>112.89850566318</v>
       </c>
       <c r="ND38" s="12">
-        <v>139.337814937628</v>
-      </c>
-      <c r="NE38" s="15" t="s">
-        <v>50</v>
+        <v>139.354329819995</v>
+      </c>
+      <c r="NE38" s="12">
+        <v>126.44222991451</v>
       </c>
       <c r="NF38" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG38" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH38" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI38" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ38" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK38" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL38" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM38" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN38" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B39" s="11">
         <v>113.328554079414</v>
@@ -39965,7 +39993,7 @@
         <v>88.455549785448</v>
       </c>
       <c r="LI39" s="11">
-        <v>90.391653887423</v>
+        <v>90.391653887422</v>
       </c>
       <c r="LJ39" s="11">
         <v>94.579359088044</v>
@@ -40106,42 +40134,42 @@
         <v>91.384697857615</v>
       </c>
       <c r="ND39" s="11">
-        <v>93.716300135205</v>
-      </c>
-      <c r="NE39" s="14" t="s">
-        <v>50</v>
+        <v>93.717052700775</v>
+      </c>
+      <c r="NE39" s="11">
+        <v>72.589839628819</v>
       </c>
       <c r="NF39" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG39" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH39" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI39" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ39" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK39" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL39" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM39" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN39" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B40" s="12">
         <v>42.404526159595</v>
@@ -40948,7 +40976,7 @@
         <v>100.047769469755</v>
       </c>
       <c r="JJ40" s="12">
-        <v>98.265948470573</v>
+        <v>98.265948470574</v>
       </c>
       <c r="JK40" s="12">
         <v>111.175398244536</v>
@@ -41242,61 +41270,56 @@
         <v>120.145900102462</v>
       </c>
       <c r="ND40" s="12">
-        <v>125.211642172008</v>
-      </c>
-      <c r="NE40" s="15" t="s">
-        <v>50</v>
+        <v>125.213406415957</v>
+      </c>
+      <c r="NE40" s="12">
+        <v>115.330289807305</v>
       </c>
       <c r="NF40" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG40" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH40" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI40" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ40" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK40" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL40" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM40" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN40" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3"/>
+      <c r="A47" s="3"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -41332,7 +41355,7 @@
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <headerFooter/>
-  <legacyDrawing r:id="Ra356858bdb6f4d9e"/>
+  <legacyDrawing r:id="Rd5a862cd3f9a4e26"/>
 </worksheet>
 </file>
 

--- a/DATA/actind.xlsx
+++ b/DATA/actind.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Tabulado" sheetId="1" r:id="R92687ce5ed144914"/>
-    <sheet name="MetaInfo" sheetId="2" r:id="R322b4027472b4191"/>
+    <sheet name="Tabulado" sheetId="1" r:id="R4c21679cfce54f6d"/>
+    <sheet name="MetaInfo" sheetId="2" r:id="R9444480f536d4e9d"/>
   </sheets>
 </workbook>
 </file>
@@ -68,11 +68,22 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
+          <t xml:space="preserve">P. Cifras preliminares</t>
+        </d:r>
+      </text>
+    </comment>
+    <comment ref="NE6" authorId="0">
+      <text>
+        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
-    <comment ref="NE6" authorId="0">
+    <comment ref="NF6" authorId="0">
       <text>
         <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
           <rPr>
@@ -88,12 +99,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>Instituto Nacional de Estadística y Geografía (INEGI).</t>
   </si>
   <si>
-    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Actividad Industrial. Año Base 2013. Serie de enero de 1993 a abril de 2021</t>
+    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Actividad Industrial. Año Base 2013. Serie de enero de 1993 a mayo de 2021</t>
   </si>
   <si>
     <t>Índice de volumen físico base 2013=100</t>
@@ -318,6 +329,26 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
+      <d:t xml:space="preserve">P</d:t>
+    </d:r>
+  </si>
+  <si>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="10"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t> Abril</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:vertAlign val="superscript"/>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
       <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
@@ -328,7 +359,7 @@
         <d:sz val="10"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
-      <d:t> Abril</d:t>
+      <d:t> Mayo</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -551,19 +582,19 @@
     <t>COBERTURA TEMPORAL</t>
   </si>
   <si>
-    <t>1993-01-2021-04</t>
+    <t>1993-01-2021-05</t>
   </si>
   <si>
     <t>DESCRIPCIÓN PERIODO</t>
   </si>
   <si>
-    <t>Serie de enero de 1993 a abril de 2021</t>
+    <t>Serie de enero de 1993 a mayo de 2021</t>
   </si>
   <si>
     <t>FECHA DE ACTUALIZACIÓN</t>
   </si>
   <si>
-    <t>2021-06-11</t>
+    <t>2021-07-12</t>
   </si>
 </sst>
 </file>
@@ -2652,7 +2683,7 @@
         <v>49</v>
       </c>
       <c r="NF6" s="10" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="NG6" s="10" t="s">
         <v>38</v>
@@ -2681,7 +2712,7 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" s="11">
         <v>69.222752741001</v>
@@ -3785,39 +3816,39 @@
         <v>101.173294574985</v>
       </c>
       <c r="NE7" s="11">
-        <v>97.035755126306</v>
-      </c>
-      <c r="NF7" s="14" t="s">
-        <v>51</v>
+        <v>96.974394088319</v>
+      </c>
+      <c r="NF7" s="11">
+        <v>98.584005227973</v>
       </c>
       <c r="NG7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" s="12">
         <v>85.987958716261</v>
@@ -4921,39 +4952,39 @@
         <v>75.491659482618</v>
       </c>
       <c r="NE8" s="12">
-        <v>72.812366103638</v>
-      </c>
-      <c r="NF8" s="15" t="s">
-        <v>51</v>
+        <v>72.599022127376</v>
+      </c>
+      <c r="NF8" s="12">
+        <v>75.933525075631</v>
       </c>
       <c r="NG8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" s="11">
         <v>99.519341749343</v>
@@ -6059,37 +6090,37 @@
       <c r="NE9" s="11">
         <v>66.960931086384</v>
       </c>
-      <c r="NF9" s="14" t="s">
-        <v>51</v>
+      <c r="NF9" s="11">
+        <v>68.745850557353</v>
       </c>
       <c r="NG9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="12">
         <v>48.814950253715</v>
@@ -7193,39 +7224,39 @@
         <v>105.898530626126</v>
       </c>
       <c r="NE10" s="12">
-        <v>103.648086907926</v>
-      </c>
-      <c r="NF10" s="15" t="s">
-        <v>51</v>
+        <v>102.237651496025</v>
+      </c>
+      <c r="NF10" s="12">
+        <v>106.679779663612</v>
       </c>
       <c r="NG10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" s="11">
         <v>22.744141472693</v>
@@ -8329,39 +8360,39 @@
         <v>80.522360035365</v>
       </c>
       <c r="NE11" s="11">
-        <v>73.171197853963</v>
-      </c>
-      <c r="NF11" s="14" t="s">
-        <v>51</v>
+        <v>73.077916740191</v>
+      </c>
+      <c r="NF11" s="11">
+        <v>89.413487904052</v>
       </c>
       <c r="NG11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" s="12">
         <v>38.665943249786</v>
@@ -9465,39 +9496,39 @@
         <v>104.373253704486</v>
       </c>
       <c r="NE12" s="12">
-        <v>105.395835417527</v>
-      </c>
-      <c r="NF12" s="15" t="s">
-        <v>51</v>
+        <v>105.702109260093</v>
+      </c>
+      <c r="NF12" s="12">
+        <v>112.470678968301</v>
       </c>
       <c r="NG12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" s="11">
         <v>33.532463105934</v>
@@ -10601,39 +10632,39 @@
         <v>104.001169619886</v>
       </c>
       <c r="NE13" s="11">
-        <v>105.019732238922</v>
-      </c>
-      <c r="NF13" s="14" t="s">
-        <v>51</v>
+        <v>105.415205513864</v>
+      </c>
+      <c r="NF13" s="11">
+        <v>113.78478279497</v>
       </c>
       <c r="NG13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" s="12">
         <v>56.292184219235</v>
@@ -11739,37 +11770,37 @@
       <c r="NE14" s="12">
         <v>106.687217690315</v>
       </c>
-      <c r="NF14" s="15" t="s">
-        <v>51</v>
+      <c r="NF14" s="12">
+        <v>107.958591639886</v>
       </c>
       <c r="NG14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" s="11">
         <v>71.2627077305</v>
@@ -12873,39 +12904,39 @@
         <v>89.819049902068</v>
       </c>
       <c r="NE15" s="11">
-        <v>89.325076023488</v>
-      </c>
-      <c r="NF15" s="14" t="s">
-        <v>51</v>
+        <v>89.208788073416</v>
+      </c>
+      <c r="NF15" s="11">
+        <v>90.189061761914</v>
       </c>
       <c r="NG15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B16" s="12">
         <v>84.037802362945</v>
@@ -14009,39 +14040,39 @@
         <v>93.208922854422</v>
       </c>
       <c r="NE16" s="12">
-        <v>92.907420756914</v>
-      </c>
-      <c r="NF16" s="15" t="s">
-        <v>51</v>
+        <v>92.754632831593</v>
+      </c>
+      <c r="NF16" s="12">
+        <v>99.441211250345</v>
       </c>
       <c r="NG16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B17" s="11">
         <v>35.064527007042</v>
@@ -15145,39 +15176,39 @@
         <v>58.177850195742</v>
       </c>
       <c r="NE17" s="11">
-        <v>53.952265709705</v>
-      </c>
-      <c r="NF17" s="14" t="s">
-        <v>51</v>
+        <v>53.932911021137</v>
+      </c>
+      <c r="NF17" s="11">
+        <v>52.169258900858</v>
       </c>
       <c r="NG17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B18" s="12">
         <v>73.87209194618</v>
@@ -16281,39 +16312,39 @@
         <v>138.980055867861</v>
       </c>
       <c r="NE18" s="12">
-        <v>145.533594665284</v>
-      </c>
-      <c r="NF18" s="15" t="s">
-        <v>51</v>
+        <v>145.42412467361</v>
+      </c>
+      <c r="NF18" s="12">
+        <v>118.041701958256</v>
       </c>
       <c r="NG18" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH18" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI18" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ18" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK18" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL18" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM18" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN18" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" s="11">
         <v>63.653052579688</v>
@@ -17417,39 +17448,39 @@
         <v>117.701173217825</v>
       </c>
       <c r="NE19" s="11">
-        <v>110.710380245816</v>
-      </c>
-      <c r="NF19" s="14" t="s">
-        <v>51</v>
+        <v>110.708045467409</v>
+      </c>
+      <c r="NF19" s="11">
+        <v>111.352612395082</v>
       </c>
       <c r="NG19" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH19" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI19" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ19" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK19" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL19" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM19" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN19" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B20" s="12">
         <v>63.907698868213</v>
@@ -18553,39 +18584,39 @@
         <v>120.003149176838</v>
       </c>
       <c r="NE20" s="12">
-        <v>115.96336718697</v>
-      </c>
-      <c r="NF20" s="15" t="s">
-        <v>51</v>
+        <v>116.028216694837</v>
+      </c>
+      <c r="NF20" s="12">
+        <v>117.271714519741</v>
       </c>
       <c r="NG20" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH20" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI20" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ20" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK20" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL20" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM20" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN20" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B21" s="11">
         <v>56.569385260854</v>
@@ -19689,39 +19720,39 @@
         <v>125.927442997954</v>
       </c>
       <c r="NE21" s="11">
-        <v>126.713582958041</v>
-      </c>
-      <c r="NF21" s="14" t="s">
-        <v>51</v>
+        <v>126.713701134469</v>
+      </c>
+      <c r="NF21" s="11">
+        <v>130.981819887064</v>
       </c>
       <c r="NG21" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH21" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI21" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ21" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK21" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL21" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM21" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN21" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B22" s="12">
         <v>114.319677175604</v>
@@ -20825,39 +20856,39 @@
         <v>89.01383173174</v>
       </c>
       <c r="NE22" s="12">
-        <v>88.384684308811</v>
-      </c>
-      <c r="NF22" s="15" t="s">
-        <v>51</v>
+        <v>88.310669607533</v>
+      </c>
+      <c r="NF22" s="12">
+        <v>92.519890605507</v>
       </c>
       <c r="NG22" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH22" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI22" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ22" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK22" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL22" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM22" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN22" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B23" s="11">
         <v>120.050850501477</v>
@@ -21961,39 +21992,39 @@
         <v>116.221712292736</v>
       </c>
       <c r="NE23" s="11">
-        <v>87.79525425784</v>
-      </c>
-      <c r="NF23" s="14" t="s">
-        <v>51</v>
+        <v>87.834547805602</v>
+      </c>
+      <c r="NF23" s="11">
+        <v>103.940790203397</v>
       </c>
       <c r="NG23" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH23" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI23" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ23" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK23" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL23" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM23" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN23" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" s="12">
         <v>90.688383871069</v>
@@ -23097,39 +23128,39 @@
         <v>83.459645534257</v>
       </c>
       <c r="NE24" s="12">
-        <v>77.584071509803</v>
-      </c>
-      <c r="NF24" s="15" t="s">
-        <v>51</v>
+        <v>77.634937095721</v>
+      </c>
+      <c r="NF24" s="12">
+        <v>84.370726712106</v>
       </c>
       <c r="NG24" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH24" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI24" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ24" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK24" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL24" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM24" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN24" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B25" s="11">
         <v>139.460849924193</v>
@@ -23186,7 +23217,7 @@
         <v>137.73392677423</v>
       </c>
       <c r="T25" s="11">
-        <v>144.853523451828</v>
+        <v>144.853523451829</v>
       </c>
       <c r="U25" s="11">
         <v>125.678147001672</v>
@@ -24233,39 +24264,39 @@
         <v>73.936166356142</v>
       </c>
       <c r="NE25" s="11">
-        <v>69.734921214659</v>
-      </c>
-      <c r="NF25" s="14" t="s">
-        <v>51</v>
+        <v>69.716039984756</v>
+      </c>
+      <c r="NF25" s="11">
+        <v>71.392662888295</v>
       </c>
       <c r="NG25" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH25" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI25" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ25" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK25" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL25" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM25" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN25" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B26" s="12">
         <v>130.395494603712</v>
@@ -25369,39 +25400,39 @@
         <v>101.229662444775</v>
       </c>
       <c r="NE26" s="12">
-        <v>91.750667075691</v>
-      </c>
-      <c r="NF26" s="15" t="s">
-        <v>51</v>
+        <v>91.740052830419</v>
+      </c>
+      <c r="NF26" s="12">
+        <v>94.792114198158</v>
       </c>
       <c r="NG26" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH26" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI26" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ26" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK26" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL26" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM26" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN26" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B27" s="11">
         <v>51.479382699588</v>
@@ -25467,7 +25498,7 @@
         <v>58.165535087493</v>
       </c>
       <c r="W27" s="11">
-        <v>56.147613112816</v>
+        <v>56.147613112815</v>
       </c>
       <c r="X27" s="11">
         <v>58.778310292597</v>
@@ -26505,39 +26536,39 @@
         <v>122.145350408347</v>
       </c>
       <c r="NE27" s="11">
-        <v>130.972043021847</v>
-      </c>
-      <c r="NF27" s="14" t="s">
-        <v>51</v>
+        <v>130.961845217912</v>
+      </c>
+      <c r="NF27" s="11">
+        <v>131.038768287143</v>
       </c>
       <c r="NG27" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH27" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI27" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ27" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK27" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL27" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM27" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN27" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B28" s="12">
         <v>68.358361009475</v>
@@ -26822,7 +26853,7 @@
         <v>103.154618627309</v>
       </c>
       <c r="CR28" s="12">
-        <v>76.513206616607</v>
+        <v>76.513206616608</v>
       </c>
       <c r="CS28" s="12">
         <v>110.768147030929</v>
@@ -27641,39 +27672,39 @@
         <v>101.013238804924</v>
       </c>
       <c r="NE28" s="12">
-        <v>70.802412138902</v>
-      </c>
-      <c r="NF28" s="15" t="s">
-        <v>51</v>
+        <v>70.818178121182</v>
+      </c>
+      <c r="NF28" s="12">
+        <v>101.6639671821</v>
       </c>
       <c r="NG28" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH28" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI28" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ28" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK28" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL28" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM28" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN28" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B29" s="11">
         <v>76.901717312341</v>
@@ -28779,37 +28810,37 @@
       <c r="NE29" s="11">
         <v>48.969382478693</v>
       </c>
-      <c r="NF29" s="14" t="s">
-        <v>51</v>
+      <c r="NF29" s="11">
+        <v>54.76832783262</v>
       </c>
       <c r="NG29" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH29" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI29" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ29" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK29" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL29" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM29" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN29" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B30" s="12">
         <v>73.778714563351</v>
@@ -29913,39 +29944,39 @@
         <v>82.052720546437</v>
       </c>
       <c r="NE30" s="12">
-        <v>77.431767017449</v>
-      </c>
-      <c r="NF30" s="15" t="s">
-        <v>51</v>
+        <v>77.405844782974</v>
+      </c>
+      <c r="NF30" s="12">
+        <v>78.103332417306</v>
       </c>
       <c r="NG30" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH30" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI30" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ30" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK30" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL30" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM30" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN30" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B31" s="11">
         <v>73.811018646336</v>
@@ -30128,7 +30159,7 @@
         <v>92.530672204995</v>
       </c>
       <c r="BJ31" s="11">
-        <v>84.822315953759</v>
+        <v>84.822315953758</v>
       </c>
       <c r="BK31" s="11">
         <v>91.197770456276</v>
@@ -31049,39 +31080,39 @@
         <v>123.930523132745</v>
       </c>
       <c r="NE31" s="11">
-        <v>126.591375619751</v>
-      </c>
-      <c r="NF31" s="14" t="s">
-        <v>51</v>
+        <v>126.609956206852</v>
+      </c>
+      <c r="NF31" s="11">
+        <v>127.737968993687</v>
       </c>
       <c r="NG31" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH31" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI31" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ31" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK31" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL31" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM31" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN31" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B32" s="12">
         <v>86.120032958035</v>
@@ -32185,39 +32216,39 @@
         <v>120.846536399751</v>
       </c>
       <c r="NE32" s="12">
-        <v>114.47289932209</v>
-      </c>
-      <c r="NF32" s="15" t="s">
-        <v>51</v>
+        <v>114.545869535418</v>
+      </c>
+      <c r="NF32" s="12">
+        <v>113.578060380645</v>
       </c>
       <c r="NG32" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH32" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI32" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ32" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK32" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL32" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM32" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN32" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B33" s="11">
         <v>69.399412813085</v>
@@ -33321,39 +33352,39 @@
         <v>102.843824222956</v>
       </c>
       <c r="NE33" s="11">
-        <v>99.360726982542</v>
-      </c>
-      <c r="NF33" s="14" t="s">
-        <v>51</v>
+        <v>99.491181251437</v>
+      </c>
+      <c r="NF33" s="11">
+        <v>103.028452676052</v>
       </c>
       <c r="NG33" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH33" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI33" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ33" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK33" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL33" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM33" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN33" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B34" s="12">
         <v>72.622901666126</v>
@@ -34457,39 +34488,39 @@
         <v>124.059377651231</v>
       </c>
       <c r="NE34" s="12">
-        <v>110.683830820724</v>
-      </c>
-      <c r="NF34" s="15" t="s">
-        <v>51</v>
+        <v>110.358197023969</v>
+      </c>
+      <c r="NF34" s="12">
+        <v>110.539200147134</v>
       </c>
       <c r="NG34" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH34" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI34" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ34" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK34" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL34" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM34" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN34" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B35" s="11">
         <v>60.182989506094</v>
@@ -35593,39 +35624,39 @@
         <v>116.593168105942</v>
       </c>
       <c r="NE35" s="11">
-        <v>109.847219655183</v>
-      </c>
-      <c r="NF35" s="14" t="s">
-        <v>51</v>
+        <v>109.907144290227</v>
+      </c>
+      <c r="NF35" s="11">
+        <v>104.132272376595</v>
       </c>
       <c r="NG35" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH35" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI35" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ35" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK35" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL35" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM35" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN35" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B36" s="12">
         <v>61.132998870046</v>
@@ -36729,39 +36760,39 @@
         <v>151.886953168357</v>
       </c>
       <c r="NE36" s="12">
-        <v>139.395620149147</v>
-      </c>
-      <c r="NF36" s="15" t="s">
-        <v>51</v>
+        <v>139.391188901186</v>
+      </c>
+      <c r="NF36" s="12">
+        <v>139.952195088241</v>
       </c>
       <c r="NG36" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH36" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI36" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ36" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK36" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL36" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM36" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN36" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B37" s="11">
         <v>65.758484330262</v>
@@ -37865,39 +37896,39 @@
         <v>141.407793014073</v>
       </c>
       <c r="NE37" s="11">
-        <v>139.180788588841</v>
-      </c>
-      <c r="NF37" s="14" t="s">
-        <v>51</v>
+        <v>138.638611536248</v>
+      </c>
+      <c r="NF37" s="11">
+        <v>134.758845400809</v>
       </c>
       <c r="NG37" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH37" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI37" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ37" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK37" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL37" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM37" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN37" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B38" s="12">
         <v>33.546378018984</v>
@@ -39001,39 +39032,39 @@
         <v>139.354329819995</v>
       </c>
       <c r="NE38" s="12">
-        <v>126.44222991451</v>
-      </c>
-      <c r="NF38" s="15" t="s">
-        <v>51</v>
+        <v>126.442217469314</v>
+      </c>
+      <c r="NF38" s="12">
+        <v>119.508412270607</v>
       </c>
       <c r="NG38" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH38" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI38" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ38" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK38" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL38" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM38" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN38" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B39" s="11">
         <v>113.328554079414</v>
@@ -40137,39 +40168,39 @@
         <v>93.717052700775</v>
       </c>
       <c r="NE39" s="11">
-        <v>72.589839628819</v>
-      </c>
-      <c r="NF39" s="14" t="s">
-        <v>51</v>
+        <v>72.578971377205</v>
+      </c>
+      <c r="NF39" s="11">
+        <v>97.746666439157</v>
       </c>
       <c r="NG39" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH39" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI39" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ39" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK39" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL39" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM39" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN39" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B40" s="12">
         <v>42.404526159595</v>
@@ -41273,49 +41304,49 @@
         <v>125.213406415957</v>
       </c>
       <c r="NE40" s="12">
-        <v>115.330289807305</v>
-      </c>
-      <c r="NF40" s="15" t="s">
-        <v>51</v>
+        <v>115.261161474036</v>
+      </c>
+      <c r="NF40" s="12">
+        <v>129.097289499172</v>
       </c>
       <c r="NG40" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH40" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI40" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ40" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK40" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL40" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM40" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN40" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47">
@@ -41355,7 +41386,7 @@
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <headerFooter/>
-  <legacyDrawing r:id="Rd5a862cd3f9a4e26"/>
+  <legacyDrawing r:id="R6693386db1154f38"/>
 </worksheet>
 </file>
 
@@ -41372,106 +41403,106 @@
   <sheetData>
     <row r="2">
       <c r="B2" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/actind.xlsx
+++ b/DATA/actind.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Tabulado" sheetId="1" r:id="R4c21679cfce54f6d"/>
-    <sheet name="MetaInfo" sheetId="2" r:id="R9444480f536d4e9d"/>
+    <sheet name="Tabulado" sheetId="1" r:id="Rd5c07da3cfb24d2a"/>
+    <sheet name="MetaInfo" sheetId="2" r:id="Rd6cf121c3cf34f23"/>
   </sheets>
 </workbook>
 </file>
@@ -46,7 +46,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">P. Cifras preliminares</t>
+          <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
@@ -57,7 +57,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">P. Cifras preliminares</t>
+          <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
@@ -68,7 +68,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">P. Cifras preliminares</t>
+          <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
@@ -90,6 +90,17 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
+          <t xml:space="preserve">R. Cifras revisadas</t>
+        </d:r>
+      </text>
+    </comment>
+    <comment ref="NG6" authorId="0">
+      <text>
+        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
@@ -99,12 +110,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Instituto Nacional de Estadística y Geografía (INEGI).</t>
   </si>
   <si>
-    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Actividad Industrial. Año Base 2013. Serie de enero de 1993 a mayo de 2021</t>
+    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Actividad Industrial. Año Base 2013. Serie de enero de 1993 a junio de 2021</t>
   </si>
   <si>
     <t>Índice de volumen físico base 2013=100</t>
@@ -289,7 +300,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">P</d:t>
+      <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
   <si>
@@ -309,7 +320,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">P</d:t>
+      <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
   <si>
@@ -329,7 +340,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">P</d:t>
+      <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
   <si>
@@ -360,6 +371,26 @@
         <d:rFont val="Calibri"/>
       </d:rPr>
       <d:t> Mayo</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:vertAlign val="superscript"/>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
+      <d:t xml:space="preserve">R</d:t>
+    </d:r>
+  </si>
+  <si>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="10"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t> Junio</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -516,6 +547,9 @@
     </d:r>
   </si>
   <si>
+    <t>Nota: Con base en los ´´Lineamientos de cambios a la información divulgada en las publicaciones estadísticas y geográficas del INEGI´´ y que complementan las ´´Normas Especiales para la Divulgación de Datos´´ del FMI, los resultados del Indicador Mensual de la Actividad Industrial incorporan la última información estadística disponible de la Estadística de la Industria Minerometalúrgica, la Encuesta Nacional de Empresas Constructoras, la Encuesta Mensual de la Industria Manufacturera, los registros administrativos y los datos primarios del año 2021, por lo que se debe actualizar el indicador. Como resultado de incorporar dicha información, se identifican diferencias en los niveles de los índices y variaciones que fueron oportunamente publicadas.</t>
+  </si>
+  <si>
     <t>Fuente: INEGI. Sistema de Cuentas Nacionales de México. Indicador Mensual de la Actividad Industrial</t>
   </si>
   <si>
@@ -582,19 +616,19 @@
     <t>COBERTURA TEMPORAL</t>
   </si>
   <si>
-    <t>1993-01-2021-05</t>
+    <t>1993-01-2021-06</t>
   </si>
   <si>
     <t>DESCRIPCIÓN PERIODO</t>
   </si>
   <si>
-    <t>Serie de enero de 1993 a mayo de 2021</t>
+    <t>Serie de enero de 1993 a junio de 2021</t>
   </si>
   <si>
     <t>FECHA DE ACTUALIZACIÓN</t>
   </si>
   <si>
-    <t>2021-07-12</t>
+    <t>2021-08-11</t>
   </si>
 </sst>
 </file>
@@ -735,7 +769,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:NN47"/>
+  <dimension ref="A1:NN48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2686,7 +2720,7 @@
         <v>50</v>
       </c>
       <c r="NG6" s="10" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="NH6" s="10" t="s">
         <v>39</v>
@@ -2712,7 +2746,7 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" s="11">
         <v>69.222752741001</v>
@@ -3807,48 +3841,48 @@
         <v>92.158723671925</v>
       </c>
       <c r="NB7" s="11">
-        <v>98.062149220339</v>
+        <v>98.042261480551</v>
       </c>
       <c r="NC7" s="11">
-        <v>95.077009216112</v>
+        <v>95.147834563711</v>
       </c>
       <c r="ND7" s="11">
-        <v>101.173294574985</v>
+        <v>101.193547883947</v>
       </c>
       <c r="NE7" s="11">
-        <v>96.974394088319</v>
+        <v>96.974457505381</v>
       </c>
       <c r="NF7" s="11">
-        <v>98.584005227973</v>
-      </c>
-      <c r="NG7" s="14" t="s">
-        <v>52</v>
+        <v>98.610058992661</v>
+      </c>
+      <c r="NG7" s="11">
+        <v>97.756083895029</v>
       </c>
       <c r="NH7" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI7" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ7" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK7" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL7" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM7" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN7" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8" s="12">
         <v>85.987958716261</v>
@@ -4943,48 +4977,48 @@
         <v>73.345627693915</v>
       </c>
       <c r="NB8" s="12">
-        <v>81.011708920964</v>
+        <v>80.925641954476</v>
       </c>
       <c r="NC8" s="12">
-        <v>73.158130206302</v>
+        <v>73.462443968398</v>
       </c>
       <c r="ND8" s="12">
-        <v>75.491659482618</v>
+        <v>75.579017309535</v>
       </c>
       <c r="NE8" s="12">
         <v>72.599022127376</v>
       </c>
       <c r="NF8" s="12">
-        <v>75.933525075631</v>
-      </c>
-      <c r="NG8" s="15" t="s">
-        <v>52</v>
+        <v>75.993360509255</v>
+      </c>
+      <c r="NG8" s="12">
+        <v>73.532983832429</v>
       </c>
       <c r="NH8" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI8" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ8" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK8" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL8" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM8" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN8" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" s="11">
         <v>99.519341749343</v>
@@ -6093,34 +6127,34 @@
       <c r="NF9" s="11">
         <v>68.745850557353</v>
       </c>
-      <c r="NG9" s="14" t="s">
-        <v>52</v>
+      <c r="NG9" s="11">
+        <v>65.971109230481</v>
       </c>
       <c r="NH9" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI9" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ9" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK9" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL9" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM9" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN9" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="12">
         <v>48.814950253715</v>
@@ -7215,48 +7249,48 @@
         <v>99.368732237008</v>
       </c>
       <c r="NB10" s="12">
-        <v>109.583596913638</v>
+        <v>109.037216449958</v>
       </c>
       <c r="NC10" s="12">
-        <v>104.923635255705</v>
+        <v>106.99705013114</v>
       </c>
       <c r="ND10" s="12">
-        <v>105.898530626126</v>
+        <v>106.484408341429</v>
       </c>
       <c r="NE10" s="12">
         <v>102.237651496025</v>
       </c>
       <c r="NF10" s="12">
-        <v>106.679779663612</v>
-      </c>
-      <c r="NG10" s="15" t="s">
-        <v>52</v>
+        <v>107.08072000644</v>
+      </c>
+      <c r="NG10" s="12">
+        <v>102.986395502164</v>
       </c>
       <c r="NH10" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI10" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ10" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK10" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL10" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM10" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN10" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" s="11">
         <v>22.744141472693</v>
@@ -8351,48 +8385,48 @@
         <v>87.210893993217</v>
       </c>
       <c r="NB11" s="11">
-        <v>152.705548014761</v>
+        <v>152.626564245436</v>
       </c>
       <c r="NC11" s="11">
-        <v>103.970134992495</v>
+        <v>103.990610622464</v>
       </c>
       <c r="ND11" s="11">
-        <v>80.522360035365</v>
+        <v>80.545292344129</v>
       </c>
       <c r="NE11" s="11">
         <v>73.077916740191</v>
       </c>
       <c r="NF11" s="11">
-        <v>89.413487904052</v>
-      </c>
-      <c r="NG11" s="14" t="s">
-        <v>52</v>
+        <v>89.42984354167</v>
+      </c>
+      <c r="NG11" s="11">
+        <v>93.005517188237</v>
       </c>
       <c r="NH11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" s="12">
         <v>38.665943249786</v>
@@ -8917,7 +8951,7 @@
         <v>82.285700021575</v>
       </c>
       <c r="FT12" s="12">
-        <v>84.872908092728</v>
+        <v>84.872908092727</v>
       </c>
       <c r="FU12" s="12">
         <v>87.006771936463</v>
@@ -9487,48 +9521,48 @@
         <v>110.943181866834</v>
       </c>
       <c r="NB12" s="12">
-        <v>101.545141777997</v>
+        <v>101.532098482411</v>
       </c>
       <c r="NC12" s="12">
-        <v>96.753802086374</v>
+        <v>96.814991463697</v>
       </c>
       <c r="ND12" s="12">
-        <v>104.373253704486</v>
+        <v>104.394469090871</v>
       </c>
       <c r="NE12" s="12">
-        <v>105.702109260093</v>
+        <v>105.699480152418</v>
       </c>
       <c r="NF12" s="12">
-        <v>112.470678968301</v>
-      </c>
-      <c r="NG12" s="15" t="s">
-        <v>52</v>
+        <v>112.266280021283</v>
+      </c>
+      <c r="NG12" s="12">
+        <v>115.24508616476</v>
       </c>
       <c r="NH12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" s="11">
         <v>33.532463105934</v>
@@ -10053,7 +10087,7 @@
         <v>77.96308232892</v>
       </c>
       <c r="FT13" s="11">
-        <v>81.350354205882</v>
+        <v>81.350354205881</v>
       </c>
       <c r="FU13" s="11">
         <v>83.983953249091</v>
@@ -10635,36 +10669,36 @@
         <v>105.415205513864</v>
       </c>
       <c r="NF13" s="11">
-        <v>113.78478279497</v>
-      </c>
-      <c r="NG13" s="14" t="s">
-        <v>52</v>
+        <v>113.520849351763</v>
+      </c>
+      <c r="NG13" s="11">
+        <v>117.269274323843</v>
       </c>
       <c r="NH13" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI13" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ13" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK13" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL13" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM13" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN13" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="12">
         <v>56.292184219235</v>
@@ -11759,48 +11793,48 @@
         <v>104.274059876439</v>
       </c>
       <c r="NB14" s="12">
-        <v>104.650791256455</v>
+        <v>104.592962695395</v>
       </c>
       <c r="NC14" s="12">
-        <v>103.215844197384</v>
+        <v>103.487132509398</v>
       </c>
       <c r="ND14" s="12">
-        <v>105.650836075953</v>
+        <v>105.744896297071</v>
       </c>
       <c r="NE14" s="12">
-        <v>106.687217690315</v>
+        <v>106.675561317681</v>
       </c>
       <c r="NF14" s="12">
-        <v>107.958591639886</v>
-      </c>
-      <c r="NG14" s="15" t="s">
-        <v>52</v>
+        <v>107.958609452339</v>
+      </c>
+      <c r="NG14" s="12">
+        <v>108.294863847795</v>
       </c>
       <c r="NH14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B15" s="11">
         <v>71.2627077305</v>
@@ -12895,48 +12929,48 @@
         <v>83.478614672955</v>
       </c>
       <c r="NB15" s="11">
-        <v>90.000046392578</v>
+        <v>90.000346131917</v>
       </c>
       <c r="NC15" s="11">
-        <v>95.591974437701</v>
+        <v>95.592132641785</v>
       </c>
       <c r="ND15" s="11">
-        <v>89.819049902068</v>
+        <v>89.819213744186</v>
       </c>
       <c r="NE15" s="11">
-        <v>89.208788073416</v>
+        <v>89.208801461908</v>
       </c>
       <c r="NF15" s="11">
-        <v>90.189061761914</v>
-      </c>
-      <c r="NG15" s="14" t="s">
-        <v>52</v>
+        <v>90.169849220607</v>
+      </c>
+      <c r="NG15" s="11">
+        <v>86.062428792484</v>
       </c>
       <c r="NH15" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI15" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ15" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK15" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL15" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM15" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN15" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16" s="12">
         <v>84.037802362945</v>
@@ -13830,7 +13864,7 @@
         <v>107.456876229305</v>
       </c>
       <c r="KM16" s="12">
-        <v>109.699724890639</v>
+        <v>109.69972489064</v>
       </c>
       <c r="KN16" s="12">
         <v>106.221231756916</v>
@@ -14043,36 +14077,36 @@
         <v>92.754632831593</v>
       </c>
       <c r="NF16" s="12">
-        <v>99.441211250345</v>
-      </c>
-      <c r="NG16" s="15" t="s">
-        <v>52</v>
+        <v>99.463672205599</v>
+      </c>
+      <c r="NG16" s="12">
+        <v>91.042553613982</v>
       </c>
       <c r="NH16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B17" s="11">
         <v>35.064527007042</v>
@@ -15149,7 +15183,7 @@
         <v>50.631944025606</v>
       </c>
       <c r="MV17" s="11">
-        <v>56.073389775792</v>
+        <v>56.073389775793</v>
       </c>
       <c r="MW17" s="11">
         <v>53.730057240421</v>
@@ -15167,48 +15201,48 @@
         <v>53.817797845794</v>
       </c>
       <c r="NB17" s="11">
-        <v>51.090971293489</v>
+        <v>51.090943903362</v>
       </c>
       <c r="NC17" s="11">
-        <v>51.957028028674</v>
+        <v>51.957028830497</v>
       </c>
       <c r="ND17" s="11">
-        <v>58.177850195742</v>
+        <v>58.177845003219</v>
       </c>
       <c r="NE17" s="11">
-        <v>53.932911021137</v>
+        <v>53.93291687248</v>
       </c>
       <c r="NF17" s="11">
-        <v>52.169258900858</v>
-      </c>
-      <c r="NG17" s="14" t="s">
-        <v>52</v>
+        <v>51.992871526456</v>
+      </c>
+      <c r="NG17" s="11">
+        <v>50.698025773277</v>
       </c>
       <c r="NH17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" s="12">
         <v>73.87209194618</v>
@@ -16303,48 +16337,48 @@
         <v>112.13981681372</v>
       </c>
       <c r="NB18" s="12">
-        <v>132.76944228849</v>
+        <v>132.77226840523</v>
       </c>
       <c r="NC18" s="12">
-        <v>131.628084968613</v>
+        <v>131.629543047364</v>
       </c>
       <c r="ND18" s="12">
-        <v>138.980055867861</v>
+        <v>138.981579156759</v>
       </c>
       <c r="NE18" s="12">
-        <v>145.42412467361</v>
+        <v>145.424235346982</v>
       </c>
       <c r="NF18" s="12">
-        <v>118.041701958256</v>
-      </c>
-      <c r="NG18" s="15" t="s">
-        <v>52</v>
+        <v>118.116987550032</v>
+      </c>
+      <c r="NG18" s="12">
+        <v>133.826537399665</v>
       </c>
       <c r="NH18" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI18" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ18" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK18" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL18" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM18" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN18" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B19" s="11">
         <v>63.653052579688</v>
@@ -17181,7 +17215,7 @@
         <v>106.941322006685</v>
       </c>
       <c r="JT19" s="11">
-        <v>105.230620689975</v>
+        <v>105.230620689974</v>
       </c>
       <c r="JU19" s="11">
         <v>105.554969592329</v>
@@ -17229,7 +17263,7 @@
         <v>107.711396263853</v>
       </c>
       <c r="KJ19" s="11">
-        <v>108.022283783148</v>
+        <v>108.022283783149</v>
       </c>
       <c r="KK19" s="11">
         <v>113.751953282089</v>
@@ -17439,48 +17473,48 @@
         <v>102.879653008537</v>
       </c>
       <c r="NB19" s="11">
-        <v>109.152724908021</v>
+        <v>109.152330206843</v>
       </c>
       <c r="NC19" s="11">
-        <v>104.488403384241</v>
+        <v>104.488819033487</v>
       </c>
       <c r="ND19" s="11">
-        <v>117.701173217825</v>
+        <v>117.700733946194</v>
       </c>
       <c r="NE19" s="11">
-        <v>110.708045467409</v>
+        <v>110.708415761221</v>
       </c>
       <c r="NF19" s="11">
-        <v>111.352612395082</v>
-      </c>
-      <c r="NG19" s="14" t="s">
-        <v>52</v>
+        <v>111.406634279482</v>
+      </c>
+      <c r="NG19" s="11">
+        <v>112.437318933241</v>
       </c>
       <c r="NH19" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI19" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ19" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK19" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL19" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM19" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN19" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B20" s="12">
         <v>63.907698868213</v>
@@ -18581,42 +18615,42 @@
         <v>113.620995092318</v>
       </c>
       <c r="ND20" s="12">
-        <v>120.003149176838</v>
+        <v>120.003178270731</v>
       </c>
       <c r="NE20" s="12">
         <v>116.028216694837</v>
       </c>
       <c r="NF20" s="12">
-        <v>117.271714519741</v>
-      </c>
-      <c r="NG20" s="15" t="s">
-        <v>52</v>
+        <v>117.302674602582</v>
+      </c>
+      <c r="NG20" s="12">
+        <v>116.493719750459</v>
       </c>
       <c r="NH20" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI20" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ20" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK20" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL20" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM20" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN20" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B21" s="11">
         <v>56.569385260854</v>
@@ -19717,42 +19751,42 @@
         <v>107.897779664634</v>
       </c>
       <c r="ND21" s="11">
-        <v>125.927442997954</v>
+        <v>125.92748190531</v>
       </c>
       <c r="NE21" s="11">
         <v>126.713701134469</v>
       </c>
       <c r="NF21" s="11">
-        <v>130.981819887064</v>
-      </c>
-      <c r="NG21" s="14" t="s">
-        <v>52</v>
+        <v>131.026131943119</v>
+      </c>
+      <c r="NG21" s="11">
+        <v>134.455722871202</v>
       </c>
       <c r="NH21" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI21" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ21" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK21" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL21" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM21" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN21" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B22" s="12">
         <v>114.319677175604</v>
@@ -20178,7 +20212,7 @@
         <v>117.907452401807</v>
       </c>
       <c r="EM22" s="12">
-        <v>102.663934277921</v>
+        <v>102.663934277922</v>
       </c>
       <c r="EN22" s="12">
         <v>121.171668236243</v>
@@ -20316,7 +20350,7 @@
         <v>110.759665886981</v>
       </c>
       <c r="GG22" s="12">
-        <v>117.713454149938</v>
+        <v>117.713454149937</v>
       </c>
       <c r="GH22" s="12">
         <v>117.736921541804</v>
@@ -20859,36 +20893,36 @@
         <v>88.310669607533</v>
       </c>
       <c r="NF22" s="12">
-        <v>92.519890605507</v>
-      </c>
-      <c r="NG22" s="15" t="s">
-        <v>52</v>
+        <v>92.521705052309</v>
+      </c>
+      <c r="NG22" s="12">
+        <v>94.139234170372</v>
       </c>
       <c r="NH22" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI22" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ22" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK22" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL22" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM22" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN22" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B23" s="11">
         <v>120.050850501477</v>
@@ -21608,7 +21642,7 @@
         <v>93.175225480757</v>
       </c>
       <c r="IG23" s="11">
-        <v>96.070279662975</v>
+        <v>96.070279662976</v>
       </c>
       <c r="IH23" s="11">
         <v>101.737313361619</v>
@@ -21995,36 +22029,36 @@
         <v>87.834547805602</v>
       </c>
       <c r="NF23" s="11">
-        <v>103.940790203397</v>
-      </c>
-      <c r="NG23" s="14" t="s">
-        <v>52</v>
+        <v>103.582434438996</v>
+      </c>
+      <c r="NG23" s="11">
+        <v>102.537187503302</v>
       </c>
       <c r="NH23" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI23" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ23" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK23" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL23" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM23" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN23" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B24" s="12">
         <v>90.688383871069</v>
@@ -23125,42 +23159,42 @@
         <v>68.789347704684</v>
       </c>
       <c r="ND24" s="12">
-        <v>83.459645534257</v>
+        <v>83.459687575967</v>
       </c>
       <c r="NE24" s="12">
         <v>77.634937095721</v>
       </c>
       <c r="NF24" s="12">
-        <v>84.370726712106</v>
-      </c>
-      <c r="NG24" s="15" t="s">
-        <v>52</v>
+        <v>84.623253840156</v>
+      </c>
+      <c r="NG24" s="12">
+        <v>82.065978857869</v>
       </c>
       <c r="NH24" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI24" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ24" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK24" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL24" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM24" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN24" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25" s="11">
         <v>139.460849924193</v>
@@ -23217,7 +23251,7 @@
         <v>137.73392677423</v>
       </c>
       <c r="T25" s="11">
-        <v>144.853523451829</v>
+        <v>144.853523451828</v>
       </c>
       <c r="U25" s="11">
         <v>125.678147001672</v>
@@ -24261,42 +24295,42 @@
         <v>71.093476954908</v>
       </c>
       <c r="ND25" s="11">
-        <v>73.936166356142</v>
+        <v>73.936343032058</v>
       </c>
       <c r="NE25" s="11">
         <v>69.716039984756</v>
       </c>
       <c r="NF25" s="11">
-        <v>71.392662888295</v>
-      </c>
-      <c r="NG25" s="14" t="s">
-        <v>52</v>
+        <v>71.396805251622</v>
+      </c>
+      <c r="NG25" s="11">
+        <v>74.611041644678</v>
       </c>
       <c r="NH25" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI25" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ25" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK25" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL25" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM25" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN25" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B26" s="12">
         <v>130.395494603712</v>
@@ -25058,7 +25092,7 @@
         <v>111.318450734813</v>
       </c>
       <c r="IU26" s="12">
-        <v>97.416158126744</v>
+        <v>97.416158126745</v>
       </c>
       <c r="IV26" s="12">
         <v>107.114454959646</v>
@@ -25397,42 +25431,42 @@
         <v>94.46006993351</v>
       </c>
       <c r="ND26" s="12">
-        <v>101.229662444775</v>
+        <v>101.22962792462</v>
       </c>
       <c r="NE26" s="12">
         <v>91.740052830419</v>
       </c>
       <c r="NF26" s="12">
-        <v>94.792114198158</v>
-      </c>
-      <c r="NG26" s="15" t="s">
-        <v>52</v>
+        <v>96.385404863874</v>
+      </c>
+      <c r="NG26" s="12">
+        <v>107.465012685658</v>
       </c>
       <c r="NH26" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI26" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ26" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK26" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL26" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM26" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN26" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B27" s="11">
         <v>51.479382699588</v>
@@ -25498,7 +25532,7 @@
         <v>58.165535087493</v>
       </c>
       <c r="W27" s="11">
-        <v>56.147613112815</v>
+        <v>56.147613112816</v>
       </c>
       <c r="X27" s="11">
         <v>58.778310292597</v>
@@ -26533,42 +26567,42 @@
         <v>107.645840337483</v>
       </c>
       <c r="ND27" s="11">
-        <v>122.145350408347</v>
+        <v>122.145538276708</v>
       </c>
       <c r="NE27" s="11">
         <v>130.961845217912</v>
       </c>
       <c r="NF27" s="11">
-        <v>131.038768287143</v>
-      </c>
-      <c r="NG27" s="14" t="s">
-        <v>52</v>
+        <v>131.041141157866</v>
+      </c>
+      <c r="NG27" s="11">
+        <v>122.906913612617</v>
       </c>
       <c r="NH27" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI27" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ27" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK27" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL27" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM27" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN27" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B28" s="12">
         <v>68.358361009475</v>
@@ -26853,7 +26887,7 @@
         <v>103.154618627309</v>
       </c>
       <c r="CR28" s="12">
-        <v>76.513206616608</v>
+        <v>76.513206616607</v>
       </c>
       <c r="CS28" s="12">
         <v>110.768147030929</v>
@@ -27675,36 +27709,36 @@
         <v>70.818178121182</v>
       </c>
       <c r="NF28" s="12">
-        <v>101.6639671821</v>
-      </c>
-      <c r="NG28" s="15" t="s">
-        <v>52</v>
+        <v>101.342666356018</v>
+      </c>
+      <c r="NG28" s="12">
+        <v>110.086413440673</v>
       </c>
       <c r="NH28" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI28" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ28" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK28" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL28" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM28" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN28" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B29" s="11">
         <v>76.901717312341</v>
@@ -28799,48 +28833,48 @@
         <v>46.060210708601</v>
       </c>
       <c r="NB29" s="11">
-        <v>54.634051132713</v>
+        <v>54.621005646209</v>
       </c>
       <c r="NC29" s="11">
-        <v>51.075144566492</v>
+        <v>51.088882419171</v>
       </c>
       <c r="ND29" s="11">
-        <v>65.118064062477</v>
+        <v>65.101490895537</v>
       </c>
       <c r="NE29" s="11">
-        <v>48.969382478693</v>
+        <v>48.954622932665</v>
       </c>
       <c r="NF29" s="11">
-        <v>54.76832783262</v>
-      </c>
-      <c r="NG29" s="14" t="s">
-        <v>52</v>
+        <v>54.710091472634</v>
+      </c>
+      <c r="NG29" s="11">
+        <v>47.628670412601</v>
       </c>
       <c r="NH29" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI29" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ29" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK29" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL29" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM29" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN29" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B30" s="12">
         <v>73.778714563351</v>
@@ -29947,36 +29981,36 @@
         <v>77.405844782974</v>
       </c>
       <c r="NF30" s="12">
-        <v>78.103332417306</v>
-      </c>
-      <c r="NG30" s="15" t="s">
-        <v>52</v>
+        <v>78.351268967003</v>
+      </c>
+      <c r="NG30" s="12">
+        <v>79.717583771148</v>
       </c>
       <c r="NH30" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI30" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ30" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK30" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL30" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM30" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN30" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B31" s="11">
         <v>73.811018646336</v>
@@ -30780,7 +30814,7 @@
         <v>105.279540530588</v>
       </c>
       <c r="JI31" s="11">
-        <v>103.799973429289</v>
+        <v>103.79997342929</v>
       </c>
       <c r="JJ31" s="11">
         <v>97.719773098197</v>
@@ -31083,36 +31117,36 @@
         <v>126.609956206852</v>
       </c>
       <c r="NF31" s="11">
-        <v>127.737968993687</v>
-      </c>
-      <c r="NG31" s="14" t="s">
-        <v>52</v>
+        <v>127.916901116271</v>
+      </c>
+      <c r="NG31" s="11">
+        <v>130.416157403404</v>
       </c>
       <c r="NH31" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI31" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ31" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK31" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL31" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM31" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN31" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B32" s="12">
         <v>86.120032958035</v>
@@ -32213,42 +32247,42 @@
         <v>109.385968935807</v>
       </c>
       <c r="ND32" s="12">
-        <v>120.846536399751</v>
+        <v>120.846912072268</v>
       </c>
       <c r="NE32" s="12">
         <v>114.545869535418</v>
       </c>
       <c r="NF32" s="12">
-        <v>113.578060380645</v>
-      </c>
-      <c r="NG32" s="15" t="s">
-        <v>52</v>
+        <v>113.7614698419</v>
+      </c>
+      <c r="NG32" s="12">
+        <v>114.837505804048</v>
       </c>
       <c r="NH32" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI32" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ32" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK32" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL32" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM32" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN32" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B33" s="11">
         <v>69.399412813085</v>
@@ -33355,36 +33389,36 @@
         <v>99.491181251437</v>
       </c>
       <c r="NF33" s="11">
-        <v>103.028452676052</v>
-      </c>
-      <c r="NG33" s="14" t="s">
-        <v>52</v>
+        <v>103.027872964461</v>
+      </c>
+      <c r="NG33" s="11">
+        <v>97.313792928414</v>
       </c>
       <c r="NH33" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI33" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ33" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK33" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL33" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM33" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN33" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B34" s="12">
         <v>72.622901666126</v>
@@ -33957,7 +33991,7 @@
         <v>116.458896659146</v>
       </c>
       <c r="GJ34" s="12">
-        <v>107.179010492018</v>
+        <v>107.179010492019</v>
       </c>
       <c r="GK34" s="12">
         <v>115.46329954894</v>
@@ -33996,7 +34030,7 @@
         <v>107.220124251125</v>
       </c>
       <c r="GW34" s="12">
-        <v>105.452330853943</v>
+        <v>105.452330853942</v>
       </c>
       <c r="GX34" s="12">
         <v>115.02590334585</v>
@@ -34188,7 +34222,7 @@
         <v>101.595831692184</v>
       </c>
       <c r="JI34" s="12">
-        <v>101.467953672712</v>
+        <v>101.467953672713</v>
       </c>
       <c r="JJ34" s="12">
         <v>97.944257143157</v>
@@ -34284,7 +34318,7 @@
         <v>109.976767217928</v>
       </c>
       <c r="KO34" s="12">
-        <v>107.87486787949</v>
+        <v>107.874867879491</v>
       </c>
       <c r="KP34" s="12">
         <v>112.689978501788</v>
@@ -34485,42 +34519,42 @@
         <v>103.013107508299</v>
       </c>
       <c r="ND34" s="12">
-        <v>124.059377651231</v>
+        <v>124.059399599563</v>
       </c>
       <c r="NE34" s="12">
         <v>110.358197023969</v>
       </c>
       <c r="NF34" s="12">
-        <v>110.539200147134</v>
-      </c>
-      <c r="NG34" s="15" t="s">
-        <v>52</v>
+        <v>110.5554692786</v>
+      </c>
+      <c r="NG34" s="12">
+        <v>112.474052484218</v>
       </c>
       <c r="NH34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B35" s="11">
         <v>60.182989506094</v>
@@ -35627,36 +35661,36 @@
         <v>109.907144290227</v>
       </c>
       <c r="NF35" s="11">
-        <v>104.132272376595</v>
-      </c>
-      <c r="NG35" s="14" t="s">
-        <v>52</v>
+        <v>104.206148656917</v>
+      </c>
+      <c r="NG35" s="11">
+        <v>110.820488051284</v>
       </c>
       <c r="NH35" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI35" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ35" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK35" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL35" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM35" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN35" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B36" s="12">
         <v>61.132998870046</v>
@@ -36226,7 +36260,7 @@
         <v>107.863814613867</v>
       </c>
       <c r="GI36" s="12">
-        <v>126.094538576149</v>
+        <v>126.09453857615</v>
       </c>
       <c r="GJ36" s="12">
         <v>125.489105446636</v>
@@ -36247,7 +36281,7 @@
         <v>112.53675029352</v>
       </c>
       <c r="GP36" s="12">
-        <v>105.708098106802</v>
+        <v>105.708098106801</v>
       </c>
       <c r="GQ36" s="12">
         <v>110.211745409613</v>
@@ -36763,36 +36797,36 @@
         <v>139.391188901186</v>
       </c>
       <c r="NF36" s="12">
-        <v>139.952195088241</v>
-      </c>
-      <c r="NG36" s="15" t="s">
-        <v>52</v>
+        <v>139.950754924155</v>
+      </c>
+      <c r="NG36" s="12">
+        <v>137.177928999875</v>
       </c>
       <c r="NH36" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI36" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ36" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK36" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL36" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM36" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN36" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B37" s="11">
         <v>65.758484330262</v>
@@ -37191,7 +37225,7 @@
         <v>109.375136947249</v>
       </c>
       <c r="ED37" s="11">
-        <v>103.630122854372</v>
+        <v>103.630122854371</v>
       </c>
       <c r="EE37" s="11">
         <v>95.918036976017</v>
@@ -37578,7 +37612,7 @@
         <v>100.808222495904</v>
       </c>
       <c r="JC37" s="11">
-        <v>98.35385691458</v>
+        <v>98.353856914581</v>
       </c>
       <c r="JD37" s="11">
         <v>94.616077569601</v>
@@ -37770,7 +37804,7 @@
         <v>117.339402188725</v>
       </c>
       <c r="LO37" s="11">
-        <v>111.243619478105</v>
+        <v>111.243619478106</v>
       </c>
       <c r="LP37" s="11">
         <v>113.05386535961</v>
@@ -37899,36 +37933,36 @@
         <v>138.638611536248</v>
       </c>
       <c r="NF37" s="11">
-        <v>134.758845400809</v>
-      </c>
-      <c r="NG37" s="14" t="s">
-        <v>52</v>
+        <v>134.452951571193</v>
+      </c>
+      <c r="NG37" s="11">
+        <v>140.832381978733</v>
       </c>
       <c r="NH37" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI37" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ37" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK37" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL37" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM37" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN37" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B38" s="12">
         <v>33.546378018984</v>
@@ -39035,36 +39069,36 @@
         <v>126.442217469314</v>
       </c>
       <c r="NF38" s="12">
-        <v>119.508412270607</v>
-      </c>
-      <c r="NG38" s="15" t="s">
-        <v>52</v>
+        <v>119.507718595814</v>
+      </c>
+      <c r="NG38" s="12">
+        <v>126.314569714816</v>
       </c>
       <c r="NH38" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI38" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ38" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK38" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL38" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM38" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN38" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B39" s="11">
         <v>113.328554079414</v>
@@ -40024,7 +40058,7 @@
         <v>88.455549785448</v>
       </c>
       <c r="LI39" s="11">
-        <v>90.391653887422</v>
+        <v>90.391653887423</v>
       </c>
       <c r="LJ39" s="11">
         <v>94.579359088044</v>
@@ -40165,42 +40199,42 @@
         <v>91.384697857615</v>
       </c>
       <c r="ND39" s="11">
-        <v>93.717052700775</v>
+        <v>93.716996414586</v>
       </c>
       <c r="NE39" s="11">
         <v>72.578971377205</v>
       </c>
       <c r="NF39" s="11">
-        <v>97.746666439157</v>
-      </c>
-      <c r="NG39" s="14" t="s">
-        <v>52</v>
+        <v>97.703130456019</v>
+      </c>
+      <c r="NG39" s="11">
+        <v>98.853068480946</v>
       </c>
       <c r="NH39" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI39" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ39" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK39" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL39" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM39" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN39" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B40" s="12">
         <v>42.404526159595</v>
@@ -41007,7 +41041,7 @@
         <v>100.047769469755</v>
       </c>
       <c r="JJ40" s="12">
-        <v>98.265948470574</v>
+        <v>98.265948470573</v>
       </c>
       <c r="JK40" s="12">
         <v>111.175398244536</v>
@@ -41301,56 +41335,61 @@
         <v>120.145900102462</v>
       </c>
       <c r="ND40" s="12">
-        <v>125.213406415957</v>
+        <v>125.215278341269</v>
       </c>
       <c r="NE40" s="12">
-        <v>115.261161474036</v>
+        <v>115.301301075105</v>
       </c>
       <c r="NF40" s="12">
-        <v>129.097289499172</v>
-      </c>
-      <c r="NG40" s="15" t="s">
-        <v>52</v>
+        <v>129.095442746663</v>
+      </c>
+      <c r="NG40" s="12">
+        <v>123.575923754268</v>
       </c>
       <c r="NH40" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI40" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ40" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK40" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL40" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM40" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN40" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3"/>
+      <c r="A47" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -41386,7 +41425,7 @@
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <headerFooter/>
-  <legacyDrawing r:id="R6693386db1154f38"/>
+  <legacyDrawing r:id="Re86338461a2d478f"/>
 </worksheet>
 </file>
 
@@ -41403,106 +41442,106 @@
   <sheetData>
     <row r="2">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/actind.xlsx
+++ b/DATA/actind.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Tabulado" sheetId="1" r:id="Rd5c07da3cfb24d2a"/>
-    <sheet name="MetaInfo" sheetId="2" r:id="Rd6cf121c3cf34f23"/>
+    <sheet name="Tabulado" sheetId="1" r:id="Re089cb1b5dd64b37"/>
+    <sheet name="MetaInfo" sheetId="2" r:id="R7d5bae15f22b4256"/>
   </sheets>
 </workbook>
 </file>
@@ -46,7 +46,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
+          <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
     </comment>
@@ -57,7 +57,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
+          <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
     </comment>
@@ -68,7 +68,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
+          <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
     </comment>
@@ -79,7 +79,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
+          <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
     </comment>
@@ -90,11 +90,22 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
+          <t xml:space="preserve">P. Cifras preliminares</t>
+        </d:r>
+      </text>
+    </comment>
+    <comment ref="NG6" authorId="0">
+      <text>
+        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
-    <comment ref="NG6" authorId="0">
+    <comment ref="NH6" authorId="0">
       <text>
         <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
           <rPr>
@@ -115,7 +126,7 @@
     <t>Instituto Nacional de Estadística y Geografía (INEGI).</t>
   </si>
   <si>
-    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Actividad Industrial. Año Base 2013. Serie de enero de 1993 a junio de 2021</t>
+    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Actividad Industrial. Año Base 2013. Serie de enero de 1993 a julio de 2021</t>
   </si>
   <si>
     <t>Índice de volumen físico base 2013=100</t>
@@ -300,7 +311,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
+      <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
@@ -320,7 +331,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
+      <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
@@ -340,7 +351,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
+      <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
@@ -360,7 +371,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
+      <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
@@ -380,6 +391,26 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
+      <d:t xml:space="preserve">P</d:t>
+    </d:r>
+  </si>
+  <si>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="10"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t> Junio</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:vertAlign val="superscript"/>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
       <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
@@ -390,7 +421,7 @@
         <d:sz val="10"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
-      <d:t> Junio</d:t>
+      <d:t> Julio</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -547,9 +578,6 @@
     </d:r>
   </si>
   <si>
-    <t>Nota: Con base en los ´´Lineamientos de cambios a la información divulgada en las publicaciones estadísticas y geográficas del INEGI´´ y que complementan las ´´Normas Especiales para la Divulgación de Datos´´ del FMI, los resultados del Indicador Mensual de la Actividad Industrial incorporan la última información estadística disponible de la Estadística de la Industria Minerometalúrgica, la Encuesta Nacional de Empresas Constructoras, la Encuesta Mensual de la Industria Manufacturera, los registros administrativos y los datos primarios del año 2021, por lo que se debe actualizar el indicador. Como resultado de incorporar dicha información, se identifican diferencias en los niveles de los índices y variaciones que fueron oportunamente publicadas.</t>
-  </si>
-  <si>
     <t>Fuente: INEGI. Sistema de Cuentas Nacionales de México. Indicador Mensual de la Actividad Industrial</t>
   </si>
   <si>
@@ -616,19 +644,19 @@
     <t>COBERTURA TEMPORAL</t>
   </si>
   <si>
-    <t>1993-01-2021-06</t>
+    <t>1993-01-2021-07</t>
   </si>
   <si>
     <t>DESCRIPCIÓN PERIODO</t>
   </si>
   <si>
-    <t>Serie de enero de 1993 a junio de 2021</t>
+    <t>Serie de enero de 1993 a julio de 2021</t>
   </si>
   <si>
     <t>FECHA DE ACTUALIZACIÓN</t>
   </si>
   <si>
-    <t>2021-08-11</t>
+    <t>2021-09-10</t>
   </si>
 </sst>
 </file>
@@ -769,7 +797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:NN48"/>
+  <dimension ref="A1:NN47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2723,7 +2751,7 @@
         <v>51</v>
       </c>
       <c r="NH6" s="10" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="NI6" s="10" t="s">
         <v>40</v>
@@ -2746,7 +2774,7 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" s="11">
         <v>69.222752741001</v>
@@ -3856,33 +3884,33 @@
         <v>98.610058992661</v>
       </c>
       <c r="NG7" s="11">
-        <v>97.756083895029</v>
-      </c>
-      <c r="NH7" s="14" t="s">
-        <v>53</v>
+        <v>97.719139242435</v>
+      </c>
+      <c r="NH7" s="11">
+        <v>98.251685818355</v>
       </c>
       <c r="NI7" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ7" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK7" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL7" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM7" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN7" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" s="12">
         <v>85.987958716261</v>
@@ -4992,33 +5020,33 @@
         <v>75.993360509255</v>
       </c>
       <c r="NG8" s="12">
-        <v>73.532983832429</v>
-      </c>
-      <c r="NH8" s="15" t="s">
-        <v>53</v>
+        <v>73.442879869386</v>
+      </c>
+      <c r="NH8" s="12">
+        <v>72.895857004091</v>
       </c>
       <c r="NI8" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ8" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK8" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL8" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM8" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN8" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" s="11">
         <v>99.519341749343</v>
@@ -6130,31 +6158,31 @@
       <c r="NG9" s="11">
         <v>65.971109230481</v>
       </c>
-      <c r="NH9" s="14" t="s">
-        <v>53</v>
+      <c r="NH9" s="11">
+        <v>67.747174467944</v>
       </c>
       <c r="NI9" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ9" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK9" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL9" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM9" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN9" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" s="12">
         <v>48.814950253715</v>
@@ -7264,33 +7292,33 @@
         <v>107.08072000644</v>
       </c>
       <c r="NG10" s="12">
-        <v>102.986395502164</v>
-      </c>
-      <c r="NH10" s="15" t="s">
-        <v>53</v>
+        <v>102.397934755908</v>
+      </c>
+      <c r="NH10" s="12">
+        <v>103.922587658415</v>
       </c>
       <c r="NI10" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ10" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK10" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL10" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM10" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN10" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" s="11">
         <v>22.744141472693</v>
@@ -8400,33 +8428,33 @@
         <v>89.42984354167</v>
       </c>
       <c r="NG11" s="11">
-        <v>93.005517188237</v>
-      </c>
-      <c r="NH11" s="14" t="s">
-        <v>53</v>
+        <v>92.952911166371</v>
+      </c>
+      <c r="NH11" s="11">
+        <v>66.09082401142</v>
       </c>
       <c r="NI11" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ11" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK11" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL11" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM11" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN11" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="12">
         <v>38.665943249786</v>
@@ -8951,7 +8979,7 @@
         <v>82.285700021575</v>
       </c>
       <c r="FT12" s="12">
-        <v>84.872908092727</v>
+        <v>84.872908092728</v>
       </c>
       <c r="FU12" s="12">
         <v>87.006771936463</v>
@@ -9536,33 +9564,33 @@
         <v>112.266280021283</v>
       </c>
       <c r="NG12" s="12">
-        <v>115.24508616476</v>
-      </c>
-      <c r="NH12" s="15" t="s">
-        <v>53</v>
+        <v>115.11939157212</v>
+      </c>
+      <c r="NH12" s="12">
+        <v>119.325491368361</v>
       </c>
       <c r="NI12" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ12" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK12" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL12" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM12" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN12" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" s="11">
         <v>33.532463105934</v>
@@ -10087,7 +10115,7 @@
         <v>77.96308232892</v>
       </c>
       <c r="FT13" s="11">
-        <v>81.350354205881</v>
+        <v>81.350354205882</v>
       </c>
       <c r="FU13" s="11">
         <v>83.983953249091</v>
@@ -10672,33 +10700,33 @@
         <v>113.520849351763</v>
       </c>
       <c r="NG13" s="11">
-        <v>117.269274323843</v>
-      </c>
-      <c r="NH13" s="14" t="s">
-        <v>53</v>
+        <v>117.106972340176</v>
+      </c>
+      <c r="NH13" s="11">
+        <v>123.143109517566</v>
       </c>
       <c r="NI13" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ13" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK13" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL13" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM13" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN13" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B14" s="12">
         <v>56.292184219235</v>
@@ -11810,31 +11838,31 @@
       <c r="NG14" s="12">
         <v>108.294863847795</v>
       </c>
-      <c r="NH14" s="15" t="s">
-        <v>53</v>
+      <c r="NH14" s="12">
+        <v>106.217374546712</v>
       </c>
       <c r="NI14" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ14" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK14" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL14" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM14" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN14" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15" s="11">
         <v>71.2627077305</v>
@@ -12944,33 +12972,33 @@
         <v>90.169849220607</v>
       </c>
       <c r="NG15" s="11">
-        <v>86.062428792484</v>
-      </c>
-      <c r="NH15" s="14" t="s">
-        <v>53</v>
+        <v>85.933624418293</v>
+      </c>
+      <c r="NH15" s="11">
+        <v>88.209969178939</v>
       </c>
       <c r="NI15" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ15" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK15" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL15" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM15" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN15" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="12">
         <v>84.037802362945</v>
@@ -13864,7 +13892,7 @@
         <v>107.456876229305</v>
       </c>
       <c r="KM16" s="12">
-        <v>109.69972489064</v>
+        <v>109.699724890639</v>
       </c>
       <c r="KN16" s="12">
         <v>106.221231756916</v>
@@ -14080,33 +14108,33 @@
         <v>99.463672205599</v>
       </c>
       <c r="NG16" s="12">
-        <v>91.042553613982</v>
-      </c>
-      <c r="NH16" s="15" t="s">
-        <v>53</v>
+        <v>90.797806764448</v>
+      </c>
+      <c r="NH16" s="12">
+        <v>94.041152620565</v>
       </c>
       <c r="NI16" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ16" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK16" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL16" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM16" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN16" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B17" s="11">
         <v>35.064527007042</v>
@@ -15183,7 +15211,7 @@
         <v>50.631944025606</v>
       </c>
       <c r="MV17" s="11">
-        <v>56.073389775793</v>
+        <v>56.073389775792</v>
       </c>
       <c r="MW17" s="11">
         <v>53.730057240421</v>
@@ -15216,33 +15244,33 @@
         <v>51.992871526456</v>
       </c>
       <c r="NG17" s="11">
-        <v>50.698025773277</v>
-      </c>
-      <c r="NH17" s="14" t="s">
-        <v>53</v>
+        <v>50.791743509044</v>
+      </c>
+      <c r="NH17" s="11">
+        <v>56.422069954497</v>
       </c>
       <c r="NI17" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ17" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK17" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL17" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM17" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN17" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B18" s="12">
         <v>73.87209194618</v>
@@ -16352,33 +16380,33 @@
         <v>118.116987550032</v>
       </c>
       <c r="NG18" s="12">
-        <v>133.826537399665</v>
-      </c>
-      <c r="NH18" s="15" t="s">
-        <v>53</v>
+        <v>133.907201052341</v>
+      </c>
+      <c r="NH18" s="12">
+        <v>122.977249738745</v>
       </c>
       <c r="NI18" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ18" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK18" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL18" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM18" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN18" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B19" s="11">
         <v>63.653052579688</v>
@@ -17215,7 +17243,7 @@
         <v>106.941322006685</v>
       </c>
       <c r="JT19" s="11">
-        <v>105.230620689974</v>
+        <v>105.230620689975</v>
       </c>
       <c r="JU19" s="11">
         <v>105.554969592329</v>
@@ -17263,7 +17291,7 @@
         <v>107.711396263853</v>
       </c>
       <c r="KJ19" s="11">
-        <v>108.022283783149</v>
+        <v>108.022283783148</v>
       </c>
       <c r="KK19" s="11">
         <v>113.751953282089</v>
@@ -17488,33 +17516,33 @@
         <v>111.406634279482</v>
       </c>
       <c r="NG19" s="11">
-        <v>112.437318933241</v>
-      </c>
-      <c r="NH19" s="14" t="s">
-        <v>53</v>
+        <v>112.4757329322</v>
+      </c>
+      <c r="NH19" s="11">
+        <v>112.324409153513</v>
       </c>
       <c r="NI19" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ19" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK19" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL19" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM19" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN19" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B20" s="12">
         <v>63.907698868213</v>
@@ -18624,33 +18652,33 @@
         <v>117.302674602582</v>
       </c>
       <c r="NG20" s="12">
-        <v>116.493719750459</v>
-      </c>
-      <c r="NH20" s="15" t="s">
-        <v>53</v>
+        <v>116.496153530384</v>
+      </c>
+      <c r="NH20" s="12">
+        <v>116.043575309129</v>
       </c>
       <c r="NI20" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ20" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK20" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL20" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM20" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN20" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B21" s="11">
         <v>56.569385260854</v>
@@ -19760,33 +19788,33 @@
         <v>131.026131943119</v>
       </c>
       <c r="NG21" s="11">
-        <v>134.455722871202</v>
-      </c>
-      <c r="NH21" s="14" t="s">
-        <v>53</v>
+        <v>134.455671698255</v>
+      </c>
+      <c r="NH21" s="11">
+        <v>138.990993597344</v>
       </c>
       <c r="NI21" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ21" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK21" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL21" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM21" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN21" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22" s="12">
         <v>114.319677175604</v>
@@ -20212,7 +20240,7 @@
         <v>117.907452401807</v>
       </c>
       <c r="EM22" s="12">
-        <v>102.663934277922</v>
+        <v>102.663934277921</v>
       </c>
       <c r="EN22" s="12">
         <v>121.171668236243</v>
@@ -20898,31 +20926,31 @@
       <c r="NG22" s="12">
         <v>94.139234170372</v>
       </c>
-      <c r="NH22" s="15" t="s">
-        <v>53</v>
+      <c r="NH22" s="12">
+        <v>95.115092548317</v>
       </c>
       <c r="NI22" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ22" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK22" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL22" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM22" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN22" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B23" s="11">
         <v>120.050850501477</v>
@@ -21642,7 +21670,7 @@
         <v>93.175225480757</v>
       </c>
       <c r="IG23" s="11">
-        <v>96.070279662976</v>
+        <v>96.070279662975</v>
       </c>
       <c r="IH23" s="11">
         <v>101.737313361619</v>
@@ -22032,33 +22060,33 @@
         <v>103.582434438996</v>
       </c>
       <c r="NG23" s="11">
-        <v>102.537187503302</v>
-      </c>
-      <c r="NH23" s="14" t="s">
-        <v>53</v>
+        <v>102.442158450718</v>
+      </c>
+      <c r="NH23" s="11">
+        <v>109.419610214933</v>
       </c>
       <c r="NI23" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ23" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK23" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL23" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM23" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN23" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B24" s="12">
         <v>90.688383871069</v>
@@ -23168,33 +23196,33 @@
         <v>84.623253840156</v>
       </c>
       <c r="NG24" s="12">
-        <v>82.065978857869</v>
-      </c>
-      <c r="NH24" s="15" t="s">
-        <v>53</v>
+        <v>82.092782073871</v>
+      </c>
+      <c r="NH24" s="12">
+        <v>80.066902874358</v>
       </c>
       <c r="NI24" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ24" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK24" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL24" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM24" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN24" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B25" s="11">
         <v>139.460849924193</v>
@@ -24306,31 +24334,31 @@
       <c r="NG25" s="11">
         <v>74.611041644678</v>
       </c>
-      <c r="NH25" s="14" t="s">
-        <v>53</v>
+      <c r="NH25" s="11">
+        <v>74.889378232599</v>
       </c>
       <c r="NI25" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ25" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK25" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL25" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM25" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN25" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B26" s="12">
         <v>130.395494603712</v>
@@ -25092,7 +25120,7 @@
         <v>111.318450734813</v>
       </c>
       <c r="IU26" s="12">
-        <v>97.416158126745</v>
+        <v>97.416158126744</v>
       </c>
       <c r="IV26" s="12">
         <v>107.114454959646</v>
@@ -25440,33 +25468,33 @@
         <v>96.385404863874</v>
       </c>
       <c r="NG26" s="12">
-        <v>107.465012685658</v>
-      </c>
-      <c r="NH26" s="15" t="s">
-        <v>53</v>
+        <v>107.950441508887</v>
+      </c>
+      <c r="NH26" s="12">
+        <v>106.388737803037</v>
       </c>
       <c r="NI26" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ26" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK26" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL26" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM26" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN26" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B27" s="11">
         <v>51.479382699588</v>
@@ -26576,33 +26604,33 @@
         <v>131.041141157866</v>
       </c>
       <c r="NG27" s="11">
-        <v>122.906913612617</v>
-      </c>
-      <c r="NH27" s="14" t="s">
-        <v>53</v>
+        <v>122.900860636101</v>
+      </c>
+      <c r="NH27" s="11">
+        <v>126.165419939631</v>
       </c>
       <c r="NI27" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ27" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK27" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL27" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM27" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN27" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B28" s="12">
         <v>68.358361009475</v>
@@ -27712,33 +27740,33 @@
         <v>101.342666356018</v>
       </c>
       <c r="NG28" s="12">
-        <v>110.086413440673</v>
-      </c>
-      <c r="NH28" s="15" t="s">
-        <v>53</v>
+        <v>109.9806808482</v>
+      </c>
+      <c r="NH28" s="12">
+        <v>109.802876137791</v>
       </c>
       <c r="NI28" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ28" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK28" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL28" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM28" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN28" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B29" s="11">
         <v>76.901717312341</v>
@@ -28848,33 +28876,33 @@
         <v>54.710091472634</v>
       </c>
       <c r="NG29" s="11">
-        <v>47.628670412601</v>
-      </c>
-      <c r="NH29" s="14" t="s">
-        <v>53</v>
+        <v>47.504338860699</v>
+      </c>
+      <c r="NH29" s="11">
+        <v>52.45003839176</v>
       </c>
       <c r="NI29" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ29" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK29" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL29" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM29" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN29" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B30" s="12">
         <v>73.778714563351</v>
@@ -29984,33 +30012,33 @@
         <v>78.351268967003</v>
       </c>
       <c r="NG30" s="12">
-        <v>79.717583771148</v>
-      </c>
-      <c r="NH30" s="15" t="s">
-        <v>53</v>
+        <v>80.140220111041</v>
+      </c>
+      <c r="NH30" s="12">
+        <v>85.298202174664</v>
       </c>
       <c r="NI30" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ30" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK30" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL30" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM30" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN30" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B31" s="11">
         <v>73.811018646336</v>
@@ -30193,7 +30221,7 @@
         <v>92.530672204995</v>
       </c>
       <c r="BJ31" s="11">
-        <v>84.822315953758</v>
+        <v>84.822315953759</v>
       </c>
       <c r="BK31" s="11">
         <v>91.197770456276</v>
@@ -30814,7 +30842,7 @@
         <v>105.279540530588</v>
       </c>
       <c r="JI31" s="11">
-        <v>103.79997342929</v>
+        <v>103.799973429289</v>
       </c>
       <c r="JJ31" s="11">
         <v>97.719773098197</v>
@@ -31120,33 +31148,33 @@
         <v>127.916901116271</v>
       </c>
       <c r="NG31" s="11">
-        <v>130.416157403404</v>
-      </c>
-      <c r="NH31" s="14" t="s">
-        <v>53</v>
+        <v>130.461764866534</v>
+      </c>
+      <c r="NH31" s="11">
+        <v>129.832182715271</v>
       </c>
       <c r="NI31" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ31" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK31" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL31" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM31" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN31" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B32" s="12">
         <v>86.120032958035</v>
@@ -32256,33 +32284,33 @@
         <v>113.7614698419</v>
       </c>
       <c r="NG32" s="12">
-        <v>114.837505804048</v>
-      </c>
-      <c r="NH32" s="15" t="s">
-        <v>53</v>
+        <v>114.849895122055</v>
+      </c>
+      <c r="NH32" s="12">
+        <v>120.317941542966</v>
       </c>
       <c r="NI32" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ32" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK32" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL32" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM32" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN32" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B33" s="11">
         <v>69.399412813085</v>
@@ -33394,31 +33422,31 @@
       <c r="NG33" s="11">
         <v>97.313792928414</v>
       </c>
-      <c r="NH33" s="14" t="s">
-        <v>53</v>
+      <c r="NH33" s="11">
+        <v>97.561659430102</v>
       </c>
       <c r="NI33" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ33" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK33" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL33" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM33" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN33" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34" s="12">
         <v>72.622901666126</v>
@@ -33991,7 +34019,7 @@
         <v>116.458896659146</v>
       </c>
       <c r="GJ34" s="12">
-        <v>107.179010492019</v>
+        <v>107.179010492018</v>
       </c>
       <c r="GK34" s="12">
         <v>115.46329954894</v>
@@ -34030,7 +34058,7 @@
         <v>107.220124251125</v>
       </c>
       <c r="GW34" s="12">
-        <v>105.452330853942</v>
+        <v>105.452330853943</v>
       </c>
       <c r="GX34" s="12">
         <v>115.02590334585</v>
@@ -34222,7 +34250,7 @@
         <v>101.595831692184</v>
       </c>
       <c r="JI34" s="12">
-        <v>101.467953672713</v>
+        <v>101.467953672712</v>
       </c>
       <c r="JJ34" s="12">
         <v>97.944257143157</v>
@@ -34318,7 +34346,7 @@
         <v>109.976767217928</v>
       </c>
       <c r="KO34" s="12">
-        <v>107.874867879491</v>
+        <v>107.87486787949</v>
       </c>
       <c r="KP34" s="12">
         <v>112.689978501788</v>
@@ -34528,33 +34556,33 @@
         <v>110.5554692786</v>
       </c>
       <c r="NG34" s="12">
-        <v>112.474052484218</v>
-      </c>
-      <c r="NH34" s="15" t="s">
-        <v>53</v>
+        <v>112.47579611705</v>
+      </c>
+      <c r="NH34" s="12">
+        <v>114.467948972667</v>
       </c>
       <c r="NI34" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ34" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK34" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL34" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM34" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN34" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B35" s="11">
         <v>60.182989506094</v>
@@ -35664,33 +35692,33 @@
         <v>104.206148656917</v>
       </c>
       <c r="NG35" s="11">
-        <v>110.820488051284</v>
-      </c>
-      <c r="NH35" s="14" t="s">
-        <v>53</v>
+        <v>110.826570815905</v>
+      </c>
+      <c r="NH35" s="11">
+        <v>104.866820173805</v>
       </c>
       <c r="NI35" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ35" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK35" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL35" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM35" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN35" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B36" s="12">
         <v>61.132998870046</v>
@@ -36260,7 +36288,7 @@
         <v>107.863814613867</v>
       </c>
       <c r="GI36" s="12">
-        <v>126.09453857615</v>
+        <v>126.094538576149</v>
       </c>
       <c r="GJ36" s="12">
         <v>125.489105446636</v>
@@ -36281,7 +36309,7 @@
         <v>112.53675029352</v>
       </c>
       <c r="GP36" s="12">
-        <v>105.708098106801</v>
+        <v>105.708098106802</v>
       </c>
       <c r="GQ36" s="12">
         <v>110.211745409613</v>
@@ -36802,31 +36830,31 @@
       <c r="NG36" s="12">
         <v>137.177928999875</v>
       </c>
-      <c r="NH36" s="15" t="s">
-        <v>53</v>
+      <c r="NH36" s="12">
+        <v>144.406971792021</v>
       </c>
       <c r="NI36" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ36" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK36" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL36" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM36" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN36" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B37" s="11">
         <v>65.758484330262</v>
@@ -37225,7 +37253,7 @@
         <v>109.375136947249</v>
       </c>
       <c r="ED37" s="11">
-        <v>103.630122854371</v>
+        <v>103.630122854372</v>
       </c>
       <c r="EE37" s="11">
         <v>95.918036976017</v>
@@ -37612,7 +37640,7 @@
         <v>100.808222495904</v>
       </c>
       <c r="JC37" s="11">
-        <v>98.353856914581</v>
+        <v>98.35385691458</v>
       </c>
       <c r="JD37" s="11">
         <v>94.616077569601</v>
@@ -37804,7 +37832,7 @@
         <v>117.339402188725</v>
       </c>
       <c r="LO37" s="11">
-        <v>111.243619478106</v>
+        <v>111.243619478105</v>
       </c>
       <c r="LP37" s="11">
         <v>113.05386535961</v>
@@ -37938,31 +37966,31 @@
       <c r="NG37" s="11">
         <v>140.832381978733</v>
       </c>
-      <c r="NH37" s="14" t="s">
-        <v>53</v>
+      <c r="NH37" s="11">
+        <v>141.030669167153</v>
       </c>
       <c r="NI37" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ37" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK37" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL37" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM37" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN37" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B38" s="12">
         <v>33.546378018984</v>
@@ -39072,33 +39100,33 @@
         <v>119.507718595814</v>
       </c>
       <c r="NG38" s="12">
-        <v>126.314569714816</v>
-      </c>
-      <c r="NH38" s="15" t="s">
-        <v>53</v>
+        <v>126.319873438929</v>
+      </c>
+      <c r="NH38" s="12">
+        <v>116.799082308144</v>
       </c>
       <c r="NI38" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ38" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK38" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL38" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM38" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN38" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B39" s="11">
         <v>113.328554079414</v>
@@ -40058,7 +40086,7 @@
         <v>88.455549785448</v>
       </c>
       <c r="LI39" s="11">
-        <v>90.391653887423</v>
+        <v>90.391653887422</v>
       </c>
       <c r="LJ39" s="11">
         <v>94.579359088044</v>
@@ -40208,33 +40236,33 @@
         <v>97.703130456019</v>
       </c>
       <c r="NG39" s="11">
-        <v>98.853068480946</v>
-      </c>
-      <c r="NH39" s="14" t="s">
-        <v>53</v>
+        <v>98.853691730342</v>
+      </c>
+      <c r="NH39" s="11">
+        <v>93.253079011255</v>
       </c>
       <c r="NI39" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ39" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK39" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL39" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM39" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN39" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B40" s="12">
         <v>42.404526159595</v>
@@ -41041,7 +41069,7 @@
         <v>100.047769469755</v>
       </c>
       <c r="JJ40" s="12">
-        <v>98.265948470573</v>
+        <v>98.265948470574</v>
       </c>
       <c r="JK40" s="12">
         <v>111.175398244536</v>
@@ -41344,52 +41372,47 @@
         <v>129.095442746663</v>
       </c>
       <c r="NG40" s="12">
-        <v>123.575923754268</v>
-      </c>
-      <c r="NH40" s="15" t="s">
-        <v>53</v>
+        <v>123.12030063746</v>
+      </c>
+      <c r="NH40" s="12">
+        <v>133.788904951557</v>
       </c>
       <c r="NI40" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ40" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK40" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL40" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM40" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN40" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3"/>
+      <c r="A47" s="3"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -41425,7 +41448,7 @@
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <headerFooter/>
-  <legacyDrawing r:id="Re86338461a2d478f"/>
+  <legacyDrawing r:id="R3bd3e29c36bb409b"/>
 </worksheet>
 </file>
 

--- a/DATA/actind.xlsx
+++ b/DATA/actind.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Tabulado" sheetId="1" r:id="Re089cb1b5dd64b37"/>
-    <sheet name="MetaInfo" sheetId="2" r:id="R7d5bae15f22b4256"/>
+    <sheet name="Tabulado" sheetId="1" r:id="R4c8695fd9eed4879"/>
+    <sheet name="MetaInfo" sheetId="2" r:id="R7667d135c2c34b5c"/>
   </sheets>
 </workbook>
 </file>
@@ -101,11 +101,22 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
+          <t xml:space="preserve">P. Cifras preliminares</t>
+        </d:r>
+      </text>
+    </comment>
+    <comment ref="NH6" authorId="0">
+      <text>
+        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
-    <comment ref="NH6" authorId="0">
+    <comment ref="NI6" authorId="0">
       <text>
         <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
           <rPr>
@@ -121,12 +132,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>Instituto Nacional de Estadística y Geografía (INEGI).</t>
   </si>
   <si>
-    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Actividad Industrial. Año Base 2013. Serie de enero de 1993 a julio de 2021</t>
+    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Actividad Industrial. Año Base 2013. Serie de enero de 1993 a agosto de 2021</t>
   </si>
   <si>
     <t>Índice de volumen físico base 2013=100</t>
@@ -411,6 +422,26 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
+      <d:t xml:space="preserve">P</d:t>
+    </d:r>
+  </si>
+  <si>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="10"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t> Julio</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:vertAlign val="superscript"/>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
       <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
@@ -421,7 +452,7 @@
         <d:sz val="10"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
-      <d:t> Julio</d:t>
+      <d:t> Agosto</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -644,19 +675,19 @@
     <t>COBERTURA TEMPORAL</t>
   </si>
   <si>
-    <t>1993-01-2021-07</t>
+    <t>1993-01-2021-08</t>
   </si>
   <si>
     <t>DESCRIPCIÓN PERIODO</t>
   </si>
   <si>
-    <t>Serie de enero de 1993 a julio de 2021</t>
+    <t>Serie de enero de 1993 a agosto de 2021</t>
   </si>
   <si>
     <t>FECHA DE ACTUALIZACIÓN</t>
   </si>
   <si>
-    <t>2021-09-10</t>
+    <t>2021-10-12</t>
   </si>
 </sst>
 </file>
@@ -2754,7 +2785,7 @@
         <v>52</v>
       </c>
       <c r="NI6" s="10" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="NJ6" s="10" t="s">
         <v>41</v>
@@ -2774,7 +2805,7 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B7" s="11">
         <v>69.222752741001</v>
@@ -3887,30 +3918,30 @@
         <v>97.719139242435</v>
       </c>
       <c r="NH7" s="11">
-        <v>98.251685818355</v>
-      </c>
-      <c r="NI7" s="14" t="s">
-        <v>54</v>
+        <v>98.283893654326</v>
+      </c>
+      <c r="NI7" s="11">
+        <v>101.297999777636</v>
       </c>
       <c r="NJ7" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK7" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL7" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM7" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN7" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B8" s="12">
         <v>85.987958716261</v>
@@ -5023,30 +5054,30 @@
         <v>73.442879869386</v>
       </c>
       <c r="NH8" s="12">
-        <v>72.895857004091</v>
-      </c>
-      <c r="NI8" s="15" t="s">
-        <v>54</v>
+        <v>72.90455333051</v>
+      </c>
+      <c r="NI8" s="12">
+        <v>76.167116108872</v>
       </c>
       <c r="NJ8" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK8" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL8" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM8" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN8" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9" s="11">
         <v>99.519341749343</v>
@@ -6161,28 +6192,28 @@
       <c r="NH9" s="11">
         <v>67.747174467944</v>
       </c>
-      <c r="NI9" s="14" t="s">
-        <v>54</v>
+      <c r="NI9" s="11">
+        <v>66.024397665232</v>
       </c>
       <c r="NJ9" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK9" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL9" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM9" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN9" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="12">
         <v>48.814950253715</v>
@@ -7295,30 +7326,30 @@
         <v>102.397934755908</v>
       </c>
       <c r="NH10" s="12">
-        <v>103.922587658415</v>
-      </c>
-      <c r="NI10" s="15" t="s">
-        <v>54</v>
+        <v>103.972868780182</v>
+      </c>
+      <c r="NI10" s="12">
+        <v>106.375395100551</v>
       </c>
       <c r="NJ10" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK10" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL10" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM10" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN10" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" s="11">
         <v>22.744141472693</v>
@@ -8431,30 +8462,30 @@
         <v>92.952911166371</v>
       </c>
       <c r="NH11" s="11">
-        <v>66.09082401142</v>
-      </c>
-      <c r="NI11" s="14" t="s">
-        <v>54</v>
+        <v>66.107811619015</v>
+      </c>
+      <c r="NI11" s="11">
+        <v>119.285884410297</v>
       </c>
       <c r="NJ11" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK11" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL11" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM11" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN11" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" s="12">
         <v>38.665943249786</v>
@@ -9567,30 +9598,30 @@
         <v>115.11939157212</v>
       </c>
       <c r="NH12" s="12">
-        <v>119.325491368361</v>
-      </c>
-      <c r="NI12" s="15" t="s">
-        <v>54</v>
+        <v>119.337930311762</v>
+      </c>
+      <c r="NI12" s="12">
+        <v>117.58064005905</v>
       </c>
       <c r="NJ12" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK12" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL12" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM12" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN12" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13" s="11">
         <v>33.532463105934</v>
@@ -10703,30 +10734,30 @@
         <v>117.106972340176</v>
       </c>
       <c r="NH13" s="11">
-        <v>123.143109517566</v>
-      </c>
-      <c r="NI13" s="14" t="s">
-        <v>54</v>
+        <v>123.159171188528</v>
+      </c>
+      <c r="NI13" s="11">
+        <v>120.439436355405</v>
       </c>
       <c r="NJ13" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK13" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL13" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM13" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN13" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" s="12">
         <v>56.292184219235</v>
@@ -11841,28 +11872,28 @@
       <c r="NH14" s="12">
         <v>106.217374546712</v>
       </c>
-      <c r="NI14" s="15" t="s">
-        <v>54</v>
+      <c r="NI14" s="12">
+        <v>107.764719671694</v>
       </c>
       <c r="NJ14" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK14" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL14" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM14" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN14" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" s="11">
         <v>71.2627077305</v>
@@ -12975,30 +13006,30 @@
         <v>85.933624418293</v>
       </c>
       <c r="NH15" s="11">
-        <v>88.209969178939</v>
-      </c>
-      <c r="NI15" s="14" t="s">
-        <v>54</v>
+        <v>88.207981288495</v>
+      </c>
+      <c r="NI15" s="11">
+        <v>93.321200956708</v>
       </c>
       <c r="NJ15" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK15" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL15" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM15" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN15" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" s="12">
         <v>84.037802362945</v>
@@ -14111,30 +14142,30 @@
         <v>90.797806764448</v>
       </c>
       <c r="NH16" s="12">
-        <v>94.041152620565</v>
-      </c>
-      <c r="NI16" s="15" t="s">
-        <v>54</v>
+        <v>94.043683344746</v>
+      </c>
+      <c r="NI16" s="12">
+        <v>98.789445784347</v>
       </c>
       <c r="NJ16" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK16" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL16" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM16" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN16" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B17" s="11">
         <v>35.064527007042</v>
@@ -15247,30 +15278,30 @@
         <v>50.791743509044</v>
       </c>
       <c r="NH17" s="11">
-        <v>56.422069954497</v>
-      </c>
-      <c r="NI17" s="14" t="s">
-        <v>54</v>
+        <v>56.273669804743</v>
+      </c>
+      <c r="NI17" s="11">
+        <v>64.421031346268</v>
       </c>
       <c r="NJ17" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK17" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL17" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM17" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN17" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B18" s="12">
         <v>73.87209194618</v>
@@ -16383,30 +16414,30 @@
         <v>133.907201052341</v>
       </c>
       <c r="NH18" s="12">
-        <v>122.977249738745</v>
-      </c>
-      <c r="NI18" s="15" t="s">
-        <v>54</v>
+        <v>123.270059779546</v>
+      </c>
+      <c r="NI18" s="12">
+        <v>123.924686859776</v>
       </c>
       <c r="NJ18" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK18" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL18" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM18" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN18" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19" s="11">
         <v>63.653052579688</v>
@@ -17519,30 +17550,30 @@
         <v>112.4757329322</v>
       </c>
       <c r="NH19" s="11">
-        <v>112.324409153513</v>
-      </c>
-      <c r="NI19" s="14" t="s">
-        <v>54</v>
+        <v>112.385079783391</v>
+      </c>
+      <c r="NI19" s="11">
+        <v>114.753626110871</v>
       </c>
       <c r="NJ19" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK19" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL19" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM19" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN19" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B20" s="12">
         <v>63.907698868213</v>
@@ -18655,30 +18686,30 @@
         <v>116.496153530384</v>
       </c>
       <c r="NH20" s="12">
-        <v>116.043575309129</v>
-      </c>
-      <c r="NI20" s="15" t="s">
-        <v>54</v>
+        <v>116.041266788014</v>
+      </c>
+      <c r="NI20" s="12">
+        <v>114.81858873999</v>
       </c>
       <c r="NJ20" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK20" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL20" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM20" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN20" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" s="11">
         <v>56.569385260854</v>
@@ -19791,30 +19822,30 @@
         <v>134.455671698255</v>
       </c>
       <c r="NH21" s="11">
-        <v>138.990993597344</v>
-      </c>
-      <c r="NI21" s="14" t="s">
-        <v>54</v>
+        <v>138.990988815896</v>
+      </c>
+      <c r="NI21" s="11">
+        <v>144.613398373499</v>
       </c>
       <c r="NJ21" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK21" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL21" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM21" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN21" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B22" s="12">
         <v>114.319677175604</v>
@@ -20927,30 +20958,30 @@
         <v>94.139234170372</v>
       </c>
       <c r="NH22" s="12">
-        <v>95.115092548317</v>
-      </c>
-      <c r="NI22" s="15" t="s">
-        <v>54</v>
+        <v>95.076968797324</v>
+      </c>
+      <c r="NI22" s="12">
+        <v>99.860915471257</v>
       </c>
       <c r="NJ22" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK22" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL22" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM22" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN22" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B23" s="11">
         <v>120.050850501477</v>
@@ -22063,30 +22094,30 @@
         <v>102.442158450718</v>
       </c>
       <c r="NH23" s="11">
-        <v>109.419610214933</v>
-      </c>
-      <c r="NI23" s="14" t="s">
-        <v>54</v>
+        <v>110.426018372815</v>
+      </c>
+      <c r="NI23" s="11">
+        <v>101.781877230519</v>
       </c>
       <c r="NJ23" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK23" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL23" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM23" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN23" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B24" s="12">
         <v>90.688383871069</v>
@@ -23199,30 +23230,30 @@
         <v>82.092782073871</v>
       </c>
       <c r="NH24" s="12">
-        <v>80.066902874358</v>
-      </c>
-      <c r="NI24" s="15" t="s">
-        <v>54</v>
+        <v>80.270807908909</v>
+      </c>
+      <c r="NI24" s="12">
+        <v>86.110970764855</v>
       </c>
       <c r="NJ24" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK24" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL24" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM24" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN24" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B25" s="11">
         <v>139.460849924193</v>
@@ -24337,28 +24368,28 @@
       <c r="NH25" s="11">
         <v>74.889378232599</v>
       </c>
-      <c r="NI25" s="14" t="s">
-        <v>54</v>
+      <c r="NI25" s="11">
+        <v>75.173197380525</v>
       </c>
       <c r="NJ25" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK25" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL25" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM25" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN25" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B26" s="12">
         <v>130.395494603712</v>
@@ -25471,30 +25502,30 @@
         <v>107.950441508887</v>
       </c>
       <c r="NH26" s="12">
-        <v>106.388737803037</v>
-      </c>
-      <c r="NI26" s="15" t="s">
-        <v>54</v>
+        <v>106.48532246355</v>
+      </c>
+      <c r="NI26" s="12">
+        <v>114.436868965497</v>
       </c>
       <c r="NJ26" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK26" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL26" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM26" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN26" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B27" s="11">
         <v>51.479382699588</v>
@@ -26609,28 +26640,28 @@
       <c r="NH27" s="11">
         <v>126.165419939631</v>
       </c>
-      <c r="NI27" s="14" t="s">
-        <v>54</v>
+      <c r="NI27" s="11">
+        <v>127.112859388784</v>
       </c>
       <c r="NJ27" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK27" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL27" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM27" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN27" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B28" s="12">
         <v>68.358361009475</v>
@@ -27743,30 +27774,30 @@
         <v>109.9806808482</v>
       </c>
       <c r="NH28" s="12">
-        <v>109.802876137791</v>
-      </c>
-      <c r="NI28" s="15" t="s">
-        <v>54</v>
+        <v>109.802934937687</v>
+      </c>
+      <c r="NI28" s="12">
+        <v>104.013137893748</v>
       </c>
       <c r="NJ28" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK28" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL28" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM28" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN28" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B29" s="11">
         <v>76.901717312341</v>
@@ -28879,30 +28910,30 @@
         <v>47.504338860699</v>
       </c>
       <c r="NH29" s="11">
-        <v>52.45003839176</v>
-      </c>
-      <c r="NI29" s="14" t="s">
-        <v>54</v>
+        <v>52.458889019562</v>
+      </c>
+      <c r="NI29" s="11">
+        <v>54.632121329494</v>
       </c>
       <c r="NJ29" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK29" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL29" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM29" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN29" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B30" s="12">
         <v>73.778714563351</v>
@@ -30015,30 +30046,30 @@
         <v>80.140220111041</v>
       </c>
       <c r="NH30" s="12">
-        <v>85.298202174664</v>
-      </c>
-      <c r="NI30" s="15" t="s">
-        <v>54</v>
+        <v>85.44427498356</v>
+      </c>
+      <c r="NI30" s="12">
+        <v>84.981038628736</v>
       </c>
       <c r="NJ30" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK30" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL30" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM30" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN30" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B31" s="11">
         <v>73.811018646336</v>
@@ -31151,30 +31182,30 @@
         <v>130.461764866534</v>
       </c>
       <c r="NH31" s="11">
-        <v>129.832182715271</v>
-      </c>
-      <c r="NI31" s="14" t="s">
-        <v>54</v>
+        <v>129.826988810393</v>
+      </c>
+      <c r="NI31" s="11">
+        <v>132.122646995355</v>
       </c>
       <c r="NJ31" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK31" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL31" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM31" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN31" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B32" s="12">
         <v>86.120032958035</v>
@@ -32287,30 +32318,30 @@
         <v>114.849895122055</v>
       </c>
       <c r="NH32" s="12">
-        <v>120.317941542966</v>
-      </c>
-      <c r="NI32" s="15" t="s">
-        <v>54</v>
+        <v>120.321413547285</v>
+      </c>
+      <c r="NI32" s="12">
+        <v>119.239508376836</v>
       </c>
       <c r="NJ32" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK32" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL32" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM32" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN32" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B33" s="11">
         <v>69.399412813085</v>
@@ -33423,30 +33454,30 @@
         <v>97.313792928414</v>
       </c>
       <c r="NH33" s="11">
-        <v>97.561659430102</v>
-      </c>
-      <c r="NI33" s="14" t="s">
-        <v>54</v>
+        <v>97.706992630978</v>
+      </c>
+      <c r="NI33" s="11">
+        <v>99.181572183668</v>
       </c>
       <c r="NJ33" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK33" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL33" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM33" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN33" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B34" s="12">
         <v>72.622901666126</v>
@@ -34559,30 +34590,30 @@
         <v>112.47579611705</v>
       </c>
       <c r="NH34" s="12">
-        <v>114.467948972667</v>
-      </c>
-      <c r="NI34" s="15" t="s">
-        <v>54</v>
+        <v>114.711637007249</v>
+      </c>
+      <c r="NI34" s="12">
+        <v>108.803080111008</v>
       </c>
       <c r="NJ34" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK34" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL34" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM34" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN34" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B35" s="11">
         <v>60.182989506094</v>
@@ -35695,30 +35726,30 @@
         <v>110.826570815905</v>
       </c>
       <c r="NH35" s="11">
-        <v>104.866820173805</v>
-      </c>
-      <c r="NI35" s="14" t="s">
-        <v>54</v>
+        <v>104.866648377123</v>
+      </c>
+      <c r="NI35" s="11">
+        <v>119.870120077309</v>
       </c>
       <c r="NJ35" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK35" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL35" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM35" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN35" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B36" s="12">
         <v>61.132998870046</v>
@@ -36833,28 +36864,28 @@
       <c r="NH36" s="12">
         <v>144.406971792021</v>
       </c>
-      <c r="NI36" s="15" t="s">
-        <v>54</v>
+      <c r="NI36" s="12">
+        <v>151.176506887834</v>
       </c>
       <c r="NJ36" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK36" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL36" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM36" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN36" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B37" s="11">
         <v>65.758484330262</v>
@@ -37969,28 +38000,28 @@
       <c r="NH37" s="11">
         <v>141.030669167153</v>
       </c>
-      <c r="NI37" s="14" t="s">
-        <v>54</v>
+      <c r="NI37" s="11">
+        <v>143.790198345515</v>
       </c>
       <c r="NJ37" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK37" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL37" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM37" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN37" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B38" s="12">
         <v>33.546378018984</v>
@@ -39103,30 +39134,30 @@
         <v>126.319873438929</v>
       </c>
       <c r="NH38" s="12">
-        <v>116.799082308144</v>
-      </c>
-      <c r="NI38" s="15" t="s">
-        <v>54</v>
+        <v>116.865804717051</v>
+      </c>
+      <c r="NI38" s="12">
+        <v>122.799997182904</v>
       </c>
       <c r="NJ38" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK38" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL38" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM38" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN38" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B39" s="11">
         <v>113.328554079414</v>
@@ -40239,30 +40270,30 @@
         <v>98.853691730342</v>
       </c>
       <c r="NH39" s="11">
-        <v>93.253079011255</v>
-      </c>
-      <c r="NI39" s="14" t="s">
-        <v>54</v>
+        <v>93.258229721444</v>
+      </c>
+      <c r="NI39" s="11">
+        <v>96.201620191665</v>
       </c>
       <c r="NJ39" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK39" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL39" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM39" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN39" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B40" s="12">
         <v>42.404526159595</v>
@@ -41375,40 +41406,40 @@
         <v>123.12030063746</v>
       </c>
       <c r="NH40" s="12">
-        <v>133.788904951557</v>
-      </c>
-      <c r="NI40" s="15" t="s">
-        <v>54</v>
+        <v>134.08142849725</v>
+      </c>
+      <c r="NI40" s="12">
+        <v>134.281409951863</v>
       </c>
       <c r="NJ40" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NK40" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NL40" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NM40" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="NN40" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47">
@@ -41448,7 +41479,7 @@
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <headerFooter/>
-  <legacyDrawing r:id="R3bd3e29c36bb409b"/>
+  <legacyDrawing r:id="R72a667d53c4542a9"/>
 </worksheet>
 </file>
 
@@ -41465,106 +41496,106 @@
   <sheetData>
     <row r="2">
       <c r="B2" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/actind.xlsx
+++ b/DATA/actind.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Tabulado" sheetId="1" r:id="Rb8da118fdb184ec3"/>
-    <sheet name="MetaInfo" sheetId="2" r:id="R6f191ec368e841b2"/>
+    <sheet name="Tabulado" sheetId="1" r:id="R0304b47488204486"/>
+    <sheet name="MetaInfo" sheetId="2" r:id="R3fc10fe10a7c40dd"/>
   </sheets>
 </workbook>
 </file>
@@ -134,11 +134,22 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
+          <t xml:space="preserve">P. Cifras preliminares</t>
+        </d:r>
+      </text>
+    </comment>
+    <comment ref="NK6" authorId="0">
+      <text>
+        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
-    <comment ref="NK6" authorId="0">
+    <comment ref="NL6" authorId="0">
       <text>
         <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
           <rPr>
@@ -154,12 +165,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>Instituto Nacional de Estadística y Geografía (INEGI).</t>
   </si>
   <si>
-    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Actividad Industrial. Año Base 2013. Serie de enero de 1993 a octubre de 2021</t>
+    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Actividad Industrial. Año Base 2013. Serie de enero de 1993 a noviembre de 2021</t>
   </si>
   <si>
     <t>Índice de volumen físico base 2013=100</t>
@@ -504,6 +515,26 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
+      <d:t xml:space="preserve">P</d:t>
+    </d:r>
+  </si>
+  <si>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="10"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t> Octubre</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:vertAlign val="superscript"/>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
       <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
@@ -514,7 +545,7 @@
         <d:sz val="10"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
-      <d:t> Octubre</d:t>
+      <d:t> Noviembre</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -737,19 +768,19 @@
     <t>COBERTURA TEMPORAL</t>
   </si>
   <si>
-    <t>1993-01-2021-10</t>
+    <t>1993-01-2021-11</t>
   </si>
   <si>
     <t>DESCRIPCIÓN PERIODO</t>
   </si>
   <si>
-    <t>Serie de enero de 1993 a octubre de 2021</t>
+    <t>Serie de enero de 1993 a noviembre de 2021</t>
   </si>
   <si>
     <t>FECHA DE ACTUALIZACIÓN</t>
   </si>
   <si>
-    <t>2021-12-10</t>
+    <t>2022-01-11</t>
   </si>
 </sst>
 </file>
@@ -757,7 +788,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="### ### ### ### ##0.0"/>
+    <numFmt numFmtId="164" formatCode="###,###,###,###,##0.0"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -2856,7 +2887,7 @@
         <v>55</v>
       </c>
       <c r="NL6" s="10" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="NM6" s="10" t="s">
         <v>44</v>
@@ -2867,7 +2898,7 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7" s="11">
         <v>69.222752741001</v>
@@ -3194,7 +3225,7 @@
         <v>83.277744519644</v>
       </c>
       <c r="DF7" s="11">
-        <v>88.424719096065</v>
+        <v>88.424719096066</v>
       </c>
       <c r="DG7" s="11">
         <v>88.097687086487</v>
@@ -3719,7 +3750,7 @@
         <v>107.841482391277</v>
       </c>
       <c r="JY7" s="11">
-        <v>103.682036310681</v>
+        <v>103.682036310682</v>
       </c>
       <c r="JZ7" s="11">
         <v>101.491694716881</v>
@@ -3989,21 +4020,21 @@
         <v>97.256713759932</v>
       </c>
       <c r="NK7" s="11">
-        <v>99.850814402073</v>
-      </c>
-      <c r="NL7" s="14" t="s">
-        <v>57</v>
+        <v>99.88151059525</v>
+      </c>
+      <c r="NL7" s="11">
+        <v>98.295940567267</v>
       </c>
       <c r="NM7" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN7" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" s="12">
         <v>85.987958716261</v>
@@ -5125,21 +5156,21 @@
         <v>73.730261545939</v>
       </c>
       <c r="NK8" s="12">
-        <v>75.227792071985</v>
-      </c>
-      <c r="NL8" s="15" t="s">
-        <v>57</v>
+        <v>75.234308051145</v>
+      </c>
+      <c r="NL8" s="12">
+        <v>73.127870989759</v>
       </c>
       <c r="NM8" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN8" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" s="11">
         <v>99.519341749343</v>
@@ -6263,19 +6294,19 @@
       <c r="NK9" s="11">
         <v>67.294604350674</v>
       </c>
-      <c r="NL9" s="14" t="s">
-        <v>57</v>
+      <c r="NL9" s="11">
+        <v>65.157929312787</v>
       </c>
       <c r="NM9" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN9" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="12">
         <v>48.814950253715</v>
@@ -7397,21 +7428,21 @@
         <v>109.175414237741</v>
       </c>
       <c r="NK10" s="12">
-        <v>112.730723127903</v>
-      </c>
-      <c r="NL10" s="15" t="s">
-        <v>57</v>
+        <v>112.775358950015</v>
+      </c>
+      <c r="NL10" s="12">
+        <v>112.260123340436</v>
       </c>
       <c r="NM10" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN10" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B11" s="11">
         <v>22.744141472693</v>
@@ -8535,19 +8566,19 @@
       <c r="NK11" s="11">
         <v>83.582529370284</v>
       </c>
-      <c r="NL11" s="14" t="s">
-        <v>57</v>
+      <c r="NL11" s="11">
+        <v>78.859822245982</v>
       </c>
       <c r="NM11" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN11" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" s="12">
         <v>38.665943249786</v>
@@ -9264,7 +9295,7 @@
         <v>94.454072418415</v>
       </c>
       <c r="IF12" s="12">
-        <v>99.178540318377</v>
+        <v>99.178540318378</v>
       </c>
       <c r="IG12" s="12">
         <v>102.111039283273</v>
@@ -9669,21 +9700,21 @@
         <v>116.214900495318</v>
       </c>
       <c r="NK12" s="12">
-        <v>114.905935621835</v>
-      </c>
-      <c r="NL12" s="15" t="s">
-        <v>57</v>
+        <v>114.917589870802</v>
+      </c>
+      <c r="NL12" s="12">
+        <v>107.070973939444</v>
       </c>
       <c r="NM12" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN12" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B13" s="11">
         <v>33.532463105934</v>
@@ -10700,7 +10731,7 @@
         <v>120.170524097602</v>
       </c>
       <c r="MB13" s="11">
-        <v>106.56598006226</v>
+        <v>106.565980062261</v>
       </c>
       <c r="MC13" s="11">
         <v>105.445535309405</v>
@@ -10805,21 +10836,21 @@
         <v>118.965115414461</v>
       </c>
       <c r="NK13" s="11">
-        <v>116.637612138299</v>
-      </c>
-      <c r="NL13" s="14" t="s">
-        <v>57</v>
+        <v>116.65266057981</v>
+      </c>
+      <c r="NL13" s="11">
+        <v>106.426999002216</v>
       </c>
       <c r="NM13" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN13" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B14" s="12">
         <v>56.292184219235</v>
@@ -11943,19 +11974,19 @@
       <c r="NK14" s="12">
         <v>108.960076924615</v>
       </c>
-      <c r="NL14" s="15" t="s">
-        <v>57</v>
+      <c r="NL14" s="12">
+        <v>109.282116693246</v>
       </c>
       <c r="NM14" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN14" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B15" s="11">
         <v>71.2627077305</v>
@@ -12045,7 +12076,7 @@
         <v>57.697090273928</v>
       </c>
       <c r="AE15" s="11">
-        <v>53.56079824741</v>
+        <v>53.560798247409</v>
       </c>
       <c r="AF15" s="11">
         <v>48.256726230452</v>
@@ -12219,7 +12250,7 @@
         <v>92.72050945542</v>
       </c>
       <c r="CK15" s="11">
-        <v>83.326771040509</v>
+        <v>83.32677104051</v>
       </c>
       <c r="CL15" s="11">
         <v>81.647351385911</v>
@@ -13077,21 +13108,21 @@
         <v>88.344361918937</v>
       </c>
       <c r="NK15" s="11">
-        <v>88.569349903617</v>
-      </c>
-      <c r="NL15" s="14" t="s">
-        <v>57</v>
+        <v>88.647350108201</v>
+      </c>
+      <c r="NL15" s="11">
+        <v>88.124517550329</v>
       </c>
       <c r="NM15" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN15" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" s="12">
         <v>84.037802362945</v>
@@ -13181,7 +13212,7 @@
         <v>60.865493313414</v>
       </c>
       <c r="AE16" s="12">
-        <v>57.334188121614</v>
+        <v>57.334188121613</v>
       </c>
       <c r="AF16" s="12">
         <v>51.286093761293</v>
@@ -14213,21 +14244,21 @@
         <v>94.375975853992</v>
       </c>
       <c r="NK16" s="12">
-        <v>91.374418868655</v>
-      </c>
-      <c r="NL16" s="15" t="s">
-        <v>57</v>
+        <v>91.552830968074</v>
+      </c>
+      <c r="NL16" s="12">
+        <v>94.51328229451</v>
       </c>
       <c r="NM16" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN16" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" s="11">
         <v>35.064527007042</v>
@@ -15349,21 +15380,21 @@
         <v>57.550294432511</v>
       </c>
       <c r="NK17" s="11">
-        <v>57.81523476859</v>
-      </c>
-      <c r="NL17" s="14" t="s">
-        <v>57</v>
+        <v>57.483328703453</v>
+      </c>
+      <c r="NL17" s="11">
+        <v>54.139799052537</v>
       </c>
       <c r="NM17" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN17" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" s="12">
         <v>73.87209194618</v>
@@ -15627,7 +15658,7 @@
         <v>95.814473447832</v>
       </c>
       <c r="CK18" s="12">
-        <v>81.874861209342</v>
+        <v>81.874861209343</v>
       </c>
       <c r="CL18" s="12">
         <v>83.739566915699</v>
@@ -16485,21 +16516,21 @@
         <v>119.717481951529</v>
       </c>
       <c r="NK18" s="12">
-        <v>139.304437141131</v>
-      </c>
-      <c r="NL18" s="15" t="s">
-        <v>57</v>
+        <v>139.678743677954</v>
+      </c>
+      <c r="NL18" s="12">
+        <v>124.36260273567</v>
       </c>
       <c r="NM18" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN18" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B19" s="11">
         <v>63.653052579688</v>
@@ -16991,7 +17022,7 @@
         <v>88.08607129683</v>
       </c>
       <c r="FI19" s="11">
-        <v>93.398713917479</v>
+        <v>93.398713917478</v>
       </c>
       <c r="FJ19" s="11">
         <v>93.187815335699</v>
@@ -17621,21 +17652,21 @@
         <v>110.180265287403</v>
       </c>
       <c r="NK19" s="11">
-        <v>114.747914646762</v>
-      </c>
-      <c r="NL19" s="14" t="s">
-        <v>57</v>
+        <v>114.769014514865</v>
+      </c>
+      <c r="NL19" s="11">
+        <v>113.510250791405</v>
       </c>
       <c r="NM19" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN19" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B20" s="12">
         <v>63.907698868213</v>
@@ -18757,21 +18788,21 @@
         <v>113.435153792179</v>
       </c>
       <c r="NK20" s="12">
-        <v>116.291313765209</v>
-      </c>
-      <c r="NL20" s="15" t="s">
-        <v>57</v>
+        <v>116.30121147643</v>
+      </c>
+      <c r="NL20" s="12">
+        <v>119.208981792658</v>
       </c>
       <c r="NM20" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN20" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B21" s="11">
         <v>56.569385260854</v>
@@ -19263,7 +19294,7 @@
         <v>88.618309960419</v>
       </c>
       <c r="FI21" s="11">
-        <v>91.177219510814</v>
+        <v>91.177219510813</v>
       </c>
       <c r="FJ21" s="11">
         <v>84.925126155367</v>
@@ -19338,7 +19369,7 @@
         <v>102.490849456636</v>
       </c>
       <c r="GH21" s="11">
-        <v>99.739880136267</v>
+        <v>99.739880136268</v>
       </c>
       <c r="GI21" s="11">
         <v>99.012777915149</v>
@@ -19356,7 +19387,7 @@
         <v>86.315226971464</v>
       </c>
       <c r="GN21" s="11">
-        <v>92.237840543019</v>
+        <v>92.23784054302</v>
       </c>
       <c r="GO21" s="11">
         <v>82.452288135979</v>
@@ -19893,21 +19924,21 @@
         <v>142.530991781255</v>
       </c>
       <c r="NK21" s="11">
-        <v>140.078282516749</v>
-      </c>
-      <c r="NL21" s="14" t="s">
-        <v>57</v>
+        <v>140.078314940356</v>
+      </c>
+      <c r="NL21" s="11">
+        <v>139.211444168484</v>
       </c>
       <c r="NM21" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN21" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B22" s="12">
         <v>114.319677175604</v>
@@ -20381,7 +20412,7 @@
         <v>112.309687825784</v>
       </c>
       <c r="FC22" s="12">
-        <v>118.57387384842</v>
+        <v>118.573873848419</v>
       </c>
       <c r="FD22" s="12">
         <v>118.368700843365</v>
@@ -21029,21 +21060,21 @@
         <v>103.745819854172</v>
       </c>
       <c r="NK22" s="12">
-        <v>99.731302133678</v>
-      </c>
-      <c r="NL22" s="15" t="s">
-        <v>57</v>
+        <v>99.734722620158</v>
+      </c>
+      <c r="NL22" s="12">
+        <v>102.597367646729</v>
       </c>
       <c r="NM22" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN22" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B23" s="11">
         <v>120.050850501477</v>
@@ -21457,7 +21488,7 @@
         <v>104.824379090234</v>
       </c>
       <c r="EI23" s="11">
-        <v>111.607712846855</v>
+        <v>111.607712846856</v>
       </c>
       <c r="EJ23" s="11">
         <v>108.848859226958</v>
@@ -21973,7 +22004,7 @@
         <v>113.951871537004</v>
       </c>
       <c r="KY23" s="11">
-        <v>125.047950465822</v>
+        <v>125.047950465823</v>
       </c>
       <c r="KZ23" s="11">
         <v>99.901166580686</v>
@@ -22165,21 +22196,21 @@
         <v>101.063380048064</v>
       </c>
       <c r="NK23" s="11">
-        <v>99.114282222006</v>
-      </c>
-      <c r="NL23" s="14" t="s">
-        <v>57</v>
+        <v>99.838213793457</v>
+      </c>
+      <c r="NL23" s="11">
+        <v>105.466718672137</v>
       </c>
       <c r="NM23" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN23" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B24" s="12">
         <v>90.688383871069</v>
@@ -22635,7 +22666,7 @@
         <v>110.445300865983</v>
       </c>
       <c r="EW24" s="12">
-        <v>101.851631967591</v>
+        <v>101.851631967592</v>
       </c>
       <c r="EX24" s="12">
         <v>113.94646410852</v>
@@ -23301,21 +23332,21 @@
         <v>88.87208167555</v>
       </c>
       <c r="NK24" s="12">
-        <v>97.059807022103</v>
-      </c>
-      <c r="NL24" s="15" t="s">
-        <v>57</v>
+        <v>97.059813820057</v>
+      </c>
+      <c r="NL24" s="12">
+        <v>100.167674566828</v>
       </c>
       <c r="NM24" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN24" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B25" s="11">
         <v>139.460849924193</v>
@@ -23366,13 +23397,13 @@
         <v>137.686493040596</v>
       </c>
       <c r="R25" s="11">
-        <v>142.097653799936</v>
+        <v>142.097653799937</v>
       </c>
       <c r="S25" s="11">
         <v>137.73392677423</v>
       </c>
       <c r="T25" s="11">
-        <v>144.853523451829</v>
+        <v>144.853523451828</v>
       </c>
       <c r="U25" s="11">
         <v>125.678147001672</v>
@@ -24233,7 +24264,7 @@
         <v>101.185584429967</v>
       </c>
       <c r="KU25" s="11">
-        <v>97.431196915513</v>
+        <v>97.431196915512</v>
       </c>
       <c r="KV25" s="11">
         <v>103.544417561503</v>
@@ -24437,21 +24468,21 @@
         <v>71.250958616238</v>
       </c>
       <c r="NK25" s="11">
-        <v>71.439988022751</v>
-      </c>
-      <c r="NL25" s="14" t="s">
-        <v>57</v>
+        <v>71.424121842809</v>
+      </c>
+      <c r="NL25" s="11">
+        <v>78.543739839163</v>
       </c>
       <c r="NM25" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN25" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B26" s="12">
         <v>130.395494603712</v>
@@ -25573,21 +25604,21 @@
         <v>101.67015527892</v>
       </c>
       <c r="NK26" s="12">
-        <v>99.83057255331</v>
-      </c>
-      <c r="NL26" s="15" t="s">
-        <v>57</v>
+        <v>98.930767750209</v>
+      </c>
+      <c r="NL26" s="12">
+        <v>110.815372180052</v>
       </c>
       <c r="NM26" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN26" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B27" s="11">
         <v>51.479382699588</v>
@@ -25653,7 +25684,7 @@
         <v>58.165535087493</v>
       </c>
       <c r="W27" s="11">
-        <v>56.147613112815</v>
+        <v>56.147613112816</v>
       </c>
       <c r="X27" s="11">
         <v>58.778310292597</v>
@@ -26004,7 +26035,7 @@
         <v>77.703083448154</v>
       </c>
       <c r="EJ27" s="11">
-        <v>74.984223290103</v>
+        <v>74.984223290102</v>
       </c>
       <c r="EK27" s="11">
         <v>82.372484333085</v>
@@ -26592,7 +26623,7 @@
         <v>115.339402976796</v>
       </c>
       <c r="LX27" s="11">
-        <v>127.190378352722</v>
+        <v>127.190378352721</v>
       </c>
       <c r="LY27" s="11">
         <v>119.539773934396</v>
@@ -26711,19 +26742,19 @@
       <c r="NK27" s="11">
         <v>129.776286712994</v>
       </c>
-      <c r="NL27" s="14" t="s">
-        <v>57</v>
+      <c r="NL27" s="11">
+        <v>127.414122035591</v>
       </c>
       <c r="NM27" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN27" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B28" s="12">
         <v>68.358361009475</v>
@@ -27305,7 +27336,7 @@
         <v>118.888965498878</v>
       </c>
       <c r="GM28" s="12">
-        <v>134.739864136565</v>
+        <v>134.739864136564</v>
       </c>
       <c r="GN28" s="12">
         <v>103.154806577138</v>
@@ -27845,21 +27876,21 @@
         <v>106.261306109774</v>
       </c>
       <c r="NK28" s="12">
-        <v>113.965636284617</v>
-      </c>
-      <c r="NL28" s="15" t="s">
-        <v>57</v>
+        <v>113.965682156438</v>
+      </c>
+      <c r="NL28" s="12">
+        <v>119.670711707607</v>
       </c>
       <c r="NM28" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN28" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B29" s="11">
         <v>76.901717312341</v>
@@ -28981,21 +29012,21 @@
         <v>53.375822798451</v>
       </c>
       <c r="NK29" s="11">
-        <v>53.424474523392</v>
-      </c>
-      <c r="NL29" s="14" t="s">
-        <v>57</v>
+        <v>53.64036323088</v>
+      </c>
+      <c r="NL29" s="11">
+        <v>53.169677782134</v>
       </c>
       <c r="NM29" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN29" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B30" s="12">
         <v>73.778714563351</v>
@@ -29760,7 +29791,7 @@
         <v>101.73593986546</v>
       </c>
       <c r="IV30" s="12">
-        <v>101.341725951746</v>
+        <v>101.341725951747</v>
       </c>
       <c r="IW30" s="12">
         <v>96.993727343274</v>
@@ -30117,21 +30148,21 @@
         <v>85.386092013603</v>
       </c>
       <c r="NK30" s="12">
-        <v>86.561556344595</v>
-      </c>
-      <c r="NL30" s="15" t="s">
-        <v>57</v>
+        <v>86.562688596933</v>
+      </c>
+      <c r="NL30" s="12">
+        <v>82.12857270875</v>
       </c>
       <c r="NM30" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN30" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B31" s="11">
         <v>73.811018646336</v>
@@ -30314,7 +30345,7 @@
         <v>92.530672204995</v>
       </c>
       <c r="BJ31" s="11">
-        <v>84.822315953758</v>
+        <v>84.822315953759</v>
       </c>
       <c r="BK31" s="11">
         <v>91.197770456276</v>
@@ -31253,21 +31284,21 @@
         <v>127.110685195742</v>
       </c>
       <c r="NK31" s="11">
-        <v>133.785381757261</v>
-      </c>
-      <c r="NL31" s="14" t="s">
-        <v>57</v>
+        <v>133.82585030679</v>
+      </c>
+      <c r="NL31" s="11">
+        <v>135.407453720763</v>
       </c>
       <c r="NM31" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN31" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B32" s="12">
         <v>86.120032958035</v>
@@ -32389,21 +32420,21 @@
         <v>114.121706361223</v>
       </c>
       <c r="NK32" s="12">
-        <v>118.095650866534</v>
-      </c>
-      <c r="NL32" s="15" t="s">
-        <v>57</v>
+        <v>118.09844284229</v>
+      </c>
+      <c r="NL32" s="12">
+        <v>118.685334208553</v>
       </c>
       <c r="NM32" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN32" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B33" s="11">
         <v>69.399412813085</v>
@@ -33527,19 +33558,19 @@
       <c r="NK33" s="11">
         <v>99.402812015299</v>
       </c>
-      <c r="NL33" s="14" t="s">
-        <v>57</v>
+      <c r="NL33" s="11">
+        <v>96.596258037636</v>
       </c>
       <c r="NM33" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN33" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B34" s="12">
         <v>72.622901666126</v>
@@ -34661,21 +34692,21 @@
         <v>115.785468247866</v>
       </c>
       <c r="NK34" s="12">
-        <v>118.729955729858</v>
-      </c>
-      <c r="NL34" s="15" t="s">
-        <v>57</v>
+        <v>118.820854554927</v>
+      </c>
+      <c r="NL34" s="12">
+        <v>117.408594181988</v>
       </c>
       <c r="NM34" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN34" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B35" s="11">
         <v>60.182989506094</v>
@@ -35797,21 +35828,21 @@
         <v>116.601827585141</v>
       </c>
       <c r="NK35" s="11">
-        <v>109.003728647341</v>
-      </c>
-      <c r="NL35" s="14" t="s">
-        <v>57</v>
+        <v>109.316057961486</v>
+      </c>
+      <c r="NL35" s="11">
+        <v>104.844976526412</v>
       </c>
       <c r="NM35" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN35" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B36" s="12">
         <v>61.132998870046</v>
@@ -36036,7 +36067,7 @@
         <v>118.488734688573</v>
       </c>
       <c r="BX36" s="12">
-        <v>124.579509103872</v>
+        <v>124.579509103871</v>
       </c>
       <c r="BY36" s="12">
         <v>136.677514437795</v>
@@ -36651,7 +36682,7 @@
         <v>113.032228437168</v>
       </c>
       <c r="JU36" s="12">
-        <v>118.718022111978</v>
+        <v>118.718022111977</v>
       </c>
       <c r="JV36" s="12">
         <v>113.734631582183</v>
@@ -36935,19 +36966,19 @@
       <c r="NK36" s="12">
         <v>145.816802673017</v>
       </c>
-      <c r="NL36" s="15" t="s">
-        <v>57</v>
+      <c r="NL36" s="12">
+        <v>135.234285761625</v>
       </c>
       <c r="NM36" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN36" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B37" s="11">
         <v>65.758484330262</v>
@@ -37565,7 +37596,7 @@
         <v>126.669142418175</v>
       </c>
       <c r="GY37" s="11">
-        <v>116.438582196899</v>
+        <v>116.4385821969</v>
       </c>
       <c r="GZ37" s="11">
         <v>107.087662160725</v>
@@ -38071,19 +38102,19 @@
       <c r="NK37" s="11">
         <v>133.639382156001</v>
       </c>
-      <c r="NL37" s="14" t="s">
-        <v>57</v>
+      <c r="NL37" s="11">
+        <v>129.719466663811</v>
       </c>
       <c r="NM37" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN37" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B38" s="12">
         <v>33.546378018984</v>
@@ -39207,19 +39238,19 @@
       <c r="NK38" s="12">
         <v>122.597103953196</v>
       </c>
-      <c r="NL38" s="15" t="s">
-        <v>57</v>
+      <c r="NL38" s="12">
+        <v>119.241076503868</v>
       </c>
       <c r="NM38" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN38" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B39" s="11">
         <v>113.328554079414</v>
@@ -39918,7 +39949,7 @@
         <v>105.158556575497</v>
       </c>
       <c r="HZ39" s="11">
-        <v>122.055964048795</v>
+        <v>122.055964048796</v>
       </c>
       <c r="IA39" s="11">
         <v>100.885142137503</v>
@@ -40343,19 +40374,19 @@
       <c r="NK39" s="11">
         <v>119.562597497675</v>
       </c>
-      <c r="NL39" s="14" t="s">
-        <v>57</v>
+      <c r="NL39" s="11">
+        <v>120.251947793282</v>
       </c>
       <c r="NM39" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN39" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B40" s="12">
         <v>42.404526159595</v>
@@ -40655,7 +40686,7 @@
         <v>79.967287253687</v>
       </c>
       <c r="CW40" s="12">
-        <v>80.898722674697</v>
+        <v>80.898722674698</v>
       </c>
       <c r="CX40" s="12">
         <v>102.283971825068</v>
@@ -40928,7 +40959,7 @@
         <v>93.917082181673</v>
       </c>
       <c r="GJ40" s="12">
-        <v>92.120299622534</v>
+        <v>92.120299622533</v>
       </c>
       <c r="GK40" s="12">
         <v>98.809418628891</v>
@@ -40964,7 +40995,7 @@
         <v>106.14284190463</v>
       </c>
       <c r="GV40" s="12">
-        <v>94.87071067124</v>
+        <v>94.870710671239</v>
       </c>
       <c r="GW40" s="12">
         <v>97.148577143104</v>
@@ -41479,29 +41510,29 @@
       <c r="NK40" s="12">
         <v>137.705405671334</v>
       </c>
-      <c r="NL40" s="15" t="s">
-        <v>57</v>
+      <c r="NL40" s="12">
+        <v>140.445786358085</v>
       </c>
       <c r="NM40" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN40" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47">
@@ -41541,7 +41572,7 @@
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <headerFooter/>
-  <legacyDrawing r:id="R3db08bc4aab64b5e"/>
+  <legacyDrawing r:id="R0acf2fd0862648e2"/>
 </worksheet>
 </file>
 
@@ -41558,106 +41589,106 @@
   <sheetData>
     <row r="2">
       <c r="B2" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/actind.xlsx
+++ b/DATA/actind.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Tabulado" sheetId="1" r:id="R0304b47488204486"/>
-    <sheet name="MetaInfo" sheetId="2" r:id="R3fc10fe10a7c40dd"/>
+    <sheet name="Tabulado" sheetId="1" r:id="R998e0216d5a1424d"/>
+    <sheet name="MetaInfo" sheetId="2" r:id="R34e3d8be3951477c"/>
   </sheets>
 </workbook>
 </file>
@@ -46,7 +46,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">P. Cifras preliminares</t>
+          <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
@@ -57,7 +57,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">P. Cifras preliminares</t>
+          <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
@@ -68,7 +68,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">P. Cifras preliminares</t>
+          <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
@@ -79,7 +79,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">P. Cifras preliminares</t>
+          <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
@@ -90,7 +90,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">P. Cifras preliminares</t>
+          <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
@@ -101,7 +101,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">P. Cifras preliminares</t>
+          <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
@@ -112,7 +112,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">P. Cifras preliminares</t>
+          <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
@@ -123,7 +123,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">P. Cifras preliminares</t>
+          <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
@@ -134,7 +134,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">P. Cifras preliminares</t>
+          <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
@@ -156,6 +156,17 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
+          <t xml:space="preserve">R. Cifras revisadas</t>
+        </d:r>
+      </text>
+    </comment>
+    <comment ref="NM6" authorId="0">
+      <text>
+        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
@@ -165,12 +176,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>Instituto Nacional de Estadística y Geografía (INEGI).</t>
   </si>
   <si>
-    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Actividad Industrial. Año Base 2013. Serie de enero de 1993 a noviembre de 2021</t>
+    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Actividad Industrial. Año Base 2013. Serie de enero de 1993 a diciembre de 2021</t>
   </si>
   <si>
     <t>Índice de volumen físico base 2013=100</t>
@@ -355,7 +366,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">P</d:t>
+      <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
   <si>
@@ -375,7 +386,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">P</d:t>
+      <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
   <si>
@@ -395,7 +406,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">P</d:t>
+      <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
   <si>
@@ -415,7 +426,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">P</d:t>
+      <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
   <si>
@@ -435,7 +446,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">P</d:t>
+      <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
   <si>
@@ -455,7 +466,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">P</d:t>
+      <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
   <si>
@@ -475,7 +486,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">P</d:t>
+      <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
   <si>
@@ -495,7 +506,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">P</d:t>
+      <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
   <si>
@@ -515,7 +526,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">P</d:t>
+      <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
   <si>
@@ -555,14 +566,31 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
+      <d:t xml:space="preserve">R</d:t>
+    </d:r>
+  </si>
+  <si>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="10"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t> Diciembre</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:vertAlign val="superscript"/>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
       <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
     <t xml:space="preserve">     Total</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t xml:space="preserve">     21 - Minería</t>
@@ -702,6 +730,9 @@
     </d:r>
   </si>
   <si>
+    <t>Nota: Con base en los ´´Lineamientos de cambios a la información divulgada en las publicaciones estadísticas y geográficas del INEGI´´ y que se complementan con las ´´Normas Especiales para la Divulgación de Datos´´ del FMI, al disponer de la última información estadística del año 2021 de la Estadística de la Industria Minerometalúrgica (EIMM), la Encuesta Nacional de Empresas Constructoras (ENEC), la Encuesta Mensual de la Industria Manufacturera (EMIM), los registros administrativos y los datos primarios, se debe realizar la actualización de este indicador. Como resultado de incorporar dicha información, se identifican diferencias en los niveles de los índices y variaciones que fueron oportunamente publicadas.</t>
+  </si>
+  <si>
     <t>Fuente: INEGI. Sistema de Cuentas Nacionales de México. Indicador Mensual de la Actividad Industrial</t>
   </si>
   <si>
@@ -768,19 +799,19 @@
     <t>COBERTURA TEMPORAL</t>
   </si>
   <si>
-    <t>1993-01-2021-11</t>
+    <t>1993-01-2021-12</t>
   </si>
   <si>
     <t>DESCRIPCIÓN PERIODO</t>
   </si>
   <si>
-    <t>Serie de enero de 1993 a noviembre de 2021</t>
+    <t>Serie de enero de 1993 a diciembre de 2021</t>
   </si>
   <si>
     <t>FECHA DE ACTUALIZACIÓN</t>
   </si>
   <si>
-    <t>2022-01-11</t>
+    <t>2022-02-11</t>
   </si>
 </sst>
 </file>
@@ -873,7 +904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" xfId="0"/>
     <xf numFmtId="0" fontId="2" xfId="0"/>
@@ -904,12 +935,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="1" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -921,7 +946,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:NN47"/>
+  <dimension ref="A1:NN48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2890,7 +2915,7 @@
         <v>56</v>
       </c>
       <c r="NM6" s="10" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="NN6" s="10" t="s">
         <v>45</v>
@@ -2898,7 +2923,7 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" s="11">
         <v>69.222752741001</v>
@@ -3993,43 +4018,43 @@
         <v>92.314069745558</v>
       </c>
       <c r="NB7" s="11">
-        <v>97.562994890774</v>
+        <v>97.570629338372</v>
       </c>
       <c r="NC7" s="11">
-        <v>94.780799689107</v>
+        <v>94.778212093029</v>
       </c>
       <c r="ND7" s="11">
-        <v>101.100748603584</v>
+        <v>101.100163029439</v>
       </c>
       <c r="NE7" s="11">
-        <v>97.445657768326</v>
+        <v>97.44520760454</v>
       </c>
       <c r="NF7" s="11">
-        <v>98.905066136658</v>
+        <v>98.90700830422</v>
       </c>
       <c r="NG7" s="11">
-        <v>98.0148002304</v>
+        <v>98.026184492966</v>
       </c>
       <c r="NH7" s="11">
-        <v>98.767687693539</v>
+        <v>98.77368031452</v>
       </c>
       <c r="NI7" s="11">
-        <v>101.015820604615</v>
+        <v>101.017156057817</v>
       </c>
       <c r="NJ7" s="11">
-        <v>97.256713759932</v>
+        <v>97.237515984033</v>
       </c>
       <c r="NK7" s="11">
-        <v>99.88151059525</v>
+        <v>99.878255030464</v>
       </c>
       <c r="NL7" s="11">
-        <v>98.295940567267</v>
-      </c>
-      <c r="NM7" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN7" s="14" t="s">
-        <v>58</v>
+        <v>98.302177209947</v>
+      </c>
+      <c r="NM7" s="11">
+        <v>97.287314173424</v>
+      </c>
+      <c r="NN7" s="11">
+        <v>98.360291969398</v>
       </c>
     </row>
     <row r="8">
@@ -5159,13 +5184,13 @@
         <v>75.234308051145</v>
       </c>
       <c r="NL8" s="12">
-        <v>73.127870989759</v>
-      </c>
-      <c r="NM8" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN8" s="15" t="s">
-        <v>58</v>
+        <v>73.022099059641</v>
+      </c>
+      <c r="NM8" s="12">
+        <v>73.316342978857</v>
+      </c>
+      <c r="NN8" s="12">
+        <v>75.00394537611</v>
       </c>
     </row>
     <row r="9">
@@ -6295,13 +6320,13 @@
         <v>67.294604350674</v>
       </c>
       <c r="NL9" s="11">
-        <v>65.157929312787</v>
-      </c>
-      <c r="NM9" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN9" s="14" t="s">
-        <v>58</v>
+        <v>65.157928817392</v>
+      </c>
+      <c r="NM9" s="11">
+        <v>67.203242946451</v>
+      </c>
+      <c r="NN9" s="11">
+        <v>66.905204330621</v>
       </c>
     </row>
     <row r="10">
@@ -7431,13 +7456,13 @@
         <v>112.775358950015</v>
       </c>
       <c r="NL10" s="12">
-        <v>112.260123340436</v>
-      </c>
-      <c r="NM10" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN10" s="15" t="s">
-        <v>58</v>
+        <v>111.567894950713</v>
+      </c>
+      <c r="NM10" s="12">
+        <v>111.97436528507</v>
+      </c>
+      <c r="NN10" s="12">
+        <v>109.555998924433</v>
       </c>
     </row>
     <row r="11">
@@ -8567,13 +8592,13 @@
         <v>83.582529370284</v>
       </c>
       <c r="NL11" s="11">
-        <v>78.859822245982</v>
-      </c>
-      <c r="NM11" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN11" s="14" t="s">
-        <v>58</v>
+        <v>78.80070940276</v>
+      </c>
+      <c r="NM11" s="11">
+        <v>61.909583175924</v>
+      </c>
+      <c r="NN11" s="11">
+        <v>90.359692832628</v>
       </c>
     </row>
     <row r="12">
@@ -9673,43 +9698,43 @@
         <v>110.364535122954</v>
       </c>
       <c r="NB12" s="12">
-        <v>101.498386099925</v>
+        <v>101.471311616974</v>
       </c>
       <c r="NC12" s="12">
-        <v>97.174583101048</v>
+        <v>97.107910418833</v>
       </c>
       <c r="ND12" s="12">
-        <v>104.447588767448</v>
+        <v>104.378084191179</v>
       </c>
       <c r="NE12" s="12">
-        <v>106.167884426617</v>
+        <v>106.095460892822</v>
       </c>
       <c r="NF12" s="12">
-        <v>112.470023716299</v>
+        <v>112.400308954929</v>
       </c>
       <c r="NG12" s="12">
-        <v>115.6782665504</v>
+        <v>115.725050357302</v>
       </c>
       <c r="NH12" s="12">
-        <v>119.835519669937</v>
+        <v>119.832794365101</v>
       </c>
       <c r="NI12" s="12">
-        <v>118.633565821361</v>
+        <v>118.692910117206</v>
       </c>
       <c r="NJ12" s="12">
-        <v>116.214900495318</v>
+        <v>115.813734518161</v>
       </c>
       <c r="NK12" s="12">
-        <v>114.917589870802</v>
+        <v>114.846512125608</v>
       </c>
       <c r="NL12" s="12">
-        <v>107.070973939444</v>
-      </c>
-      <c r="NM12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN12" s="15" t="s">
-        <v>58</v>
+        <v>107.332601549132</v>
+      </c>
+      <c r="NM12" s="12">
+        <v>103.781579788287</v>
+      </c>
+      <c r="NN12" s="12">
+        <v>109.789854907961</v>
       </c>
     </row>
     <row r="13">
@@ -10809,43 +10834,43 @@
         <v>111.763885453729</v>
       </c>
       <c r="NB13" s="11">
-        <v>100.239085867051</v>
+        <v>100.204126190605</v>
       </c>
       <c r="NC13" s="11">
-        <v>94.95395390072</v>
+        <v>94.867863414625</v>
       </c>
       <c r="ND13" s="11">
-        <v>103.705003149892</v>
+        <v>103.615256006714</v>
       </c>
       <c r="NE13" s="11">
-        <v>105.648761776918</v>
+        <v>105.555245556751</v>
       </c>
       <c r="NF13" s="11">
-        <v>113.435717869074</v>
+        <v>113.345699326323</v>
       </c>
       <c r="NG13" s="11">
-        <v>117.468232871849</v>
+        <v>117.5286420311</v>
       </c>
       <c r="NH13" s="11">
-        <v>123.420781327444</v>
+        <v>123.417262302706</v>
       </c>
       <c r="NI13" s="11">
-        <v>121.390521537592</v>
+        <v>121.477328028034</v>
       </c>
       <c r="NJ13" s="11">
-        <v>118.965115414461</v>
+        <v>118.456849895665</v>
       </c>
       <c r="NK13" s="11">
-        <v>116.65266057981</v>
+        <v>116.576084978831</v>
       </c>
       <c r="NL13" s="11">
-        <v>106.426999002216</v>
-      </c>
-      <c r="NM13" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN13" s="14" t="s">
-        <v>58</v>
+        <v>106.764827628391</v>
+      </c>
+      <c r="NM13" s="11">
+        <v>102.162185399434</v>
+      </c>
+      <c r="NN13" s="11">
+        <v>110.330947563265</v>
       </c>
     </row>
     <row r="14">
@@ -11966,22 +11991,22 @@
         <v>107.525218637716</v>
       </c>
       <c r="NI14" s="12">
-        <v>109.167323733217</v>
+        <v>109.132374246687</v>
       </c>
       <c r="NJ14" s="12">
-        <v>106.771803507665</v>
+        <v>106.73837292166</v>
       </c>
       <c r="NK14" s="12">
-        <v>108.960076924615</v>
+        <v>108.907876535162</v>
       </c>
       <c r="NL14" s="12">
-        <v>109.282116693246</v>
-      </c>
-      <c r="NM14" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN14" s="15" t="s">
-        <v>58</v>
+        <v>109.282101627581</v>
+      </c>
+      <c r="NM14" s="12">
+        <v>109.341908244351</v>
+      </c>
+      <c r="NN14" s="12">
+        <v>107.931967225158</v>
       </c>
     </row>
     <row r="15">
@@ -13111,13 +13136,13 @@
         <v>88.647350108201</v>
       </c>
       <c r="NL15" s="11">
-        <v>88.124517550329</v>
-      </c>
-      <c r="NM15" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN15" s="14" t="s">
-        <v>58</v>
+        <v>88.163644196024</v>
+      </c>
+      <c r="NM15" s="11">
+        <v>90.222564867321</v>
+      </c>
+      <c r="NN15" s="11">
+        <v>89.333990316403</v>
       </c>
     </row>
     <row r="16">
@@ -14247,13 +14272,13 @@
         <v>91.552830968074</v>
       </c>
       <c r="NL16" s="12">
-        <v>94.51328229451</v>
-      </c>
-      <c r="NM16" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN16" s="15" t="s">
-        <v>58</v>
+        <v>94.586758966988</v>
+      </c>
+      <c r="NM16" s="12">
+        <v>96.892400886417</v>
+      </c>
+      <c r="NN16" s="12">
+        <v>96.367076543755</v>
       </c>
     </row>
     <row r="17">
@@ -15383,13 +15408,13 @@
         <v>57.483328703453</v>
       </c>
       <c r="NL17" s="11">
-        <v>54.139799052537</v>
-      </c>
-      <c r="NM17" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN17" s="14" t="s">
-        <v>58</v>
+        <v>54.046055494012</v>
+      </c>
+      <c r="NM17" s="11">
+        <v>54.144918832817</v>
+      </c>
+      <c r="NN17" s="11">
+        <v>50.72547235445</v>
       </c>
     </row>
     <row r="18">
@@ -16519,13 +16544,13 @@
         <v>139.678743677954</v>
       </c>
       <c r="NL18" s="12">
-        <v>124.36260273567</v>
-      </c>
-      <c r="NM18" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN18" s="15" t="s">
-        <v>58</v>
+        <v>124.486915433364</v>
+      </c>
+      <c r="NM18" s="12">
+        <v>129.369765051293</v>
+      </c>
+      <c r="NN18" s="12">
+        <v>131.858191787016</v>
       </c>
     </row>
     <row r="19">
@@ -17625,43 +17650,43 @@
         <v>103.131215906973</v>
       </c>
       <c r="NB19" s="11">
-        <v>109.272329886826</v>
+        <v>109.29025566054</v>
       </c>
       <c r="NC19" s="11">
-        <v>104.692519922991</v>
+        <v>104.69362718159</v>
       </c>
       <c r="ND19" s="11">
-        <v>117.684285104626</v>
+        <v>117.689688953225</v>
       </c>
       <c r="NE19" s="11">
-        <v>111.052498082863</v>
+        <v>111.058450827043</v>
       </c>
       <c r="NF19" s="11">
-        <v>111.803099477019</v>
+        <v>111.813609475718</v>
       </c>
       <c r="NG19" s="11">
-        <v>112.938886520079</v>
+        <v>112.95736313575</v>
       </c>
       <c r="NH19" s="11">
-        <v>113.029420905039</v>
+        <v>113.041737163749</v>
       </c>
       <c r="NI19" s="11">
-        <v>113.950553961529</v>
+        <v>113.947621181274</v>
       </c>
       <c r="NJ19" s="11">
-        <v>110.180265287403</v>
+        <v>110.179626750962</v>
       </c>
       <c r="NK19" s="11">
-        <v>114.769014514865</v>
+        <v>114.769194869011</v>
       </c>
       <c r="NL19" s="11">
-        <v>113.510250791405</v>
-      </c>
-      <c r="NM19" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN19" s="14" t="s">
-        <v>58</v>
+        <v>113.526990961694</v>
+      </c>
+      <c r="NM19" s="11">
+        <v>110.722170439443</v>
+      </c>
+      <c r="NN19" s="11">
+        <v>111.974194716667</v>
       </c>
     </row>
     <row r="20">
@@ -18791,13 +18816,13 @@
         <v>116.30121147643</v>
       </c>
       <c r="NL20" s="12">
-        <v>119.208981792658</v>
-      </c>
-      <c r="NM20" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN20" s="15" t="s">
-        <v>58</v>
+        <v>119.229025282595</v>
+      </c>
+      <c r="NM20" s="12">
+        <v>121.859395523105</v>
+      </c>
+      <c r="NN20" s="12">
+        <v>116.711335519014</v>
       </c>
     </row>
     <row r="21">
@@ -19927,13 +19952,13 @@
         <v>140.078314940356</v>
       </c>
       <c r="NL21" s="11">
-        <v>139.211444168484</v>
-      </c>
-      <c r="NM21" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN21" s="14" t="s">
-        <v>58</v>
+        <v>139.211456069751</v>
+      </c>
+      <c r="NM21" s="11">
+        <v>127.831674515313</v>
+      </c>
+      <c r="NN21" s="11">
+        <v>130.733662209406</v>
       </c>
     </row>
     <row r="22">
@@ -21063,13 +21088,13 @@
         <v>99.734722620158</v>
       </c>
       <c r="NL22" s="12">
-        <v>102.597367646729</v>
-      </c>
-      <c r="NM22" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN22" s="15" t="s">
-        <v>58</v>
+        <v>102.597326900966</v>
+      </c>
+      <c r="NM22" s="12">
+        <v>83.993432803133</v>
+      </c>
+      <c r="NN22" s="12">
+        <v>93.049216192096</v>
       </c>
     </row>
     <row r="23">
@@ -22199,13 +22224,13 @@
         <v>99.838213793457</v>
       </c>
       <c r="NL23" s="11">
-        <v>105.466718672137</v>
-      </c>
-      <c r="NM23" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN23" s="14" t="s">
-        <v>58</v>
+        <v>105.38198486335</v>
+      </c>
+      <c r="NM23" s="11">
+        <v>103.434684089356</v>
+      </c>
+      <c r="NN23" s="11">
+        <v>103.50467527103</v>
       </c>
     </row>
     <row r="24">
@@ -23335,13 +23360,13 @@
         <v>97.059813820057</v>
       </c>
       <c r="NL24" s="12">
-        <v>100.167674566828</v>
-      </c>
-      <c r="NM24" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN24" s="15" t="s">
-        <v>58</v>
+        <v>100.167681894111</v>
+      </c>
+      <c r="NM24" s="12">
+        <v>87.610907160053</v>
+      </c>
+      <c r="NN24" s="12">
+        <v>84.706357572919</v>
       </c>
     </row>
     <row r="25">
@@ -23922,7 +23947,7 @@
         <v>112.375365607901</v>
       </c>
       <c r="GK25" s="11">
-        <v>120.895647721209</v>
+        <v>120.89564772121</v>
       </c>
       <c r="GL25" s="11">
         <v>112.39431333502</v>
@@ -24471,13 +24496,13 @@
         <v>71.424121842809</v>
       </c>
       <c r="NL25" s="11">
-        <v>78.543739839163</v>
-      </c>
-      <c r="NM25" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN25" s="14" t="s">
-        <v>58</v>
+        <v>78.543694090833</v>
+      </c>
+      <c r="NM25" s="11">
+        <v>69.098023796095</v>
+      </c>
+      <c r="NN25" s="11">
+        <v>73.051931508819</v>
       </c>
     </row>
     <row r="26">
@@ -25607,13 +25632,13 @@
         <v>98.930767750209</v>
       </c>
       <c r="NL26" s="12">
-        <v>110.815372180052</v>
-      </c>
-      <c r="NM26" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN26" s="15" t="s">
-        <v>58</v>
+        <v>109.071299134647</v>
+      </c>
+      <c r="NM26" s="12">
+        <v>109.545723265428</v>
+      </c>
+      <c r="NN26" s="12">
+        <v>103.873265487534</v>
       </c>
     </row>
     <row r="27">
@@ -26743,13 +26768,13 @@
         <v>129.776286712994</v>
       </c>
       <c r="NL27" s="11">
-        <v>127.414122035591</v>
-      </c>
-      <c r="NM27" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN27" s="14" t="s">
-        <v>58</v>
+        <v>127.419983299051</v>
+      </c>
+      <c r="NM27" s="11">
+        <v>121.182721746685</v>
+      </c>
+      <c r="NN27" s="11">
+        <v>124.432718623368</v>
       </c>
     </row>
     <row r="28">
@@ -27879,13 +27904,13 @@
         <v>113.965682156438</v>
       </c>
       <c r="NL28" s="12">
-        <v>119.670711707607</v>
-      </c>
-      <c r="NM28" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN28" s="15" t="s">
-        <v>58</v>
+        <v>119.670711562139</v>
+      </c>
+      <c r="NM28" s="12">
+        <v>118.947035349904</v>
+      </c>
+      <c r="NN28" s="12">
+        <v>105.91524888439</v>
       </c>
     </row>
     <row r="29">
@@ -28985,43 +29010,43 @@
         <v>42.579735123098</v>
       </c>
       <c r="NB29" s="11">
-        <v>50.10668875598</v>
+        <v>50.693240312954</v>
       </c>
       <c r="NC29" s="11">
-        <v>47.10885795351</v>
+        <v>47.142387596038</v>
       </c>
       <c r="ND29" s="11">
-        <v>59.688915178447</v>
+        <v>59.863376946998</v>
       </c>
       <c r="NE29" s="11">
-        <v>44.923569940981</v>
+        <v>45.113609670227</v>
       </c>
       <c r="NF29" s="11">
-        <v>50.059120188244</v>
+        <v>50.401356154567</v>
       </c>
       <c r="NG29" s="11">
-        <v>44.569411146544</v>
+        <v>45.177940312696</v>
       </c>
       <c r="NH29" s="11">
-        <v>48.036283677665</v>
+        <v>48.442727556149</v>
       </c>
       <c r="NI29" s="11">
-        <v>50.513597558777</v>
+        <v>50.416664619644</v>
       </c>
       <c r="NJ29" s="11">
-        <v>53.375822798451</v>
+        <v>53.354718178065</v>
       </c>
       <c r="NK29" s="11">
-        <v>53.64036323088</v>
+        <v>53.646324215325</v>
       </c>
       <c r="NL29" s="11">
-        <v>53.169677782134</v>
-      </c>
-      <c r="NM29" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN29" s="14" t="s">
-        <v>58</v>
+        <v>53.187451557308</v>
+      </c>
+      <c r="NM29" s="11">
+        <v>53.838416206949</v>
+      </c>
+      <c r="NN29" s="11">
+        <v>50.939851110577</v>
       </c>
     </row>
     <row r="30">
@@ -30151,13 +30176,13 @@
         <v>86.562688596933</v>
       </c>
       <c r="NL30" s="12">
-        <v>82.12857270875</v>
-      </c>
-      <c r="NM30" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN30" s="15" t="s">
-        <v>58</v>
+        <v>82.232821379848</v>
+      </c>
+      <c r="NM30" s="12">
+        <v>86.167076181626</v>
+      </c>
+      <c r="NN30" s="12">
+        <v>82.833688193208</v>
       </c>
     </row>
     <row r="31">
@@ -31287,13 +31312,13 @@
         <v>133.82585030679</v>
       </c>
       <c r="NL31" s="11">
-        <v>135.407453720763</v>
-      </c>
-      <c r="NM31" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN31" s="14" t="s">
-        <v>58</v>
+        <v>135.56097496371</v>
+      </c>
+      <c r="NM31" s="11">
+        <v>123.014053659373</v>
+      </c>
+      <c r="NN31" s="11">
+        <v>128.851254084002</v>
       </c>
     </row>
     <row r="32">
@@ -32393,25 +32418,25 @@
         <v>103.687471685367</v>
       </c>
       <c r="NB32" s="12">
-        <v>111.700904600929</v>
+        <v>111.70788455634</v>
       </c>
       <c r="NC32" s="12">
-        <v>107.392621656363</v>
+        <v>107.396235876208</v>
       </c>
       <c r="ND32" s="12">
-        <v>119.660311594753</v>
+        <v>119.665194799864</v>
       </c>
       <c r="NE32" s="12">
-        <v>113.194986398269</v>
+        <v>113.202890974552</v>
       </c>
       <c r="NF32" s="12">
-        <v>113.532860435186</v>
+        <v>113.538912630846</v>
       </c>
       <c r="NG32" s="12">
-        <v>114.023599034047</v>
+        <v>114.026134617071</v>
       </c>
       <c r="NH32" s="12">
-        <v>116.377842020849</v>
+        <v>116.378581589479</v>
       </c>
       <c r="NI32" s="12">
         <v>117.777439448487</v>
@@ -32423,13 +32448,13 @@
         <v>118.09844284229</v>
       </c>
       <c r="NL32" s="12">
-        <v>118.685334208553</v>
-      </c>
-      <c r="NM32" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN32" s="15" t="s">
-        <v>58</v>
+        <v>118.703035030674</v>
+      </c>
+      <c r="NM32" s="12">
+        <v>116.586005753692</v>
+      </c>
+      <c r="NN32" s="12">
+        <v>115.100205373394</v>
       </c>
     </row>
     <row r="33">
@@ -33559,13 +33584,13 @@
         <v>99.402812015299</v>
       </c>
       <c r="NL33" s="11">
-        <v>96.596258037636</v>
-      </c>
-      <c r="NM33" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN33" s="14" t="s">
-        <v>58</v>
+        <v>96.715340049562</v>
+      </c>
+      <c r="NM33" s="11">
+        <v>100.873304867358</v>
+      </c>
+      <c r="NN33" s="11">
+        <v>99.011274413645</v>
       </c>
     </row>
     <row r="34">
@@ -34695,13 +34720,13 @@
         <v>118.820854554927</v>
       </c>
       <c r="NL34" s="12">
-        <v>117.408594181988</v>
-      </c>
-      <c r="NM34" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN34" s="15" t="s">
-        <v>58</v>
+        <v>117.408480571646</v>
+      </c>
+      <c r="NM34" s="12">
+        <v>112.068116625152</v>
+      </c>
+      <c r="NN34" s="12">
+        <v>115.948519035347</v>
       </c>
     </row>
     <row r="35">
@@ -35831,13 +35856,13 @@
         <v>109.316057961486</v>
       </c>
       <c r="NL35" s="11">
-        <v>104.844976526412</v>
-      </c>
-      <c r="NM35" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN35" s="14" t="s">
-        <v>58</v>
+        <v>104.844923800582</v>
+      </c>
+      <c r="NM35" s="11">
+        <v>97.040561191344</v>
+      </c>
+      <c r="NN35" s="11">
+        <v>106.484330061962</v>
       </c>
     </row>
     <row r="36">
@@ -36967,13 +36992,13 @@
         <v>145.816802673017</v>
       </c>
       <c r="NL36" s="12">
-        <v>135.234285761625</v>
-      </c>
-      <c r="NM36" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN36" s="15" t="s">
-        <v>58</v>
+        <v>135.234281200939</v>
+      </c>
+      <c r="NM36" s="12">
+        <v>125.168338220308</v>
+      </c>
+      <c r="NN36" s="12">
+        <v>139.792270462463</v>
       </c>
     </row>
     <row r="37">
@@ -38103,13 +38128,13 @@
         <v>133.639382156001</v>
       </c>
       <c r="NL37" s="11">
-        <v>129.719466663811</v>
-      </c>
-      <c r="NM37" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN37" s="14" t="s">
-        <v>58</v>
+        <v>129.724317186939</v>
+      </c>
+      <c r="NM37" s="11">
+        <v>123.042829223284</v>
+      </c>
+      <c r="NN37" s="11">
+        <v>134.110133006978</v>
       </c>
     </row>
     <row r="38">
@@ -39239,13 +39264,13 @@
         <v>122.597103953196</v>
       </c>
       <c r="NL38" s="12">
-        <v>119.241076503868</v>
-      </c>
-      <c r="NM38" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN38" s="15" t="s">
-        <v>58</v>
+        <v>119.267128424823</v>
+      </c>
+      <c r="NM38" s="12">
+        <v>113.562292999182</v>
+      </c>
+      <c r="NN38" s="12">
+        <v>121.324617239538</v>
       </c>
     </row>
     <row r="39">
@@ -40375,13 +40400,13 @@
         <v>119.562597497675</v>
       </c>
       <c r="NL39" s="11">
-        <v>120.251947793282</v>
-      </c>
-      <c r="NM39" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN39" s="14" t="s">
-        <v>58</v>
+        <v>120.250137148114</v>
+      </c>
+      <c r="NM39" s="11">
+        <v>127.787067791933</v>
+      </c>
+      <c r="NN39" s="11">
+        <v>100.142285383149</v>
       </c>
     </row>
     <row r="40">
@@ -41511,13 +41536,13 @@
         <v>137.705405671334</v>
       </c>
       <c r="NL40" s="12">
-        <v>140.445786358085</v>
-      </c>
-      <c r="NM40" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN40" s="15" t="s">
-        <v>58</v>
+        <v>140.445764234752</v>
+      </c>
+      <c r="NM40" s="12">
+        <v>130.699740250033</v>
+      </c>
+      <c r="NN40" s="12">
+        <v>127.818629475027</v>
       </c>
     </row>
     <row r="44">
@@ -41536,7 +41561,12 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3"/>
+      <c r="A47" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -41572,7 +41602,7 @@
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <headerFooter/>
-  <legacyDrawing r:id="R0acf2fd0862648e2"/>
+  <legacyDrawing r:id="Ra0e65d1bd6164946"/>
 </worksheet>
 </file>
 
@@ -41588,107 +41618,107 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="16" t="s">
-        <v>95</v>
+      <c r="B2" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="16" t="s">
-        <v>97</v>
+      <c r="B3" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="16" t="s">
-        <v>99</v>
+      <c r="B4" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="16" t="s">
-        <v>101</v>
+      <c r="B5" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="16" t="s">
-        <v>103</v>
+      <c r="B6" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="16" t="s">
-        <v>105</v>
+      <c r="B7" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="16" t="s">
-        <v>107</v>
+      <c r="B8" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="16" t="s">
-        <v>109</v>
+      <c r="B9" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="16" t="s">
-        <v>111</v>
+      <c r="B10" s="14" t="s">
+        <v>112</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="16" t="s">
-        <v>113</v>
+      <c r="B11" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="16" t="s">
-        <v>115</v>
+      <c r="B12" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="16" t="s">
-        <v>117</v>
+      <c r="B13" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="16" t="s">
-        <v>119</v>
+      <c r="B14" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/actind.xlsx
+++ b/DATA/actind.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Tabulado" sheetId="1" r:id="R998e0216d5a1424d"/>
-    <sheet name="MetaInfo" sheetId="2" r:id="R34e3d8be3951477c"/>
+    <sheet name="Tabulado" sheetId="1" r:id="R935f1196fdab4a6c"/>
+    <sheet name="MetaInfo" sheetId="2" r:id="R3c7e4a54c2fa4ccf"/>
   </sheets>
 </workbook>
 </file>
@@ -39,128 +39,18 @@
         </d:r>
       </text>
     </comment>
-    <comment ref="NB6" authorId="0">
+    <comment ref="NB5" authorId="0">
       <text>
         <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
+          <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
     </comment>
-    <comment ref="NC6" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="ND6" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="NE6" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="NF6" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="NG6" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="NH6" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="NI6" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="NJ6" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="NK6" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="NL6" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="NM6" authorId="0">
+    <comment ref="NO6" authorId="0">
       <text>
         <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
           <rPr>
@@ -176,12 +66,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Instituto Nacional de Estadística y Geografía (INEGI).</t>
   </si>
   <si>
-    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Actividad Industrial. Año Base 2013. Serie de enero de 1993 a diciembre de 2021</t>
+    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Actividad Industrial. Año Base 2013. Serie de enero de 1993 a enero de 2022</t>
   </si>
   <si>
     <t>Índice de volumen físico base 2013=100</t>
@@ -308,7 +198,27 @@
     </d:r>
   </si>
   <si>
-    <t>2021</t>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="10"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t> 2021</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:vertAlign val="superscript"/>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
+      <d:t xml:space="preserve">P</d:t>
+    </d:r>
+  </si>
+  <si>
+    <t>2022</t>
   </si>
   <si>
     <t>Enero</t>
@@ -366,231 +276,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
-    </d:r>
-  </si>
-  <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:sz val="10"/>
-        <d:rFont val="Calibri"/>
-      </d:rPr>
-      <d:t> Febrero</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
-    </d:r>
-  </si>
-  <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:sz val="10"/>
-        <d:rFont val="Calibri"/>
-      </d:rPr>
-      <d:t> Marzo</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
-    </d:r>
-  </si>
-  <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:sz val="10"/>
-        <d:rFont val="Calibri"/>
-      </d:rPr>
-      <d:t> Abril</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
-    </d:r>
-  </si>
-  <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:sz val="10"/>
-        <d:rFont val="Calibri"/>
-      </d:rPr>
-      <d:t> Mayo</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
-    </d:r>
-  </si>
-  <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:sz val="10"/>
-        <d:rFont val="Calibri"/>
-      </d:rPr>
-      <d:t> Junio</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
-    </d:r>
-  </si>
-  <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:sz val="10"/>
-        <d:rFont val="Calibri"/>
-      </d:rPr>
-      <d:t> Julio</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
-    </d:r>
-  </si>
-  <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:sz val="10"/>
-        <d:rFont val="Calibri"/>
-      </d:rPr>
-      <d:t> Agosto</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
-    </d:r>
-  </si>
-  <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:sz val="10"/>
-        <d:rFont val="Calibri"/>
-      </d:rPr>
-      <d:t> Septiembre</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
-    </d:r>
-  </si>
-  <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:sz val="10"/>
-        <d:rFont val="Calibri"/>
-      </d:rPr>
-      <d:t> Octubre</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
-    </d:r>
-  </si>
-  <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:sz val="10"/>
-        <d:rFont val="Calibri"/>
-      </d:rPr>
-      <d:t> Noviembre</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
-    </d:r>
-  </si>
-  <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:sz val="10"/>
-        <d:rFont val="Calibri"/>
-      </d:rPr>
-      <d:t> Diciembre</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
       <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
     <t xml:space="preserve">     Total</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t xml:space="preserve">     21 - Minería</t>
@@ -711,28 +404,6 @@
     </d:r>
   </si>
   <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t>R</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="10"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">Cifras revisadas</d:t>
-    </d:r>
-  </si>
-  <si>
-    <t>Nota: Con base en los ´´Lineamientos de cambios a la información divulgada en las publicaciones estadísticas y geográficas del INEGI´´ y que se complementan con las ´´Normas Especiales para la Divulgación de Datos´´ del FMI, al disponer de la última información estadística del año 2021 de la Estadística de la Industria Minerometalúrgica (EIMM), la Encuesta Nacional de Empresas Constructoras (ENEC), la Encuesta Mensual de la Industria Manufacturera (EMIM), los registros administrativos y los datos primarios, se debe realizar la actualización de este indicador. Como resultado de incorporar dicha información, se identifican diferencias en los niveles de los índices y variaciones que fueron oportunamente publicadas.</t>
-  </si>
-  <si>
     <t>Fuente: INEGI. Sistema de Cuentas Nacionales de México. Indicador Mensual de la Actividad Industrial</t>
   </si>
   <si>
@@ -799,19 +470,19 @@
     <t>COBERTURA TEMPORAL</t>
   </si>
   <si>
-    <t>1993-01-2021-12</t>
+    <t>1993-01-2022-01</t>
   </si>
   <si>
     <t>DESCRIPCIÓN PERIODO</t>
   </si>
   <si>
-    <t>Serie de enero de 1993 a diciembre de 2021</t>
+    <t>Serie de enero de 1993 a enero de 2022</t>
   </si>
   <si>
     <t>FECHA DE ACTUALIZACIÓN</t>
   </si>
   <si>
-    <t>2022-02-11</t>
+    <t>2022-03-11</t>
   </si>
 </sst>
 </file>
@@ -904,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" xfId="0"/>
     <xf numFmtId="0" fontId="2" xfId="0"/>
@@ -935,6 +606,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" borderId="1" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -946,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:NN48"/>
+  <dimension ref="A1:OA46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1330,6 +1007,19 @@
     <col min="376" max="376" width="14" customWidth="1"/>
     <col min="377" max="377" width="14" customWidth="1"/>
     <col min="378" max="378" width="14" customWidth="1"/>
+    <col min="379" max="379" width="14" customWidth="1"/>
+    <col min="380" max="380" width="14" customWidth="1"/>
+    <col min="381" max="381" width="14" customWidth="1"/>
+    <col min="382" max="382" width="14" customWidth="1"/>
+    <col min="383" max="383" width="14" customWidth="1"/>
+    <col min="384" max="384" width="14" customWidth="1"/>
+    <col min="385" max="385" width="14" customWidth="1"/>
+    <col min="386" max="386" width="14" customWidth="1"/>
+    <col min="387" max="387" width="14" customWidth="1"/>
+    <col min="388" max="388" width="14" customWidth="1"/>
+    <col min="389" max="389" width="14" customWidth="1"/>
+    <col min="390" max="390" width="14" customWidth="1"/>
+    <col min="391" max="391" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1786,1144 +1476,1198 @@
       <c r="NL5" s="13"/>
       <c r="NM5" s="13"/>
       <c r="NN5" s="13"/>
+      <c r="NO5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="NP5" s="13"/>
+      <c r="NQ5" s="13"/>
+      <c r="NR5" s="13"/>
+      <c r="NS5" s="13"/>
+      <c r="NT5" s="13"/>
+      <c r="NU5" s="13"/>
+      <c r="NV5" s="13"/>
+      <c r="NW5" s="13"/>
+      <c r="NX5" s="13"/>
+      <c r="NY5" s="13"/>
+      <c r="NZ5" s="13"/>
+      <c r="OA5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="P6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="Q6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="R6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="S6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="T6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="U6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="V6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="W6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="X6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="Y6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="Z6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="O6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="10" t="s">
+      <c r="AA6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="AC6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="AD6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="AE6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="AF6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="U6" s="10" t="s">
+      <c r="AG6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="V6" s="10" t="s">
+      <c r="AH6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="W6" s="10" t="s">
+      <c r="AI6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="X6" s="10" t="s">
+      <c r="AJ6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Y6" s="10" t="s">
+      <c r="AK6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="Z6" s="10" t="s">
+      <c r="AL6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AA6" s="10" t="s">
+      <c r="AM6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AB6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC6" s="10" t="s">
+      <c r="AN6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AD6" s="10" t="s">
+      <c r="AP6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AE6" s="10" t="s">
+      <c r="AQ6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AF6" s="10" t="s">
+      <c r="AR6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AG6" s="10" t="s">
+      <c r="AS6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AH6" s="10" t="s">
+      <c r="AT6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AI6" s="10" t="s">
+      <c r="AU6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AJ6" s="10" t="s">
+      <c r="AV6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AK6" s="10" t="s">
+      <c r="AW6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AL6" s="10" t="s">
+      <c r="AX6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AM6" s="10" t="s">
+      <c r="AY6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AN6" s="10" t="s">
+      <c r="AZ6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AO6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP6" s="10" t="s">
+      <c r="BA6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AQ6" s="10" t="s">
+      <c r="BC6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AR6" s="10" t="s">
+      <c r="BD6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AS6" s="10" t="s">
+      <c r="BE6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="10" t="s">
+      <c r="BF6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AU6" s="10" t="s">
+      <c r="BG6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AV6" s="10" t="s">
+      <c r="BH6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AW6" s="10" t="s">
+      <c r="BI6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AX6" s="10" t="s">
+      <c r="BJ6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AY6" s="10" t="s">
+      <c r="BK6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AZ6" s="10" t="s">
+      <c r="BL6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="BA6" s="10" t="s">
+      <c r="BM6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="BB6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="BC6" s="10" t="s">
+      <c r="BN6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="BO6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="BD6" s="10" t="s">
+      <c r="BP6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="BE6" s="10" t="s">
+      <c r="BQ6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="BF6" s="10" t="s">
+      <c r="BR6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="BG6" s="10" t="s">
+      <c r="BS6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="BH6" s="10" t="s">
+      <c r="BT6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="BI6" s="10" t="s">
+      <c r="BU6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="BJ6" s="10" t="s">
+      <c r="BV6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="BK6" s="10" t="s">
+      <c r="BW6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="BL6" s="10" t="s">
+      <c r="BX6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="BM6" s="10" t="s">
+      <c r="BY6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="BN6" s="10" t="s">
+      <c r="BZ6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="BO6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="BP6" s="10" t="s">
+      <c r="CA6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="CB6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="BQ6" s="10" t="s">
+      <c r="CC6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="BR6" s="10" t="s">
+      <c r="CD6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="BS6" s="10" t="s">
+      <c r="CE6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="BT6" s="10" t="s">
+      <c r="CF6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="BU6" s="10" t="s">
+      <c r="CG6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="BV6" s="10" t="s">
+      <c r="CH6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="BW6" s="10" t="s">
+      <c r="CI6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="BX6" s="10" t="s">
+      <c r="CJ6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="BY6" s="10" t="s">
+      <c r="CK6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="BZ6" s="10" t="s">
+      <c r="CL6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="CA6" s="10" t="s">
+      <c r="CM6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="CB6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="CC6" s="10" t="s">
+      <c r="CN6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="CO6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="CD6" s="10" t="s">
+      <c r="CP6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="CE6" s="10" t="s">
+      <c r="CQ6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="CF6" s="10" t="s">
+      <c r="CR6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="CG6" s="10" t="s">
+      <c r="CS6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="CH6" s="10" t="s">
+      <c r="CT6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="CI6" s="10" t="s">
+      <c r="CU6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="CJ6" s="10" t="s">
+      <c r="CV6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="CK6" s="10" t="s">
+      <c r="CW6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="CL6" s="10" t="s">
+      <c r="CX6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="CM6" s="10" t="s">
+      <c r="CY6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="CN6" s="10" t="s">
+      <c r="CZ6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="CO6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="CP6" s="10" t="s">
+      <c r="DA6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="DB6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="CQ6" s="10" t="s">
+      <c r="DC6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="CR6" s="10" t="s">
+      <c r="DD6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="CS6" s="10" t="s">
+      <c r="DE6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="CT6" s="10" t="s">
+      <c r="DF6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="CU6" s="10" t="s">
+      <c r="DG6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="CV6" s="10" t="s">
+      <c r="DH6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="CW6" s="10" t="s">
+      <c r="DI6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="CX6" s="10" t="s">
+      <c r="DJ6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="CY6" s="10" t="s">
+      <c r="DK6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="CZ6" s="10" t="s">
+      <c r="DL6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="DA6" s="10" t="s">
+      <c r="DM6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="DB6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="DC6" s="10" t="s">
+      <c r="DN6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="DO6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="DD6" s="10" t="s">
+      <c r="DP6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="DE6" s="10" t="s">
+      <c r="DQ6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="DF6" s="10" t="s">
+      <c r="DR6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="DG6" s="10" t="s">
+      <c r="DS6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="DH6" s="10" t="s">
+      <c r="DT6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="DI6" s="10" t="s">
+      <c r="DU6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="DJ6" s="10" t="s">
+      <c r="DV6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="DK6" s="10" t="s">
+      <c r="DW6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="DL6" s="10" t="s">
+      <c r="DX6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="DM6" s="10" t="s">
+      <c r="DY6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="DN6" s="10" t="s">
+      <c r="DZ6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="DO6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="DP6" s="10" t="s">
+      <c r="EA6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="EB6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="DQ6" s="10" t="s">
+      <c r="EC6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="DR6" s="10" t="s">
+      <c r="ED6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="DS6" s="10" t="s">
+      <c r="EE6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="DT6" s="10" t="s">
+      <c r="EF6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="DU6" s="10" t="s">
+      <c r="EG6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="DV6" s="10" t="s">
+      <c r="EH6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="DW6" s="10" t="s">
+      <c r="EI6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="DX6" s="10" t="s">
+      <c r="EJ6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="DY6" s="10" t="s">
+      <c r="EK6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="DZ6" s="10" t="s">
+      <c r="EL6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="EA6" s="10" t="s">
+      <c r="EM6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="EB6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="EC6" s="10" t="s">
+      <c r="EN6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="EO6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="ED6" s="10" t="s">
+      <c r="EP6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="EE6" s="10" t="s">
+      <c r="EQ6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="EF6" s="10" t="s">
+      <c r="ER6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="EG6" s="10" t="s">
+      <c r="ES6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="EH6" s="10" t="s">
+      <c r="ET6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="EI6" s="10" t="s">
+      <c r="EU6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="EJ6" s="10" t="s">
+      <c r="EV6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="EK6" s="10" t="s">
+      <c r="EW6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="EL6" s="10" t="s">
+      <c r="EX6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="EM6" s="10" t="s">
+      <c r="EY6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="EN6" s="10" t="s">
+      <c r="EZ6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="EO6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="EP6" s="10" t="s">
+      <c r="FA6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="FB6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="EQ6" s="10" t="s">
+      <c r="FC6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="ER6" s="10" t="s">
+      <c r="FD6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="ES6" s="10" t="s">
+      <c r="FE6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="ET6" s="10" t="s">
+      <c r="FF6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="EU6" s="10" t="s">
+      <c r="FG6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="EV6" s="10" t="s">
+      <c r="FH6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="EW6" s="10" t="s">
+      <c r="FI6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="EX6" s="10" t="s">
+      <c r="FJ6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="EY6" s="10" t="s">
+      <c r="FK6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="EZ6" s="10" t="s">
+      <c r="FL6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="FA6" s="10" t="s">
+      <c r="FM6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="FB6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="FC6" s="10" t="s">
+      <c r="FN6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="FO6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="FD6" s="10" t="s">
+      <c r="FP6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="FE6" s="10" t="s">
+      <c r="FQ6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="FF6" s="10" t="s">
+      <c r="FR6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="FG6" s="10" t="s">
+      <c r="FS6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="FH6" s="10" t="s">
+      <c r="FT6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="FI6" s="10" t="s">
+      <c r="FU6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="FJ6" s="10" t="s">
+      <c r="FV6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="FK6" s="10" t="s">
+      <c r="FW6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="FL6" s="10" t="s">
+      <c r="FX6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="FM6" s="10" t="s">
+      <c r="FY6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="FN6" s="10" t="s">
+      <c r="FZ6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="FO6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="FP6" s="10" t="s">
+      <c r="GA6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="GB6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="FQ6" s="10" t="s">
+      <c r="GC6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="FR6" s="10" t="s">
+      <c r="GD6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="FS6" s="10" t="s">
+      <c r="GE6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="FT6" s="10" t="s">
+      <c r="GF6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="FU6" s="10" t="s">
+      <c r="GG6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="FV6" s="10" t="s">
+      <c r="GH6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="FW6" s="10" t="s">
+      <c r="GI6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="FX6" s="10" t="s">
+      <c r="GJ6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="FY6" s="10" t="s">
+      <c r="GK6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="FZ6" s="10" t="s">
+      <c r="GL6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="GA6" s="10" t="s">
+      <c r="GM6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="GB6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="GC6" s="10" t="s">
+      <c r="GN6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="GO6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="GD6" s="10" t="s">
+      <c r="GP6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="GE6" s="10" t="s">
+      <c r="GQ6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="GF6" s="10" t="s">
+      <c r="GR6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="GG6" s="10" t="s">
+      <c r="GS6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="GH6" s="10" t="s">
+      <c r="GT6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="GI6" s="10" t="s">
+      <c r="GU6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="GJ6" s="10" t="s">
+      <c r="GV6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="GK6" s="10" t="s">
+      <c r="GW6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="GL6" s="10" t="s">
+      <c r="GX6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="GM6" s="10" t="s">
+      <c r="GY6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="GN6" s="10" t="s">
+      <c r="GZ6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="GO6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="GP6" s="10" t="s">
+      <c r="HA6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="HB6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="GQ6" s="10" t="s">
+      <c r="HC6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="GR6" s="10" t="s">
+      <c r="HD6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="GS6" s="10" t="s">
+      <c r="HE6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="GT6" s="10" t="s">
+      <c r="HF6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="GU6" s="10" t="s">
+      <c r="HG6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="GV6" s="10" t="s">
+      <c r="HH6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="GW6" s="10" t="s">
+      <c r="HI6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="GX6" s="10" t="s">
+      <c r="HJ6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="GY6" s="10" t="s">
+      <c r="HK6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="GZ6" s="10" t="s">
+      <c r="HL6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="HA6" s="10" t="s">
+      <c r="HM6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="HB6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="HC6" s="10" t="s">
+      <c r="HN6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="HO6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="HD6" s="10" t="s">
+      <c r="HP6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="HE6" s="10" t="s">
+      <c r="HQ6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="HF6" s="10" t="s">
+      <c r="HR6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="HG6" s="10" t="s">
+      <c r="HS6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="HH6" s="10" t="s">
+      <c r="HT6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="HI6" s="10" t="s">
+      <c r="HU6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="HJ6" s="10" t="s">
+      <c r="HV6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="HK6" s="10" t="s">
+      <c r="HW6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="HL6" s="10" t="s">
+      <c r="HX6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="HM6" s="10" t="s">
+      <c r="HY6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="HN6" s="10" t="s">
+      <c r="HZ6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="HO6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="HP6" s="10" t="s">
+      <c r="IA6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="IB6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="HQ6" s="10" t="s">
+      <c r="IC6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="HR6" s="10" t="s">
+      <c r="ID6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="HS6" s="10" t="s">
+      <c r="IE6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="HT6" s="10" t="s">
+      <c r="IF6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="HU6" s="10" t="s">
+      <c r="IG6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="HV6" s="10" t="s">
+      <c r="IH6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="HW6" s="10" t="s">
+      <c r="II6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="HX6" s="10" t="s">
+      <c r="IJ6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="HY6" s="10" t="s">
+      <c r="IK6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="HZ6" s="10" t="s">
+      <c r="IL6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="IA6" s="10" t="s">
+      <c r="IM6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="IB6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="IC6" s="10" t="s">
+      <c r="IN6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="IO6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="ID6" s="10" t="s">
+      <c r="IP6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="IE6" s="10" t="s">
+      <c r="IQ6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="IF6" s="10" t="s">
+      <c r="IR6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="IG6" s="10" t="s">
+      <c r="IS6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="IH6" s="10" t="s">
+      <c r="IT6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="II6" s="10" t="s">
+      <c r="IU6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="IJ6" s="10" t="s">
+      <c r="IV6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="IK6" s="10" t="s">
+      <c r="IW6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="IL6" s="10" t="s">
+      <c r="IX6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="IM6" s="10" t="s">
+      <c r="IY6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="IN6" s="10" t="s">
+      <c r="IZ6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="IO6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="IP6" s="10" t="s">
+      <c r="JA6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="JB6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="IQ6" s="10" t="s">
+      <c r="JC6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="IR6" s="10" t="s">
+      <c r="JD6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="IS6" s="10" t="s">
+      <c r="JE6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="IT6" s="10" t="s">
+      <c r="JF6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="IU6" s="10" t="s">
+      <c r="JG6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="IV6" s="10" t="s">
+      <c r="JH6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="IW6" s="10" t="s">
+      <c r="JI6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="IX6" s="10" t="s">
+      <c r="JJ6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="IY6" s="10" t="s">
+      <c r="JK6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="IZ6" s="10" t="s">
+      <c r="JL6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="JA6" s="10" t="s">
+      <c r="JM6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="JB6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="JC6" s="10" t="s">
+      <c r="JN6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="JO6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="JD6" s="10" t="s">
+      <c r="JP6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="JE6" s="10" t="s">
+      <c r="JQ6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="JF6" s="10" t="s">
+      <c r="JR6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="JG6" s="10" t="s">
+      <c r="JS6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="JH6" s="10" t="s">
+      <c r="JT6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="JI6" s="10" t="s">
+      <c r="JU6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="JJ6" s="10" t="s">
+      <c r="JV6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="JK6" s="10" t="s">
+      <c r="JW6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="JL6" s="10" t="s">
+      <c r="JX6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="JM6" s="10" t="s">
+      <c r="JY6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="JN6" s="10" t="s">
+      <c r="JZ6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="JO6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="JP6" s="10" t="s">
+      <c r="KA6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="KB6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="JQ6" s="10" t="s">
+      <c r="KC6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="JR6" s="10" t="s">
+      <c r="KD6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="JS6" s="10" t="s">
+      <c r="KE6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="JT6" s="10" t="s">
+      <c r="KF6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="JU6" s="10" t="s">
+      <c r="KG6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="JV6" s="10" t="s">
+      <c r="KH6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="JW6" s="10" t="s">
+      <c r="KI6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="JX6" s="10" t="s">
+      <c r="KJ6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="JY6" s="10" t="s">
+      <c r="KK6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="JZ6" s="10" t="s">
+      <c r="KL6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="KA6" s="10" t="s">
+      <c r="KM6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="KB6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="KC6" s="10" t="s">
+      <c r="KN6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="KO6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="KD6" s="10" t="s">
+      <c r="KP6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="KE6" s="10" t="s">
+      <c r="KQ6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="KF6" s="10" t="s">
+      <c r="KR6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="KG6" s="10" t="s">
+      <c r="KS6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="KH6" s="10" t="s">
+      <c r="KT6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="KI6" s="10" t="s">
+      <c r="KU6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="KJ6" s="10" t="s">
+      <c r="KV6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="KK6" s="10" t="s">
+      <c r="KW6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="KL6" s="10" t="s">
+      <c r="KX6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="KM6" s="10" t="s">
+      <c r="KY6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="KN6" s="10" t="s">
+      <c r="KZ6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="KO6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="KP6" s="10" t="s">
+      <c r="LA6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="LB6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="KQ6" s="10" t="s">
+      <c r="LC6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="KR6" s="10" t="s">
+      <c r="LD6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="KS6" s="10" t="s">
+      <c r="LE6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="KT6" s="10" t="s">
+      <c r="LF6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="KU6" s="10" t="s">
+      <c r="LG6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="KV6" s="10" t="s">
+      <c r="LH6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="KW6" s="10" t="s">
+      <c r="LI6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="KX6" s="10" t="s">
+      <c r="LJ6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="KY6" s="10" t="s">
+      <c r="LK6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="KZ6" s="10" t="s">
+      <c r="LL6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="LA6" s="10" t="s">
+      <c r="LM6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="LB6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="LC6" s="10" t="s">
+      <c r="LN6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="LO6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="LD6" s="10" t="s">
+      <c r="LP6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="LE6" s="10" t="s">
+      <c r="LQ6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="LF6" s="10" t="s">
+      <c r="LR6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="LG6" s="10" t="s">
+      <c r="LS6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="LH6" s="10" t="s">
+      <c r="LT6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="LI6" s="10" t="s">
+      <c r="LU6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="LJ6" s="10" t="s">
+      <c r="LV6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="LK6" s="10" t="s">
+      <c r="LW6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="LL6" s="10" t="s">
+      <c r="LX6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="LM6" s="10" t="s">
+      <c r="LY6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="LN6" s="10" t="s">
+      <c r="LZ6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="LO6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="LP6" s="10" t="s">
+      <c r="MA6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="MB6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="LQ6" s="10" t="s">
+      <c r="MC6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="LR6" s="10" t="s">
+      <c r="MD6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="LS6" s="10" t="s">
+      <c r="ME6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="LT6" s="10" t="s">
+      <c r="MF6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="LU6" s="10" t="s">
+      <c r="MG6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="LV6" s="10" t="s">
+      <c r="MH6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="LW6" s="10" t="s">
+      <c r="MI6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="LX6" s="10" t="s">
+      <c r="MJ6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="LY6" s="10" t="s">
+      <c r="MK6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="LZ6" s="10" t="s">
+      <c r="ML6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="MA6" s="10" t="s">
+      <c r="MM6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="MB6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="MC6" s="10" t="s">
+      <c r="MN6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="MO6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="MD6" s="10" t="s">
+      <c r="MP6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="ME6" s="10" t="s">
+      <c r="MQ6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="MF6" s="10" t="s">
+      <c r="MR6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="MG6" s="10" t="s">
+      <c r="MS6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="MH6" s="10" t="s">
+      <c r="MT6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="MI6" s="10" t="s">
+      <c r="MU6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="MJ6" s="10" t="s">
+      <c r="MV6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="MK6" s="10" t="s">
+      <c r="MW6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="ML6" s="10" t="s">
+      <c r="MX6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="MM6" s="10" t="s">
+      <c r="MY6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="MN6" s="10" t="s">
+      <c r="MZ6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="MO6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="MP6" s="10" t="s">
+      <c r="NA6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="NB6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="MQ6" s="10" t="s">
+      <c r="NC6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="MR6" s="10" t="s">
+      <c r="ND6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="MS6" s="10" t="s">
+      <c r="NE6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="MT6" s="10" t="s">
+      <c r="NF6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="MU6" s="10" t="s">
+      <c r="NG6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="MV6" s="10" t="s">
+      <c r="NH6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="MW6" s="10" t="s">
+      <c r="NI6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="MX6" s="10" t="s">
+      <c r="NJ6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="MY6" s="10" t="s">
+      <c r="NK6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="MZ6" s="10" t="s">
+      <c r="NL6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="NA6" s="10" t="s">
+      <c r="NM6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="NB6" s="10" t="s">
+      <c r="NN6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="NC6" s="10" t="s">
+      <c r="NO6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="ND6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="NE6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="NF6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="NG6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="NH6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="NI6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="NJ6" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="NK6" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="NL6" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="NM6" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="NN6" s="10" t="s">
+      <c r="NP6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="NQ6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="NR6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="NS6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="NT6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="NU6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="NV6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="NW6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="NX6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="NY6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="NZ6" s="10" t="s">
         <v>45</v>
+      </c>
+      <c r="OA6" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B7" s="11">
         <v>69.222752741001</v>
@@ -4055,11 +3799,50 @@
       </c>
       <c r="NN7" s="11">
         <v>98.360291969398</v>
+      </c>
+      <c r="NO7" s="11">
+        <v>101.732023283983</v>
+      </c>
+      <c r="NP7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA7" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B8" s="12">
         <v>85.987958716261</v>
@@ -5191,11 +4974,50 @@
       </c>
       <c r="NN8" s="12">
         <v>75.00394537611</v>
+      </c>
+      <c r="NO8" s="12">
+        <v>89.826798778499</v>
+      </c>
+      <c r="NP8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA8" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B9" s="11">
         <v>99.519341749343</v>
@@ -6327,11 +6149,50 @@
       </c>
       <c r="NN9" s="11">
         <v>66.905204330621</v>
+      </c>
+      <c r="NO9" s="11">
+        <v>68.838613211715</v>
+      </c>
+      <c r="NP9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA9" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B10" s="12">
         <v>48.814950253715</v>
@@ -7463,11 +7324,50 @@
       </c>
       <c r="NN10" s="12">
         <v>109.555998924433</v>
+      </c>
+      <c r="NO10" s="12">
+        <v>110.870951164709</v>
+      </c>
+      <c r="NP10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA10" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B11" s="11">
         <v>22.744141472693</v>
@@ -8599,11 +8499,50 @@
       </c>
       <c r="NN11" s="11">
         <v>90.359692832628</v>
+      </c>
+      <c r="NO11" s="11">
+        <v>254.870767271902</v>
+      </c>
+      <c r="NP11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA11" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B12" s="12">
         <v>38.665943249786</v>
@@ -9735,11 +9674,50 @@
       </c>
       <c r="NN12" s="12">
         <v>109.789854907961</v>
+      </c>
+      <c r="NO12" s="12">
+        <v>102.607046577153</v>
+      </c>
+      <c r="NP12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA12" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B13" s="11">
         <v>33.532463105934</v>
@@ -10871,11 +10849,50 @@
       </c>
       <c r="NN13" s="11">
         <v>110.330947563265</v>
+      </c>
+      <c r="NO13" s="11">
+        <v>100.948187788996</v>
+      </c>
+      <c r="NP13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA13" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B14" s="12">
         <v>56.292184219235</v>
@@ -12007,11 +12024,50 @@
       </c>
       <c r="NN14" s="12">
         <v>107.931967225158</v>
+      </c>
+      <c r="NO14" s="12">
+        <v>108.302879406924</v>
+      </c>
+      <c r="NP14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA14" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B15" s="11">
         <v>71.2627077305</v>
@@ -13143,11 +13199,50 @@
       </c>
       <c r="NN15" s="11">
         <v>89.333990316403</v>
+      </c>
+      <c r="NO15" s="11">
+        <v>88.064476906468</v>
+      </c>
+      <c r="NP15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA15" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B16" s="12">
         <v>84.037802362945</v>
@@ -14279,11 +14374,50 @@
       </c>
       <c r="NN16" s="12">
         <v>96.367076543755</v>
+      </c>
+      <c r="NO16" s="12">
+        <v>93.309260567977</v>
+      </c>
+      <c r="NP16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA16" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B17" s="11">
         <v>35.064527007042</v>
@@ -15415,11 +15549,50 @@
       </c>
       <c r="NN17" s="11">
         <v>50.72547235445</v>
+      </c>
+      <c r="NO17" s="11">
+        <v>49.412397200389</v>
+      </c>
+      <c r="NP17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA17" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B18" s="12">
         <v>73.87209194618</v>
@@ -16551,11 +16724,50 @@
       </c>
       <c r="NN18" s="12">
         <v>131.858191787016</v>
+      </c>
+      <c r="NO18" s="12">
+        <v>141.464508612304</v>
+      </c>
+      <c r="NP18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA18" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B19" s="11">
         <v>63.653052579688</v>
@@ -17687,11 +17899,50 @@
       </c>
       <c r="NN19" s="11">
         <v>111.974194716667</v>
+      </c>
+      <c r="NO19" s="11">
+        <v>113.399796352736</v>
+      </c>
+      <c r="NP19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA19" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B20" s="12">
         <v>63.907698868213</v>
@@ -18823,11 +19074,50 @@
       </c>
       <c r="NN20" s="12">
         <v>116.711335519014</v>
+      </c>
+      <c r="NO20" s="12">
+        <v>120.00914323964</v>
+      </c>
+      <c r="NP20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA20" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B21" s="11">
         <v>56.569385260854</v>
@@ -19959,11 +20249,50 @@
       </c>
       <c r="NN21" s="11">
         <v>130.733662209406</v>
+      </c>
+      <c r="NO21" s="11">
+        <v>118.852826675585</v>
+      </c>
+      <c r="NP21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA21" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B22" s="12">
         <v>114.319677175604</v>
@@ -21095,11 +21424,50 @@
       </c>
       <c r="NN22" s="12">
         <v>93.049216192096</v>
+      </c>
+      <c r="NO22" s="12">
+        <v>95.07881039449</v>
+      </c>
+      <c r="NP22" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ22" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR22" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS22" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT22" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU22" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV22" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW22" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX22" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY22" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ22" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA22" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B23" s="11">
         <v>120.050850501477</v>
@@ -22231,11 +22599,50 @@
       </c>
       <c r="NN23" s="11">
         <v>103.50467527103</v>
+      </c>
+      <c r="NO23" s="11">
+        <v>105.294844321027</v>
+      </c>
+      <c r="NP23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA23" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B24" s="12">
         <v>90.688383871069</v>
@@ -23367,11 +23774,50 @@
       </c>
       <c r="NN24" s="12">
         <v>84.706357572919</v>
+      </c>
+      <c r="NO24" s="12">
+        <v>82.628877192462</v>
+      </c>
+      <c r="NP24" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ24" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR24" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS24" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT24" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU24" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV24" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW24" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX24" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY24" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ24" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA24" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B25" s="11">
         <v>139.460849924193</v>
@@ -24503,11 +24949,50 @@
       </c>
       <c r="NN25" s="11">
         <v>73.051931508819</v>
+      </c>
+      <c r="NO25" s="11">
+        <v>69.918900178298</v>
+      </c>
+      <c r="NP25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA25" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B26" s="12">
         <v>130.395494603712</v>
@@ -25639,11 +26124,50 @@
       </c>
       <c r="NN26" s="12">
         <v>103.873265487534</v>
+      </c>
+      <c r="NO26" s="12">
+        <v>103.327316520945</v>
+      </c>
+      <c r="NP26" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ26" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR26" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS26" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT26" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU26" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV26" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW26" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX26" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY26" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ26" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA26" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B27" s="11">
         <v>51.479382699588</v>
@@ -26775,11 +27299,50 @@
       </c>
       <c r="NN27" s="11">
         <v>124.432718623368</v>
+      </c>
+      <c r="NO27" s="11">
+        <v>121.723535837646</v>
+      </c>
+      <c r="NP27" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ27" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR27" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS27" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT27" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU27" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV27" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW27" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX27" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY27" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ27" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA27" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B28" s="12">
         <v>68.358361009475</v>
@@ -27911,11 +28474,50 @@
       </c>
       <c r="NN28" s="12">
         <v>105.91524888439</v>
+      </c>
+      <c r="NO28" s="12">
+        <v>105.4752891365</v>
+      </c>
+      <c r="NP28" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ28" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR28" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS28" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT28" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU28" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV28" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW28" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX28" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY28" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ28" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA28" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B29" s="11">
         <v>76.901717312341</v>
@@ -29047,11 +29649,50 @@
       </c>
       <c r="NN29" s="11">
         <v>50.939851110577</v>
+      </c>
+      <c r="NO29" s="11">
+        <v>58.540701592755</v>
+      </c>
+      <c r="NP29" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ29" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR29" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS29" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT29" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU29" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV29" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW29" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX29" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY29" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ29" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA29" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B30" s="12">
         <v>73.778714563351</v>
@@ -30183,11 +30824,50 @@
       </c>
       <c r="NN30" s="12">
         <v>82.833688193208</v>
+      </c>
+      <c r="NO30" s="12">
+        <v>86.718672818584</v>
+      </c>
+      <c r="NP30" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ30" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR30" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS30" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT30" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU30" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV30" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW30" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX30" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY30" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ30" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA30" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B31" s="11">
         <v>73.811018646336</v>
@@ -31319,11 +31999,50 @@
       </c>
       <c r="NN31" s="11">
         <v>128.851254084002</v>
+      </c>
+      <c r="NO31" s="11">
+        <v>134.386848323086</v>
+      </c>
+      <c r="NP31" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ31" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR31" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS31" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT31" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU31" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV31" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW31" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX31" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY31" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ31" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA31" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B32" s="12">
         <v>86.120032958035</v>
@@ -32455,11 +33174,50 @@
       </c>
       <c r="NN32" s="12">
         <v>115.100205373394</v>
+      </c>
+      <c r="NO32" s="12">
+        <v>115.464365780738</v>
+      </c>
+      <c r="NP32" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ32" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR32" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS32" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT32" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU32" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV32" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW32" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX32" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY32" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ32" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA32" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B33" s="11">
         <v>69.399412813085</v>
@@ -33591,11 +34349,50 @@
       </c>
       <c r="NN33" s="11">
         <v>99.011274413645</v>
+      </c>
+      <c r="NO33" s="11">
+        <v>105.749317610985</v>
+      </c>
+      <c r="NP33" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ33" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR33" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS33" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT33" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU33" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV33" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW33" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX33" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY33" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ33" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA33" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B34" s="12">
         <v>72.622901666126</v>
@@ -34727,11 +35524,50 @@
       </c>
       <c r="NN34" s="12">
         <v>115.948519035347</v>
+      </c>
+      <c r="NO34" s="12">
+        <v>109.929092694271</v>
+      </c>
+      <c r="NP34" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ34" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR34" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS34" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT34" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU34" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV34" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW34" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX34" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY34" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ34" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA34" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B35" s="11">
         <v>60.182989506094</v>
@@ -35863,11 +36699,50 @@
       </c>
       <c r="NN35" s="11">
         <v>106.484330061962</v>
+      </c>
+      <c r="NO35" s="11">
+        <v>96.170105617348</v>
+      </c>
+      <c r="NP35" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ35" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR35" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS35" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT35" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU35" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV35" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW35" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX35" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY35" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ35" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA35" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B36" s="12">
         <v>61.132998870046</v>
@@ -36999,11 +37874,50 @@
       </c>
       <c r="NN36" s="12">
         <v>139.792270462463</v>
+      </c>
+      <c r="NO36" s="12">
+        <v>151.737519776539</v>
+      </c>
+      <c r="NP36" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ36" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR36" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS36" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT36" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU36" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV36" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW36" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX36" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY36" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ36" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA36" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="8" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B37" s="11">
         <v>65.758484330262</v>
@@ -38135,11 +39049,50 @@
       </c>
       <c r="NN37" s="11">
         <v>134.110133006978</v>
+      </c>
+      <c r="NO37" s="11">
+        <v>130.846760635339</v>
+      </c>
+      <c r="NP37" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ37" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR37" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS37" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT37" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU37" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV37" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW37" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX37" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY37" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ37" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA37" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B38" s="12">
         <v>33.546378018984</v>
@@ -39271,11 +40224,50 @@
       </c>
       <c r="NN38" s="12">
         <v>121.324617239538</v>
+      </c>
+      <c r="NO38" s="12">
+        <v>123.181192116342</v>
+      </c>
+      <c r="NP38" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ38" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR38" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS38" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT38" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU38" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV38" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW38" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX38" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY38" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ38" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA38" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B39" s="11">
         <v>113.328554079414</v>
@@ -40407,11 +41399,50 @@
       </c>
       <c r="NN39" s="11">
         <v>100.142285383149</v>
+      </c>
+      <c r="NO39" s="11">
+        <v>87.935777497547</v>
+      </c>
+      <c r="NP39" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ39" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR39" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS39" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT39" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU39" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV39" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW39" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX39" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY39" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ39" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA39" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B40" s="12">
         <v>42.404526159595</v>
@@ -41543,30 +42574,59 @@
       </c>
       <c r="NN40" s="12">
         <v>127.818629475027</v>
+      </c>
+      <c r="NO40" s="12">
+        <v>121.352025102423</v>
+      </c>
+      <c r="NP40" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ40" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR40" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS40" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT40" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU40" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV40" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW40" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX40" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY40" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ40" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA40" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="s">
-        <v>93</v>
+      <c r="A45" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3"/>
+      <c r="A46" s="3"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -41599,10 +42659,11 @@
     <mergeCell ref="MB5:MN5"/>
     <mergeCell ref="MO5:NA5"/>
     <mergeCell ref="NB5:NN5"/>
+    <mergeCell ref="NO5:OA5"/>
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <headerFooter/>
-  <legacyDrawing r:id="Ra0e65d1bd6164946"/>
+  <legacyDrawing r:id="R5ff2a94b7f944247"/>
 </worksheet>
 </file>
 
@@ -41618,107 +42679,107 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="14" t="s">
-        <v>96</v>
+      <c r="B2" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="14" t="s">
-        <v>98</v>
+      <c r="B3" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="14" t="s">
-        <v>100</v>
+      <c r="B4" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="14" t="s">
-        <v>102</v>
+      <c r="B5" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="14" t="s">
-        <v>104</v>
+      <c r="B6" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="14" t="s">
-        <v>106</v>
+      <c r="B7" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="14" t="s">
-        <v>108</v>
+      <c r="B8" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="14" t="s">
-        <v>110</v>
+      <c r="B9" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="14" t="s">
-        <v>112</v>
+      <c r="B10" s="16" t="s">
+        <v>101</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="14" t="s">
-        <v>114</v>
+      <c r="B11" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="14" t="s">
-        <v>116</v>
+      <c r="B12" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="14" t="s">
-        <v>118</v>
+      <c r="B13" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="14" t="s">
-        <v>120</v>
+      <c r="B14" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/actind.xlsx
+++ b/DATA/actind.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Tabulado" sheetId="1" r:id="R10b3c47475314ad3"/>
-    <sheet name="MetaInfo" sheetId="2" r:id="R1a7f1064976f4dc2"/>
+    <sheet name="Tabulado" sheetId="1" r:id="R3ecdd2bfd6a64539"/>
+    <sheet name="MetaInfo" sheetId="2" r:id="R2953290a6fa34c8b"/>
   </sheets>
 </workbook>
 </file>
@@ -24,7 +24,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
+          <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
     </comment>
@@ -35,7 +35,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
+          <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
     </comment>
@@ -46,7 +46,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
+          <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
     </comment>
@@ -57,11 +57,22 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
+          <t xml:space="preserve">P. Cifras preliminares</t>
+        </d:r>
+      </text>
+    </comment>
+    <comment ref="NQ6" authorId="0">
+      <text>
+        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
-    <comment ref="NQ6" authorId="0">
+    <comment ref="NR6" authorId="0">
       <text>
         <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
           <rPr>
@@ -82,7 +93,7 @@
     <t>Instituto Nacional de Estadística y Geografía (INEGI).</t>
   </si>
   <si>
-    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Actividad Industrial. Año Base 2013. Serie de enero de 1993 a marzo de 2022</t>
+    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Actividad Industrial. Año Base 2013. Serie de enero de 1993 a abril de 2022</t>
   </si>
   <si>
     <t>Índice de volumen físico base 2013=100</t>
@@ -188,7 +199,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
+      <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
@@ -208,7 +219,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
+      <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
@@ -270,7 +281,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
+      <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
@@ -290,6 +301,26 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
+      <d:t xml:space="preserve">P</d:t>
+    </d:r>
+  </si>
+  <si>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="10"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t> Marzo</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:vertAlign val="superscript"/>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
       <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
@@ -300,7 +331,7 @@
         <d:sz val="10"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
-      <d:t> Marzo</d:t>
+      <d:t> Abril</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -426,25 +457,6 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t>R</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="10"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">Cifras revisadas</d:t>
-    </d:r>
-  </si>
-  <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
       <d:t>P</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -457,7 +469,23 @@
     </d:r>
   </si>
   <si>
-    <t>Nota: La actualización de este indicador se lleva a cabo una vez teniendo la última información estadística de encuestas, registros administrativos y datos primarios de 2022 y las Cuentas de Bienes y Servicios 2020 versión revisada, y se hace con base en los ´´Lineamientos de cambios a la información divulgada en las publicaciones estadísticas y geográficas del INEGI´´ que se complementan con las ´´Normas Especiales para la Divulgación de Datos´´ del FMI. Incorporar la información más reciente permite identificar posibles diferencias en los niveles de los índices y variaciones que fueron publicados oportunamente.</t>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:vertAlign val="superscript"/>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
+      <d:t>R</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="10"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
+      <d:t xml:space="preserve">Cifras revisadas</d:t>
+    </d:r>
   </si>
   <si>
     <t>Fuente: INEGI. Sistema de Cuentas Nacionales de México. Indicador Mensual de la Actividad Industrial</t>
@@ -526,19 +554,19 @@
     <t>COBERTURA TEMPORAL</t>
   </si>
   <si>
-    <t>1993-01-2022-03</t>
+    <t>1993-01-2022-04</t>
   </si>
   <si>
     <t>DESCRIPCIÓN PERIODO</t>
   </si>
   <si>
-    <t>Serie de enero de 1993 a marzo de 2022</t>
+    <t>Serie de enero de 1993 a abril de 2022</t>
   </si>
   <si>
     <t>FECHA DE ACTUALIZACIÓN</t>
   </si>
   <si>
-    <t>2022-05-12</t>
+    <t>2022-06-10</t>
   </si>
 </sst>
 </file>
@@ -679,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:OA48"/>
+  <dimension ref="A1:OA47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2691,7 +2719,7 @@
         <v>49</v>
       </c>
       <c r="NR6" s="10" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="NS6" s="10" t="s">
         <v>38</v>
@@ -2723,7 +2751,7 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" s="11">
         <v>69.222752741001</v>
@@ -3863,42 +3891,42 @@
         <v>96.982027265698</v>
       </c>
       <c r="NQ7" s="11">
-        <v>103.884805305508</v>
-      </c>
-      <c r="NR7" s="14" t="s">
-        <v>51</v>
+        <v>103.974325615953</v>
+      </c>
+      <c r="NR7" s="11">
+        <v>100.176425204805</v>
       </c>
       <c r="NS7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" s="12">
         <v>85.987958716261</v>
@@ -5038,42 +5066,42 @@
         <v>71.252111095827</v>
       </c>
       <c r="NQ8" s="12">
-        <v>75.232867348132</v>
-      </c>
-      <c r="NR8" s="15" t="s">
-        <v>51</v>
+        <v>75.234536033429</v>
+      </c>
+      <c r="NR8" s="12">
+        <v>73.445173021969</v>
       </c>
       <c r="NS8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" s="11">
         <v>99.519341749343</v>
@@ -6213,42 +6241,42 @@
         <v>63.252288591303</v>
       </c>
       <c r="NQ9" s="11">
-        <v>68.058784581593</v>
-      </c>
-      <c r="NR9" s="14" t="s">
-        <v>51</v>
+        <v>68.058927562752</v>
+      </c>
+      <c r="NR9" s="11">
+        <v>64.812985281683</v>
       </c>
       <c r="NS9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="12">
         <v>48.814950253715</v>
@@ -7388,42 +7416,42 @@
         <v>108.997512502766</v>
       </c>
       <c r="NQ10" s="12">
-        <v>113.398346940193</v>
-      </c>
-      <c r="NR10" s="15" t="s">
-        <v>51</v>
+        <v>113.406797971365</v>
+      </c>
+      <c r="NR10" s="12">
+        <v>109.926347472208</v>
       </c>
       <c r="NS10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" s="11">
         <v>22.744141472693</v>
@@ -8563,42 +8591,42 @@
         <v>79.809653872847</v>
       </c>
       <c r="NQ11" s="11">
-        <v>75.015087214033</v>
-      </c>
-      <c r="NR11" s="14" t="s">
-        <v>51</v>
+        <v>75.019149266082</v>
+      </c>
+      <c r="NR11" s="11">
+        <v>90.446395541811</v>
       </c>
       <c r="NS11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" s="12">
         <v>38.665943249786</v>
@@ -9738,42 +9766,42 @@
         <v>99.848230301626</v>
       </c>
       <c r="NQ12" s="12">
-        <v>107.253356772408</v>
-      </c>
-      <c r="NR12" s="15" t="s">
-        <v>51</v>
+        <v>107.333690083897</v>
+      </c>
+      <c r="NR12" s="12">
+        <v>108.886948609133</v>
       </c>
       <c r="NS12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" s="11">
         <v>33.532463105934</v>
@@ -10913,42 +10941,42 @@
         <v>97.722288218134</v>
       </c>
       <c r="NQ13" s="11">
-        <v>106.834086976162</v>
-      </c>
-      <c r="NR13" s="14" t="s">
-        <v>51</v>
+        <v>106.919043533231</v>
+      </c>
+      <c r="NR13" s="11">
+        <v>108.680774104463</v>
       </c>
       <c r="NS13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" s="12">
         <v>56.292184219235</v>
@@ -12088,42 +12116,42 @@
         <v>107.14783337803</v>
       </c>
       <c r="NQ14" s="12">
-        <v>108.692955300646</v>
-      </c>
-      <c r="NR14" s="15" t="s">
-        <v>51</v>
+        <v>108.757414304967</v>
+      </c>
+      <c r="NR14" s="12">
+        <v>109.594866317828</v>
       </c>
       <c r="NS14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" s="11">
         <v>71.262707730501</v>
@@ -13263,42 +13291,42 @@
         <v>88.633162287251</v>
       </c>
       <c r="NQ15" s="11">
-        <v>91.530722061832</v>
-      </c>
-      <c r="NR15" s="14" t="s">
-        <v>51</v>
+        <v>91.8759970806</v>
+      </c>
+      <c r="NR15" s="11">
+        <v>90.969398977626</v>
       </c>
       <c r="NS15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B16" s="12">
         <v>84.037802362945</v>
@@ -14438,42 +14466,42 @@
         <v>96.407770503308</v>
       </c>
       <c r="NQ16" s="12">
-        <v>96.077580453144</v>
-      </c>
-      <c r="NR16" s="15" t="s">
-        <v>51</v>
+        <v>96.251025705438</v>
+      </c>
+      <c r="NR16" s="12">
+        <v>95.691941652894</v>
       </c>
       <c r="NS16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B17" s="11">
         <v>35.064527007042</v>
@@ -15613,42 +15641,42 @@
         <v>47.146768559628</v>
       </c>
       <c r="NQ17" s="11">
-        <v>52.845310680549</v>
-      </c>
-      <c r="NR17" s="14" t="s">
-        <v>51</v>
+        <v>53.571855579925</v>
+      </c>
+      <c r="NR17" s="11">
+        <v>48.011239746018</v>
       </c>
       <c r="NS17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B18" s="12">
         <v>73.872091946179</v>
@@ -16788,42 +16816,42 @@
         <v>133.017357117102</v>
       </c>
       <c r="NQ18" s="12">
-        <v>149.211210693651</v>
-      </c>
-      <c r="NR18" s="15" t="s">
-        <v>51</v>
+        <v>149.753677668215</v>
+      </c>
+      <c r="NR18" s="12">
+        <v>156.98883785262</v>
       </c>
       <c r="NS18" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT18" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU18" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV18" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW18" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX18" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY18" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ18" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA18" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" s="11">
         <v>63.653052579688</v>
@@ -17963,42 +17991,42 @@
         <v>112.151160049374</v>
       </c>
       <c r="NQ19" s="11">
-        <v>122.196130041744</v>
-      </c>
-      <c r="NR19" s="14" t="s">
-        <v>51</v>
+        <v>122.205690846012</v>
+      </c>
+      <c r="NR19" s="11">
+        <v>115.643527100999</v>
       </c>
       <c r="NS19" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT19" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU19" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV19" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW19" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX19" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY19" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ19" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA19" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B20" s="12">
         <v>63.907698868213</v>
@@ -19138,42 +19166,42 @@
         <v>117.583821255933</v>
       </c>
       <c r="NQ20" s="12">
-        <v>123.07652881723</v>
-      </c>
-      <c r="NR20" s="15" t="s">
-        <v>51</v>
+        <v>122.961782197928</v>
+      </c>
+      <c r="NR20" s="12">
+        <v>119.00157681611</v>
       </c>
       <c r="NS20" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT20" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU20" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV20" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW20" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX20" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY20" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ20" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA20" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B21" s="11">
         <v>56.569385260854</v>
@@ -20313,42 +20341,42 @@
         <v>120.603410146055</v>
       </c>
       <c r="NQ21" s="11">
-        <v>132.679743581669</v>
-      </c>
-      <c r="NR21" s="14" t="s">
-        <v>51</v>
+        <v>132.686433340872</v>
+      </c>
+      <c r="NR21" s="11">
+        <v>136.49039660532</v>
       </c>
       <c r="NS21" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT21" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU21" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV21" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW21" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX21" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY21" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ21" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA21" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B22" s="12">
         <v>114.319677175604</v>
@@ -21488,42 +21516,42 @@
         <v>94.525779487051</v>
       </c>
       <c r="NQ22" s="12">
-        <v>100.751842142054</v>
-      </c>
-      <c r="NR22" s="15" t="s">
-        <v>51</v>
+        <v>100.763602212482</v>
+      </c>
+      <c r="NR22" s="12">
+        <v>89.556796258122</v>
       </c>
       <c r="NS22" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT22" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU22" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV22" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW22" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX22" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY22" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ22" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA22" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B23" s="11">
         <v>120.050850501478</v>
@@ -22663,42 +22691,42 @@
         <v>98.031682121408</v>
       </c>
       <c r="NQ23" s="11">
-        <v>107.552344239205</v>
-      </c>
-      <c r="NR23" s="14" t="s">
-        <v>51</v>
+        <v>108.459641572671</v>
+      </c>
+      <c r="NR23" s="11">
+        <v>89.796021771915</v>
       </c>
       <c r="NS23" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT23" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU23" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV23" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW23" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX23" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY23" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ23" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA23" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" s="12">
         <v>90.68838387107</v>
@@ -23838,42 +23866,42 @@
         <v>83.192446765912</v>
       </c>
       <c r="NQ24" s="12">
-        <v>94.571855580748</v>
-      </c>
-      <c r="NR24" s="15" t="s">
-        <v>51</v>
+        <v>96.131824218697</v>
+      </c>
+      <c r="NR24" s="12">
+        <v>86.154301206632</v>
       </c>
       <c r="NS24" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT24" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU24" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV24" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW24" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX24" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY24" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ24" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA24" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B25" s="11">
         <v>139.460849924193</v>
@@ -25013,42 +25041,42 @@
         <v>74.592329412924</v>
       </c>
       <c r="NQ25" s="11">
-        <v>84.098498070882</v>
-      </c>
-      <c r="NR25" s="14" t="s">
-        <v>51</v>
+        <v>84.131216845256</v>
+      </c>
+      <c r="NR25" s="11">
+        <v>72.378058355542</v>
       </c>
       <c r="NS25" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT25" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU25" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV25" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW25" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX25" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY25" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ25" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA25" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B26" s="12">
         <v>130.395494603712</v>
@@ -26188,42 +26216,42 @@
         <v>93.987789748346</v>
       </c>
       <c r="NQ26" s="12">
-        <v>114.790448689315</v>
-      </c>
-      <c r="NR26" s="15" t="s">
-        <v>51</v>
+        <v>113.74138414969</v>
+      </c>
+      <c r="NR26" s="12">
+        <v>95.094615568835</v>
       </c>
       <c r="NS26" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT26" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU26" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV26" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW26" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX26" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY26" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ26" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA26" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B27" s="11">
         <v>51.479382699588</v>
@@ -27363,42 +27391,42 @@
         <v>118.965650169781</v>
       </c>
       <c r="NQ27" s="11">
-        <v>130.352894357337</v>
-      </c>
-      <c r="NR27" s="14" t="s">
-        <v>51</v>
+        <v>130.484457440817</v>
+      </c>
+      <c r="NR27" s="11">
+        <v>134.964755804629</v>
       </c>
       <c r="NS27" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT27" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU27" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV27" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW27" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX27" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY27" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ27" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA27" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B28" s="12">
         <v>68.358361009475</v>
@@ -28538,42 +28566,42 @@
         <v>108.591289148502</v>
       </c>
       <c r="NQ28" s="12">
-        <v>117.379786531723</v>
-      </c>
-      <c r="NR28" s="15" t="s">
-        <v>51</v>
+        <v>117.393639087594</v>
+      </c>
+      <c r="NR28" s="12">
+        <v>113.726001819423</v>
       </c>
       <c r="NS28" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT28" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU28" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV28" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW28" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX28" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY28" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ28" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA28" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B29" s="11">
         <v>76.901717312341</v>
@@ -29713,42 +29741,42 @@
         <v>56.918750943524</v>
       </c>
       <c r="NQ29" s="11">
-        <v>61.390508115369</v>
-      </c>
-      <c r="NR29" s="14" t="s">
-        <v>51</v>
+        <v>61.392672256184</v>
+      </c>
+      <c r="NR29" s="11">
+        <v>63.666285531905</v>
       </c>
       <c r="NS29" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT29" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU29" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV29" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW29" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX29" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY29" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ29" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA29" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B30" s="12">
         <v>73.778714563351</v>
@@ -30888,42 +30916,42 @@
         <v>83.573492823982</v>
       </c>
       <c r="NQ30" s="12">
-        <v>89.42254829514</v>
-      </c>
-      <c r="NR30" s="15" t="s">
-        <v>51</v>
+        <v>89.452909579163</v>
+      </c>
+      <c r="NR30" s="12">
+        <v>83.984922406316</v>
       </c>
       <c r="NS30" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT30" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU30" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV30" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW30" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX30" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY30" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ30" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA30" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B31" s="11">
         <v>73.811018646336</v>
@@ -32063,42 +32091,42 @@
         <v>130.52941040164</v>
       </c>
       <c r="NQ31" s="11">
-        <v>135.919354467542</v>
-      </c>
-      <c r="NR31" s="14" t="s">
-        <v>51</v>
+        <v>135.997152911086</v>
+      </c>
+      <c r="NR31" s="11">
+        <v>132.219125936331</v>
       </c>
       <c r="NS31" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT31" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU31" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV31" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW31" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX31" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY31" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ31" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA31" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B32" s="12">
         <v>86.120032958035</v>
@@ -33238,42 +33266,42 @@
         <v>113.658490889112</v>
       </c>
       <c r="NQ32" s="12">
-        <v>124.875994302856</v>
-      </c>
-      <c r="NR32" s="15" t="s">
-        <v>51</v>
+        <v>124.892855318952</v>
+      </c>
+      <c r="NR32" s="12">
+        <v>115.682183544421</v>
       </c>
       <c r="NS32" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT32" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU32" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV32" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW32" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX32" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY32" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ32" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA32" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B33" s="11">
         <v>69.399412813085</v>
@@ -34413,42 +34441,42 @@
         <v>98.476390929505</v>
       </c>
       <c r="NQ33" s="11">
-        <v>102.323600700408</v>
-      </c>
-      <c r="NR33" s="14" t="s">
-        <v>51</v>
+        <v>102.338233781333</v>
+      </c>
+      <c r="NR33" s="11">
+        <v>101.346969047229</v>
       </c>
       <c r="NS33" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT33" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU33" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV33" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW33" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX33" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY33" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ33" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA33" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B34" s="12">
         <v>72.622901666126</v>
@@ -35588,42 +35616,42 @@
         <v>111.241182005105</v>
       </c>
       <c r="NQ34" s="12">
-        <v>130.9936667328</v>
-      </c>
-      <c r="NR34" s="15" t="s">
-        <v>51</v>
+        <v>131.041150394689</v>
+      </c>
+      <c r="NR34" s="12">
+        <v>113.249921388948</v>
       </c>
       <c r="NS34" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT34" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU34" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV34" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW34" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX34" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY34" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ34" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA34" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B35" s="11">
         <v>60.182989506094</v>
@@ -36763,42 +36791,42 @@
         <v>94.758674457404</v>
       </c>
       <c r="NQ35" s="11">
-        <v>111.806359532605</v>
-      </c>
-      <c r="NR35" s="14" t="s">
-        <v>51</v>
+        <v>111.846408677687</v>
+      </c>
+      <c r="NR35" s="11">
+        <v>111.62301222582</v>
       </c>
       <c r="NS35" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT35" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU35" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV35" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW35" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX35" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY35" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ35" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA35" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B36" s="12">
         <v>61.132998870046</v>
@@ -37938,42 +37966,42 @@
         <v>155.419244693532</v>
       </c>
       <c r="NQ36" s="12">
-        <v>159.362150320239</v>
-      </c>
-      <c r="NR36" s="15" t="s">
-        <v>51</v>
+        <v>159.681670659561</v>
+      </c>
+      <c r="NR36" s="12">
+        <v>158.853813543514</v>
       </c>
       <c r="NS36" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT36" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU36" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV36" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW36" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX36" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY36" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ36" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA36" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B37" s="11">
         <v>65.758484330262</v>
@@ -39113,42 +39141,42 @@
         <v>130.848267646768</v>
       </c>
       <c r="NQ37" s="11">
-        <v>143.65942958932</v>
-      </c>
-      <c r="NR37" s="14" t="s">
-        <v>51</v>
+        <v>143.66974649591</v>
+      </c>
+      <c r="NR37" s="11">
+        <v>135.238911815167</v>
       </c>
       <c r="NS37" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT37" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU37" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV37" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW37" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX37" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY37" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ37" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA37" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B38" s="12">
         <v>33.546378018984</v>
@@ -40288,42 +40316,42 @@
         <v>122.237749183387</v>
       </c>
       <c r="NQ38" s="12">
-        <v>143.820220087755</v>
-      </c>
-      <c r="NR38" s="15" t="s">
-        <v>51</v>
+        <v>143.825789352896</v>
+      </c>
+      <c r="NR38" s="12">
+        <v>126.149119296773</v>
       </c>
       <c r="NS38" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT38" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU38" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV38" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW38" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX38" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY38" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ38" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA38" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B39" s="11">
         <v>113.328554079414</v>
@@ -41463,42 +41491,42 @@
         <v>101.810654518516</v>
       </c>
       <c r="NQ39" s="11">
-        <v>103.37311701641</v>
-      </c>
-      <c r="NR39" s="14" t="s">
-        <v>51</v>
+        <v>102.984526971702</v>
+      </c>
+      <c r="NR39" s="11">
+        <v>74.953813845693</v>
       </c>
       <c r="NS39" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT39" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU39" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV39" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW39" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX39" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY39" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ39" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA39" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B40" s="12">
         <v>42.404526159595</v>
@@ -42638,61 +42666,56 @@
         <v>126.545332783136</v>
       </c>
       <c r="NQ40" s="12">
-        <v>128.435789348218</v>
-      </c>
-      <c r="NR40" s="15" t="s">
-        <v>51</v>
+        <v>127.229955155877</v>
+      </c>
+      <c r="NR40" s="12">
+        <v>128.125531096288</v>
       </c>
       <c r="NS40" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT40" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU40" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV40" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW40" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX40" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY40" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ40" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA40" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3"/>
+      <c r="A47" s="3"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -42729,7 +42752,7 @@
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <headerFooter/>
-  <legacyDrawing r:id="Rf489275764264d1b"/>
+  <legacyDrawing r:id="R1f1585171f9a4746"/>
 </worksheet>
 </file>
 

--- a/DATA/actind.xlsx
+++ b/DATA/actind.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Tabulado" sheetId="1" r:id="R3ecdd2bfd6a64539"/>
-    <sheet name="MetaInfo" sheetId="2" r:id="R2953290a6fa34c8b"/>
+    <sheet name="Tabulado" sheetId="1" r:id="R7a5bd7bdf6a446ee"/>
+    <sheet name="MetaInfo" sheetId="2" r:id="R48a74b1ff3754a15"/>
   </sheets>
 </workbook>
 </file>
@@ -68,11 +68,22 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
+          <t xml:space="preserve">P. Cifras preliminares</t>
+        </d:r>
+      </text>
+    </comment>
+    <comment ref="NR6" authorId="0">
+      <text>
+        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
-    <comment ref="NR6" authorId="0">
+    <comment ref="NS6" authorId="0">
       <text>
         <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
           <rPr>
@@ -88,12 +99,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>Instituto Nacional de Estadística y Geografía (INEGI).</t>
   </si>
   <si>
-    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Actividad Industrial. Año Base 2013. Serie de enero de 1993 a abril de 2022</t>
+    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Actividad Industrial. Año Base 2013. Serie de enero de 1993 a mayo de 2022</t>
   </si>
   <si>
     <t>Índice de volumen físico base 2013=100</t>
@@ -321,6 +332,26 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
+      <d:t xml:space="preserve">P</d:t>
+    </d:r>
+  </si>
+  <si>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="10"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t> Abril</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:vertAlign val="superscript"/>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
       <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
@@ -331,7 +362,7 @@
         <d:sz val="10"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
-      <d:t> Abril</d:t>
+      <d:t> Mayo</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -554,19 +585,19 @@
     <t>COBERTURA TEMPORAL</t>
   </si>
   <si>
-    <t>1993-01-2022-04</t>
+    <t>1993-01-2022-05</t>
   </si>
   <si>
     <t>DESCRIPCIÓN PERIODO</t>
   </si>
   <si>
-    <t>Serie de enero de 1993 a abril de 2022</t>
+    <t>Serie de enero de 1993 a mayo de 2022</t>
   </si>
   <si>
     <t>FECHA DE ACTUALIZACIÓN</t>
   </si>
   <si>
-    <t>2022-06-10</t>
+    <t>2022-07-12</t>
   </si>
 </sst>
 </file>
@@ -2722,7 +2753,7 @@
         <v>50</v>
       </c>
       <c r="NS6" s="10" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="NT6" s="10" t="s">
         <v>39</v>
@@ -2751,7 +2782,7 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" s="11">
         <v>69.222752741001</v>
@@ -3894,39 +3925,39 @@
         <v>103.974325615953</v>
       </c>
       <c r="NR7" s="11">
-        <v>100.176425204805</v>
-      </c>
-      <c r="NS7" s="14" t="s">
-        <v>52</v>
+        <v>100.153893745772</v>
+      </c>
+      <c r="NS7" s="11">
+        <v>102.166871678541</v>
       </c>
       <c r="NT7" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU7" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV7" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW7" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX7" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY7" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ7" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA7" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8" s="12">
         <v>85.987958716261</v>
@@ -5069,39 +5100,39 @@
         <v>75.234536033429</v>
       </c>
       <c r="NR8" s="12">
-        <v>73.445173021969</v>
-      </c>
-      <c r="NS8" s="15" t="s">
-        <v>52</v>
+        <v>73.348469683902</v>
+      </c>
+      <c r="NS8" s="12">
+        <v>75.060722267151</v>
       </c>
       <c r="NT8" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU8" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV8" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW8" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX8" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY8" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ8" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA8" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" s="11">
         <v>99.519341749343</v>
@@ -6246,37 +6277,37 @@
       <c r="NR9" s="11">
         <v>64.812985281683</v>
       </c>
-      <c r="NS9" s="14" t="s">
-        <v>52</v>
+      <c r="NS9" s="11">
+        <v>67.167613645098</v>
       </c>
       <c r="NT9" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU9" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV9" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW9" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX9" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY9" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ9" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA9" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="12">
         <v>48.814950253715</v>
@@ -7419,39 +7450,39 @@
         <v>113.406797971365</v>
       </c>
       <c r="NR10" s="12">
-        <v>109.926347472208</v>
-      </c>
-      <c r="NS10" s="15" t="s">
-        <v>52</v>
+        <v>109.284731800084</v>
+      </c>
+      <c r="NS10" s="12">
+        <v>108.849108831044</v>
       </c>
       <c r="NT10" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU10" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV10" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW10" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX10" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY10" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ10" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA10" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" s="11">
         <v>22.744141472693</v>
@@ -8594,39 +8625,39 @@
         <v>75.019149266082</v>
       </c>
       <c r="NR11" s="11">
-        <v>90.446395541811</v>
-      </c>
-      <c r="NS11" s="14" t="s">
-        <v>52</v>
+        <v>90.408321999991</v>
+      </c>
+      <c r="NS11" s="11">
+        <v>89.818801467194</v>
       </c>
       <c r="NT11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" s="12">
         <v>38.665943249786</v>
@@ -9769,39 +9800,39 @@
         <v>107.333690083897</v>
       </c>
       <c r="NR12" s="12">
-        <v>108.886948609133</v>
-      </c>
-      <c r="NS12" s="15" t="s">
-        <v>52</v>
+        <v>108.448520195631</v>
+      </c>
+      <c r="NS12" s="12">
+        <v>117.288001080015</v>
       </c>
       <c r="NT12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" s="11">
         <v>33.532463105934</v>
@@ -10944,39 +10975,39 @@
         <v>106.919043533231</v>
       </c>
       <c r="NR13" s="11">
-        <v>108.680774104463</v>
-      </c>
-      <c r="NS13" s="14" t="s">
-        <v>52</v>
+        <v>108.139809284348</v>
+      </c>
+      <c r="NS13" s="11">
+        <v>119.162295345738</v>
       </c>
       <c r="NT13" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU13" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV13" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW13" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX13" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY13" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ13" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA13" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="12">
         <v>56.292184219235</v>
@@ -12119,39 +12150,39 @@
         <v>108.757414304967</v>
       </c>
       <c r="NR14" s="12">
-        <v>109.594866317828</v>
-      </c>
-      <c r="NS14" s="15" t="s">
-        <v>52</v>
+        <v>109.508505383006</v>
+      </c>
+      <c r="NS14" s="12">
+        <v>110.852452202932</v>
       </c>
       <c r="NT14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B15" s="11">
         <v>71.262707730501</v>
@@ -13294,39 +13325,39 @@
         <v>91.8759970806</v>
       </c>
       <c r="NR15" s="11">
-        <v>90.969398977626</v>
-      </c>
-      <c r="NS15" s="14" t="s">
-        <v>52</v>
+        <v>90.978653151801</v>
+      </c>
+      <c r="NS15" s="11">
+        <v>89.373258182324</v>
       </c>
       <c r="NT15" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU15" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV15" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW15" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX15" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY15" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ15" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA15" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16" s="12">
         <v>84.037802362945</v>
@@ -14469,39 +14500,39 @@
         <v>96.251025705438</v>
       </c>
       <c r="NR16" s="12">
-        <v>95.691941652894</v>
-      </c>
-      <c r="NS16" s="15" t="s">
-        <v>52</v>
+        <v>95.597383743177</v>
+      </c>
+      <c r="NS16" s="12">
+        <v>94.494324853835</v>
       </c>
       <c r="NT16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B17" s="11">
         <v>35.064527007042</v>
@@ -15644,39 +15675,39 @@
         <v>53.571855579925</v>
       </c>
       <c r="NR17" s="11">
-        <v>48.011239746018</v>
-      </c>
-      <c r="NS17" s="14" t="s">
-        <v>52</v>
+        <v>48.462613646036</v>
+      </c>
+      <c r="NS17" s="11">
+        <v>51.861244757465</v>
       </c>
       <c r="NT17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" s="12">
         <v>73.872091946179</v>
@@ -16819,39 +16850,39 @@
         <v>149.753677668215</v>
       </c>
       <c r="NR18" s="12">
-        <v>156.98883785262</v>
-      </c>
-      <c r="NS18" s="15" t="s">
-        <v>52</v>
+        <v>156.651428186278</v>
+      </c>
+      <c r="NS18" s="12">
+        <v>141.011467930841</v>
       </c>
       <c r="NT18" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU18" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV18" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW18" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX18" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY18" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ18" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA18" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B19" s="11">
         <v>63.653052579688</v>
@@ -17994,39 +18025,39 @@
         <v>122.205690846012</v>
       </c>
       <c r="NR19" s="11">
-        <v>115.643527100999</v>
-      </c>
-      <c r="NS19" s="14" t="s">
-        <v>52</v>
+        <v>115.678651532414</v>
+      </c>
+      <c r="NS19" s="11">
+        <v>118.87973551246</v>
       </c>
       <c r="NT19" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU19" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV19" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW19" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX19" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY19" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ19" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA19" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B20" s="12">
         <v>63.907698868213</v>
@@ -19169,39 +19200,39 @@
         <v>122.961782197928</v>
       </c>
       <c r="NR20" s="12">
-        <v>119.00157681611</v>
-      </c>
-      <c r="NS20" s="15" t="s">
-        <v>52</v>
+        <v>119.024674746419</v>
+      </c>
+      <c r="NS20" s="12">
+        <v>121.510239921942</v>
       </c>
       <c r="NT20" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU20" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV20" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW20" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX20" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY20" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ20" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA20" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B21" s="11">
         <v>56.569385260854</v>
@@ -20344,39 +20375,39 @@
         <v>132.686433340872</v>
       </c>
       <c r="NR21" s="11">
-        <v>136.49039660532</v>
-      </c>
-      <c r="NS21" s="14" t="s">
-        <v>52</v>
+        <v>136.490336884155</v>
+      </c>
+      <c r="NS21" s="11">
+        <v>143.77924536076</v>
       </c>
       <c r="NT21" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU21" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV21" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW21" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX21" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY21" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ21" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA21" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B22" s="12">
         <v>114.319677175604</v>
@@ -21519,39 +21550,39 @@
         <v>100.763602212482</v>
       </c>
       <c r="NR22" s="12">
-        <v>89.556796258122</v>
-      </c>
-      <c r="NS22" s="15" t="s">
-        <v>52</v>
+        <v>89.55637518307</v>
+      </c>
+      <c r="NS22" s="12">
+        <v>97.935694479748</v>
       </c>
       <c r="NT22" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU22" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV22" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW22" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX22" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY22" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ22" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA22" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B23" s="11">
         <v>120.050850501478</v>
@@ -22694,39 +22725,39 @@
         <v>108.459641572671</v>
       </c>
       <c r="NR23" s="11">
-        <v>89.796021771915</v>
-      </c>
-      <c r="NS23" s="14" t="s">
-        <v>52</v>
+        <v>90.148865147563</v>
+      </c>
+      <c r="NS23" s="11">
+        <v>99.929355834826</v>
       </c>
       <c r="NT23" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU23" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV23" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW23" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX23" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY23" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ23" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA23" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B24" s="12">
         <v>90.68838387107</v>
@@ -23869,39 +23900,39 @@
         <v>96.131824218697</v>
       </c>
       <c r="NR24" s="12">
-        <v>86.154301206632</v>
-      </c>
-      <c r="NS24" s="15" t="s">
-        <v>52</v>
+        <v>86.163190075475</v>
+      </c>
+      <c r="NS24" s="12">
+        <v>88.33366192408</v>
       </c>
       <c r="NT24" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU24" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV24" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW24" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX24" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY24" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ24" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA24" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25" s="11">
         <v>139.460849924193</v>
@@ -25044,39 +25075,39 @@
         <v>84.131216845256</v>
       </c>
       <c r="NR25" s="11">
-        <v>72.378058355542</v>
-      </c>
-      <c r="NS25" s="14" t="s">
-        <v>52</v>
+        <v>72.378435720542</v>
+      </c>
+      <c r="NS25" s="11">
+        <v>79.405588338952</v>
       </c>
       <c r="NT25" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU25" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV25" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW25" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX25" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY25" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ25" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA25" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B26" s="12">
         <v>130.395494603712</v>
@@ -26219,39 +26250,39 @@
         <v>113.74138414969</v>
       </c>
       <c r="NR26" s="12">
-        <v>95.094615568835</v>
-      </c>
-      <c r="NS26" s="15" t="s">
-        <v>52</v>
+        <v>95.089206772291</v>
+      </c>
+      <c r="NS26" s="12">
+        <v>103.438561795552</v>
       </c>
       <c r="NT26" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU26" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV26" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW26" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX26" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY26" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ26" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA26" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B27" s="11">
         <v>51.479382699588</v>
@@ -27396,37 +27427,37 @@
       <c r="NR27" s="11">
         <v>134.964755804629</v>
       </c>
-      <c r="NS27" s="14" t="s">
-        <v>52</v>
+      <c r="NS27" s="11">
+        <v>140.577984392842</v>
       </c>
       <c r="NT27" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU27" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV27" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW27" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX27" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY27" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ27" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA27" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B28" s="12">
         <v>68.358361009475</v>
@@ -28569,39 +28600,39 @@
         <v>117.393639087594</v>
       </c>
       <c r="NR28" s="12">
-        <v>113.726001819423</v>
-      </c>
-      <c r="NS28" s="15" t="s">
-        <v>52</v>
+        <v>113.726024891744</v>
+      </c>
+      <c r="NS28" s="12">
+        <v>114.270856795192</v>
       </c>
       <c r="NT28" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU28" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV28" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW28" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX28" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY28" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ28" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA28" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B29" s="11">
         <v>76.901717312341</v>
@@ -29746,37 +29777,37 @@
       <c r="NR29" s="11">
         <v>63.666285531905</v>
       </c>
-      <c r="NS29" s="14" t="s">
-        <v>52</v>
+      <c r="NS29" s="11">
+        <v>62.587987898164</v>
       </c>
       <c r="NT29" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU29" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV29" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW29" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX29" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY29" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ29" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA29" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B30" s="12">
         <v>73.778714563351</v>
@@ -30919,39 +30950,39 @@
         <v>89.452909579163</v>
       </c>
       <c r="NR30" s="12">
-        <v>83.984922406316</v>
-      </c>
-      <c r="NS30" s="15" t="s">
-        <v>52</v>
+        <v>83.984935410048</v>
+      </c>
+      <c r="NS30" s="12">
+        <v>85.127567502771</v>
       </c>
       <c r="NT30" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU30" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV30" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW30" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX30" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY30" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ30" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA30" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B31" s="11">
         <v>73.811018646336</v>
@@ -32094,39 +32125,39 @@
         <v>135.997152911086</v>
       </c>
       <c r="NR31" s="11">
-        <v>132.219125936331</v>
-      </c>
-      <c r="NS31" s="14" t="s">
-        <v>52</v>
+        <v>132.226019722254</v>
+      </c>
+      <c r="NS31" s="11">
+        <v>138.179189367964</v>
       </c>
       <c r="NT31" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU31" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV31" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW31" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX31" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY31" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ31" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA31" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B32" s="12">
         <v>86.120032958035</v>
@@ -33269,39 +33300,39 @@
         <v>124.892855318952</v>
       </c>
       <c r="NR32" s="12">
-        <v>115.682183544421</v>
-      </c>
-      <c r="NS32" s="15" t="s">
-        <v>52</v>
+        <v>115.712160932925</v>
+      </c>
+      <c r="NS32" s="12">
+        <v>117.173110932031</v>
       </c>
       <c r="NT32" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU32" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV32" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW32" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX32" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY32" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ32" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA32" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B33" s="11">
         <v>69.399412813085</v>
@@ -34444,39 +34475,39 @@
         <v>102.338233781333</v>
       </c>
       <c r="NR33" s="11">
-        <v>101.346969047229</v>
-      </c>
-      <c r="NS33" s="14" t="s">
-        <v>52</v>
+        <v>101.377935092916</v>
+      </c>
+      <c r="NS33" s="11">
+        <v>105.885075369854</v>
       </c>
       <c r="NT33" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU33" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV33" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW33" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX33" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY33" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ33" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA33" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B34" s="12">
         <v>72.622901666126</v>
@@ -35619,39 +35650,39 @@
         <v>131.041150394689</v>
       </c>
       <c r="NR34" s="12">
-        <v>113.249921388948</v>
-      </c>
-      <c r="NS34" s="15" t="s">
-        <v>52</v>
+        <v>113.343426138599</v>
+      </c>
+      <c r="NS34" s="12">
+        <v>119.936234204795</v>
       </c>
       <c r="NT34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B35" s="11">
         <v>60.182989506094</v>
@@ -36794,39 +36825,39 @@
         <v>111.846408677687</v>
       </c>
       <c r="NR35" s="11">
-        <v>111.62301222582</v>
-      </c>
-      <c r="NS35" s="14" t="s">
-        <v>52</v>
+        <v>111.974596319794</v>
+      </c>
+      <c r="NS35" s="11">
+        <v>114.051296023054</v>
       </c>
       <c r="NT35" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU35" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV35" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW35" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX35" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY35" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ35" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA35" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B36" s="12">
         <v>61.132998870046</v>
@@ -37969,39 +38000,39 @@
         <v>159.681670659561</v>
       </c>
       <c r="NR36" s="12">
-        <v>158.853813543514</v>
-      </c>
-      <c r="NS36" s="15" t="s">
-        <v>52</v>
+        <v>158.931876176573</v>
+      </c>
+      <c r="NS36" s="12">
+        <v>153.337785951295</v>
       </c>
       <c r="NT36" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU36" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV36" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW36" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX36" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY36" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ36" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA36" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B37" s="11">
         <v>65.758484330262</v>
@@ -39146,37 +39177,37 @@
       <c r="NR37" s="11">
         <v>135.238911815167</v>
       </c>
-      <c r="NS37" s="14" t="s">
-        <v>52</v>
+      <c r="NS37" s="11">
+        <v>138.712518610676</v>
       </c>
       <c r="NT37" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU37" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV37" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW37" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX37" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY37" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ37" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA37" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B38" s="12">
         <v>33.546378018984</v>
@@ -40321,37 +40352,37 @@
       <c r="NR38" s="12">
         <v>126.149119296773</v>
       </c>
-      <c r="NS38" s="15" t="s">
-        <v>52</v>
+      <c r="NS38" s="12">
+        <v>130.462431357357</v>
       </c>
       <c r="NT38" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU38" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV38" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW38" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX38" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY38" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ38" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA38" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B39" s="11">
         <v>113.328554079414</v>
@@ -41496,37 +41527,37 @@
       <c r="NR39" s="11">
         <v>74.953813845693</v>
       </c>
-      <c r="NS39" s="14" t="s">
-        <v>52</v>
+      <c r="NS39" s="11">
+        <v>103.911503835846</v>
       </c>
       <c r="NT39" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU39" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV39" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW39" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX39" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY39" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ39" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA39" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B40" s="12">
         <v>42.404526159595</v>
@@ -42669,49 +42700,49 @@
         <v>127.229955155877</v>
       </c>
       <c r="NR40" s="12">
-        <v>128.125531096288</v>
-      </c>
-      <c r="NS40" s="15" t="s">
-        <v>52</v>
+        <v>128.208463752774</v>
+      </c>
+      <c r="NS40" s="12">
+        <v>132.621448001989</v>
       </c>
       <c r="NT40" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU40" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV40" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW40" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX40" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY40" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ40" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA40" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47">
@@ -42752,7 +42783,7 @@
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <headerFooter/>
-  <legacyDrawing r:id="R1f1585171f9a4746"/>
+  <legacyDrawing r:id="R0d55cc6bbb9344eb"/>
 </worksheet>
 </file>
 
@@ -42769,106 +42800,106 @@
   <sheetData>
     <row r="2">
       <c r="B2" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
